--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -13,13 +13,144 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> eg.
+[
+    {
+        "id": 1,
+        "name": "测试1",
+        "status": 0,
+        "subOrgs": [
+            {
+                "id": 2,
+                "name": "测试2",
+                "status": 0,
+                "subOrgs": []
+            }
+        ]
+    },
+    {
+        "id": 3,
+        "name": "测试1",
+        "status": 0,
+        "subOrgs": [
+            {
+                "id": 4,
+                "name": "测试2",
+                "status": 0,
+                "subOrgs": []
+            }
+        ]
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>eg.
+[
+    {
+        "id": 1,
+        "name": "用户1",
+        "orgId": 0,
+        "orgName": "测试2",
+        "status": 0
+    },
+    {
+        "id": 2,
+        "name": "用户2",
+        "orgId": 1,
+        "orgName": "测试3",
+        "status": 0
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>eg.
+[
+    {
+        "id": 1,
+        "name": "用户1",
+        "orgId": 0,
+        "status": 0
+    },
+    {
+        "id": 2,
+        "name": "用户2",
+        "orgId": 1,
+        "status": 0
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>eg.
+{
+    "id": 1,
+    "name": "用户1",
+    "password": "123",
+    "orgId": 0,
+    "role": [
+        0,
+        1,
+        2
+    ]
+}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="144">
   <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +192,6 @@
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -351,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交委案汇报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/entrusted_case_manage/report/search.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,10 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户信息创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/account/create.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,11 +612,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org</t>
+    <t>获取角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/interface.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/role.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/search.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -509,35 +644,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在组织的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/interface.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/role.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/search.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取接口信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取角色接口访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除角色接口访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加角色接口访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/delete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/add.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,35 +684,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取接口信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取角色接口访问权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除角色接口访问权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加角色接口访问权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/delete.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifs</t>
+    <t>接口id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有角色信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交委案汇报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用form表单方式登陆，
+登陆失败进入LoginError界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">返回所有组织结构 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -581,28 +733,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/authority/add.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口id列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN
-ROLE_INSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有角色信息</t>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json 格式用户数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +745,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +782,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -662,7 +804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -791,7 +933,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -800,7 +942,94 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -809,22 +1038,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -855,10 +1075,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -867,19 +1097,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,868 +1444,939 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="31">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="30">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="30">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="31">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="31">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="31">
+        <v>13</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="31">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="31">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="F19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="27">
+        <v>16</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="H20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="30">
+        <v>17</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="30">
+        <v>18</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="30">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="31">
+        <v>20</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="31">
+        <v>21</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="31">
+        <v>22</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="30">
+        <v>23</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="5" t="s">
+      <c r="H37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="H38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="31">
+        <v>24</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="31">
+        <v>25</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="D40" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" ht="57" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="26"/>
+      <c r="B41" s="32">
         <v>26</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="C41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14" t="s">
+      <c r="G41" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="28"/>
-      <c r="B44" s="15" t="s">
+      <c r="H41" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="19"/>
+      <c r="I41" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
+  <mergeCells count="52">
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -7,9 +7,11 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="web接口" sheetId="1" r:id="rId1"/>
+    <sheet name="数据接口" sheetId="4" r:id="rId2"/>
+    <sheet name="UI接口" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -629,8 +631,501 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.User[]
+eg.
+[
+    {
+        "id": 1,
+        "name": "用户1",
+        "orgId": 0,
+        "orgName": "测试2",
+        "status": 0
+    },
+    {
+        "id": 2,
+        "name": "用户2",
+        "orgId": 1,
+        "orgName": "测试3",
+        "status": 0
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.Organization[]
+eg.
+[
+    {
+        "id": 1,
+        "name": "测试1",
+        "status": 0,
+        "subOrgs": [
+            {
+                "id": 2,
+                "name": "测试2",
+                "status": 0,
+                "subOrgs": []
+            }
+        ]
+    },
+    {
+        "id": 3,
+        "name": "测试1",
+        "status": 0,
+        "subOrgs": [
+            {
+                "id": 4,
+                "name": "测试2",
+                "status": 0,
+                "subOrgs": []
+            }
+        ]
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.User[]
+eg.
+[
+    {
+        "id": 1,
+        "name": "用户1",
+        "orgId": 0,
+        "orgName": "测试2",
+        "status": 0
+    },
+    {
+        "id": 2,
+        "name": "用户2",
+        "orgId": 1,
+        "orgName": "测试3",
+        "status": 0
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>成功
+eg.
+{
+   "code":0,
+   "msg":"成功"
+}
+失败，code为错误编码
+eg.
+{
+   "code":1,
+   "msg":"错误信息"
+}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.Role[]
+eg.
+[
+    {
+        "id": 0,
+        "name": "ROLE_ADMIN"
+    },
+    {
+        "id": 1,
+        "name": "ROLE_INSIDE_STAFF"
+    },
+    {
+        "id": 2,
+        "name": "ROLE_OUTSIDE_STAFF"
+    },
+    {
+        "id": 3,
+        "name": "ROLE_MANAGER"
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.IF[]
+eg.
+[
+    {
+        "id": 0,
+        "name": "名字1",
+        "description": "描述1"
+    },
+    {
+        "id": 1,
+        "name": "名字2",
+        "description": "描述2"
+    }
+]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>number[]
+eg.
+[1,2,3,4]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>委案信息待定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.EntrustedCaseManageInfo[]
+eg.
+[
+    {
+        "id": 0,
+        "ownerId": 1,
+        "ownerName": "名字1",
+        "assigneeId": 2,
+        "assigneeName": "名字2"
+    },
+    {
+        "id": 1,
+        "ownerId": 1,
+        "ownerName": "名字1",
+        "assigneeId": 2,
+        "assigneeName": "名字2"
+    }
+]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>成功更新
+eg.
+{
+   "code":0,
+   "msg":"updated"
+}
+成功创建
+eg.
+{
+   "code":0,
+   "msg":"created"
+}
+失败，code为错误编码
+eg.
+{
+   "code":1,
+   "msg":"错误信息"
+}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.EntrustedCaseReport[]
+eg.
+[
+    {
+        "id": 0,
+        "entrustedCaseId": 1,
+        "date": "2012-3-4",
+        "content": "近日汇报",
+        "attachements": [
+            "example1.xml",
+            "example2.pdf",
+            "example3.mp3"
+        ]
+    },
+    {
+        "id": 1,
+        "entrustedCaseId": 2,
+        "date": "2012-3-4",
+        "content": "近日汇报1",
+        "attachements": [
+            "example1.xml",
+            "example2.pdf",
+            "example3.mp3"
+        ]
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.MessageEntrustedCase
+eg.
+[
+    {
+        "entrustedCaseId": 0,
+        "msgSummary": [
+            {
+                "fromId": 1,
+                "fromName": "张三",
+                "msgCount": 3
+            },
+            {
+                "fromId": 2,
+                "fromName": "张二",
+                "msgCount": 10
+            }
+        ]
+    },
+    {
+        "entrustedCaseId": 1,
+        "msgSummary": [
+            {
+                "fromId": 1,
+                "fromName": "张三",
+                "msgCount": 3
+            },
+            {
+                "fromId": 2,
+                "fromName": "张二",
+                "msgCount": 10
+            }
+        ]
+    }
+]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>collection.protocol.Message
+eg.
+[
+    {
+        "fromId": 0,
+        "fromName": "张三",
+        "toId": 1,
+        "toName": "李四",
+        "content": "内容",
+        "attachements": [
+            "example1.xls"
+        ],
+        "sendTime": "2013-12-11 58:11:23",
+        "read": 0
+    },
+    {
+        "fromId": 1,
+        "fromName": "李四",
+        "toId": 0,
+        "toName": "张三",
+        "content": "内容",
+        "attachements": [
+            "example1.xls"
+        ],
+        "sendTime": "2013-12-11 58:11:23",
+        "read": 0
+    }
+]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>eg.
+[a.mp3, b.mp3]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="172">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,10 +1212,6 @@
   </si>
   <si>
     <t>访问权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1377,6 +1868,14 @@
   </si>
   <si>
     <t>返回 collection.protocol.Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1705,7 +2204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1756,11 +2255,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1777,35 +2303,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2124,346 +2638,357 @@
     <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.25" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="30">
+        <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>22</v>
+      <c r="F2" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="16" t="s">
-        <v>106</v>
+      <c r="I2" s="35" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="11">
+        <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11">
+        <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="11">
+        <f>MAX($B$1:B5)+1</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="E6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="11">
+        <f>MAX($B$1:B6)+1</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="11">
+        <f>MAX($B$1:B7)+1</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="11">
+        <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11">
+        <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="I10" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30">
+        <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="30">
+        <f>MAX($B$1:B12)+1</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D13" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21">
-        <v>10</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>32</v>
+      <c r="A15" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="11">
+        <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -2472,68 +2997,73 @@
         <v>11</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="57" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="11">
+        <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="11">
+        <f>MAX($B$1:B16)+1</f>
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="I17" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="11">
-        <v>13</v>
+        <f>MAX($B$1:B17)+1</f>
+        <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -2542,167 +3072,171 @@
         <v>15</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="11">
-        <v>14</v>
+        <f>MAX($B$1:B18)+1</f>
+        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="11">
-        <v>15</v>
+        <f>MAX($B$1:B19)+1</f>
+        <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22">
-        <v>16</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="31">
+        <f>MAX($B$1:B20)+1</f>
+        <v>17</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>59</v>
+      <c r="F21" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="20"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="20"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="20"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="20"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="31"/>
+        <v>128</v>
+      </c>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21">
-        <v>17</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="20" t="s">
-        <v>60</v>
+      <c r="A26" s="34"/>
+      <c r="B26" s="30">
+        <f>MAX($B$1:B25)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
@@ -2710,357 +3244,339 @@
       <c r="H26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21">
-        <v>18</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="20" t="s">
-        <v>60</v>
+      <c r="A28" s="34"/>
+      <c r="B28" s="30">
+        <f>MAX($B$1:B27)+1</f>
+        <v>19</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="30">
+        <f>MAX($B$1:B29)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="21">
-        <v>19</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="11">
-        <v>20</v>
+        <f>MAX($B$1:B33)+1</f>
+        <v>21</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="11">
-        <v>21</v>
+        <f>MAX($B$1:B34)+1</f>
+        <v>22</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="11">
-        <v>22</v>
+        <f>MAX($B$1:B35)+1</f>
+        <v>23</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="30">
+        <f>MAX($B$1:B36)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="21">
-        <v>23</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="11">
+        <f>MAX($B$1:B38)+1</f>
+        <v>25</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="11">
-        <v>24</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="D39" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="11">
+        <f>MAX($B$1:B39)+1</f>
         <v>26</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="C40" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="11">
-        <v>25</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="19"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="12">
-        <v>26</v>
+        <f>MAX($B$1:B40)+1</f>
+        <v>27</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="24" t="s">
         <v>169</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="D26:D27"/>
@@ -3077,15 +3593,883 @@
     <mergeCell ref="A15:A29"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="30">
+        <f>MAX($B$1:B1)+100</f>
+        <v>100</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="19">
+        <f>MAX($B$1:B3)+1</f>
+        <v>101</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="19">
+        <f>MAX($B$1:B4)+1</f>
+        <v>102</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="19">
+        <f>MAX($B$1:B5)+1</f>
+        <v>103</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="19">
+        <f>MAX($B$1:B6)+1</f>
+        <v>104</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="30">
+        <f>MAX($B$1:B1)+200</f>
+        <v>200</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="19">
+        <f>MAX($B$1:B3)+1</f>
+        <v>201</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="19">
+        <f>MAX($B$1:B4)+1</f>
+        <v>202</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="19">
+        <f>MAX($B$1:B5)+1</f>
+        <v>203</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="19">
+        <f>MAX($B$1:B6)+1</f>
+        <v>204</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="19">
+        <f>MAX($B$1:B7)+1</f>
+        <v>205</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="19">
+        <f>MAX($B$1:B8)+1</f>
+        <v>206</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="19">
+        <f>MAX($B$1:B9)+1</f>
+        <v>207</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30">
+        <f>MAX($B$1:B10)+1</f>
+        <v>208</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="30">
+        <f>MAX($B$1:B12)+1</f>
+        <v>209</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19">
+        <f>MAX($B$1:B14)+1</f>
+        <v>210</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="19">
+        <f>MAX($B$1:B15)+1</f>
+        <v>211</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="19">
+        <f>MAX($B$1:B16)+1</f>
+        <v>212</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="19">
+        <f>MAX($B$1:B17)+1</f>
+        <v>213</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="19">
+        <f>MAX($B$1:B18)+1</f>
+        <v>214</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="19">
+        <f>MAX($B$1:B19)+1</f>
+        <v>215</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="31">
+        <f>MAX($B$1:B20)+1</f>
+        <v>216</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="30">
+        <f>MAX($B$1:B25)+1</f>
+        <v>217</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="30">
+        <f>MAX($B$1:B27)+1</f>
+        <v>218</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="30">
+        <f>MAX($B$1:B29)+1</f>
+        <v>219</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="19">
+        <f>MAX($B$1:B33)+1</f>
+        <v>220</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="19">
+        <f>MAX($B$1:B34)+1</f>
+        <v>221</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="19">
+        <f>MAX($B$1:B35)+1</f>
+        <v>222</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="30">
+        <f>MAX($B$1:B36)+1</f>
+        <v>223</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="27"/>
+    </row>
+    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="19">
+        <f>MAX($B$1:B38)+1</f>
+        <v>224</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="19">
+        <f>MAX($B$1:B39)+1</f>
+        <v>225</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37"/>
+      <c r="B41" s="12">
+        <f>MAX($B$1:B40)+1</f>
+        <v>226</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -222,12 +222,54 @@
 [
     {
         "id": 0,
-        "name": "名字1",
+        "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>address</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>": "地址1",
         "description": "描述1"
     },
     {
         "id": 1,
-        "name": "名字2",
+        "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>address</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>": "地址2",
         "description": "描述2"
     }
 ]</t>
@@ -270,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0">
+    <comment ref="I22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0" shapeId="0">
+    <comment ref="I37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0" shapeId="0">
+    <comment ref="I38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0" shapeId="0">
+    <comment ref="I41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="188">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1155,19 +1197,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attachements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1876,6 +1910,78 @@
   </si>
   <si>
     <t>委案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/create.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/role.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/interface.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/search.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/add.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_INSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/search.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/download.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/report/submit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/report/search.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/report/download.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/read_message.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/records.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/upload.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1970,7 +2076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2200,11 +2306,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2279,11 +2422,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2303,23 +2464,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2625,7 +2789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2644,955 +2808,973 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="36">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="C2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>170</v>
+      <c r="F2" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="35" t="s">
-        <v>105</v>
+      <c r="I2" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="11">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="11">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="11">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="11">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="H7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="I7" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>99</v>
+      <c r="A8" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="B8" s="11">
         <f>MAX($B$1:B7)+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="11">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="11">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="30">
+      <c r="A11" s="32"/>
+      <c r="B11" s="36">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="E11" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="F11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>116</v>
+        <v>86</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="36"/>
+        <v>96</v>
+      </c>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="30">
+      <c r="A13" s="32"/>
+      <c r="B13" s="36">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="H14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="36"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="A15" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="37">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="57" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="11">
+      <c r="C15" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="45"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="11">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="11">
-        <f>MAX($B$1:B16)+1</f>
-        <v>13</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="F17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="I17" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
       <c r="B18" s="11">
         <f>MAX($B$1:B17)+1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+        <v>145</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="45"/>
       <c r="B19" s="11">
         <f>MAX($B$1:B18)+1</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="45"/>
       <c r="B20" s="11">
         <f>MAX($B$1:B19)+1</f>
+        <v>15</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="45"/>
+      <c r="B21" s="11">
+        <f>MAX($B$1:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="37">
+        <f>MAX($B$1:B21)+1</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="G22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="45"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="45"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="36">
+        <f>MAX($B$1:B26)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="45"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="45"/>
+      <c r="B29" s="36">
+        <f>MAX($B$1:B28)+1</f>
+        <v>19</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="36">
+        <f>MAX($B$1:B30)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="F31" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="31">
-        <f>MAX($B$1:B20)+1</f>
-        <v>17</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="39"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="30">
-        <f>MAX($B$1:B25)+1</f>
-        <v>18</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="39"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="30">
-        <f>MAX($B$1:B27)+1</f>
-        <v>19</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="30">
-        <f>MAX($B$1:B29)+1</f>
-        <v>20</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" s="39"/>
-    </row>
-    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="11">
-        <f>MAX($B$1:B33)+1</f>
-        <v>21</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
       <c r="B35" s="11">
         <f>MAX($B$1:B34)+1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="11">
         <f>MAX($B$1:B35)+1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I36" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
+      <c r="B37" s="11">
         <f>MAX($B$1:B36)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
+      <c r="B38" s="36">
+        <f>MAX($B$1:B37)+1</f>
         <v>24</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" s="26" t="s">
+      <c r="C38" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="11">
-        <f>MAX($B$1:B38)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
-        <v>70</v>
-      </c>
+      <c r="I39" s="40"/>
+    </row>
+    <row r="40" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
       <c r="B40" s="11">
         <f>MAX($B$1:B39)+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I40" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="11">
+        <f>MAX($B$1:B40)+1</f>
+        <v>26</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33"/>
+      <c r="B42" s="12">
+        <f>MAX($B$1:B41)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="37"/>
-      <c r="B41" s="12">
-        <f>MAX($B$1:B40)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A15:A29"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="I30:I33"/>
+  <mergeCells count="59">
+    <mergeCell ref="A15:A30"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
@@ -3608,23 +3790,26 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3651,47 +3836,47 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="36">
         <f>MAX($B$1:B1)+100</f>
         <v>100</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="19">
         <f>MAX($B$1:B3)+1</f>
         <v>101</v>
@@ -3699,12 +3884,12 @@
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="19">
         <f>MAX($B$1:B4)+1</f>
         <v>102</v>
@@ -3712,12 +3897,12 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="19">
         <f>MAX($B$1:B5)+1</f>
         <v>103</v>
@@ -3725,12 +3910,12 @@
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="19">
         <f>MAX($B$1:B6)+1</f>
         <v>104</v>
@@ -3738,7 +3923,7 @@
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="17"/>
     </row>
@@ -3775,684 +3960,653 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="36">
         <f>MAX($B$1:B1)+200</f>
         <v>200</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>105</v>
+      <c r="C2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="19">
         <f>MAX($B$1:B3)+1</f>
         <v>201</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="19">
         <f>MAX($B$1:B4)+1</f>
         <v>202</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="19">
         <f>MAX($B$1:B5)+1</f>
         <v>203</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="19">
         <f>MAX($B$1:B6)+1</f>
         <v>204</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>99</v>
+      <c r="A8" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="B8" s="19">
         <f>MAX($B$1:B7)+1</f>
         <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="19">
         <f>MAX($B$1:B8)+1</f>
         <v>206</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="19">
         <f>MAX($B$1:B9)+1</f>
         <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="30">
+      <c r="A11" s="32"/>
+      <c r="B11" s="36">
         <f>MAX($B$1:B10)+1</f>
         <v>208</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>116</v>
+      <c r="E11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="30">
+      <c r="A13" s="32"/>
+      <c r="B13" s="36">
         <f>MAX($B$1:B12)+1</f>
         <v>209</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>117</v>
+      <c r="C13" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>31</v>
+      <c r="A15" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="19">
         <f>MAX($B$1:B14)+1</f>
         <v>210</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="19">
         <f>MAX($B$1:B15)+1</f>
         <v>211</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="E16" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="19">
         <f>MAX($B$1:B16)+1</f>
         <v>212</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="E17" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="19">
         <f>MAX($B$1:B17)+1</f>
         <v>213</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="19">
         <f>MAX($B$1:B18)+1</f>
         <v>214</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="19">
         <f>MAX($B$1:B19)+1</f>
         <v>215</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="F20" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="31">
+      <c r="A21" s="32"/>
+      <c r="B21" s="37">
         <f>MAX($B$1:B20)+1</f>
         <v>216</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>125</v>
+      <c r="C21" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="38"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="38"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="38"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="39"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="30">
+      <c r="A26" s="32"/>
+      <c r="B26" s="36">
         <f>MAX($B$1:B25)+1</f>
         <v>217</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>126</v>
+      <c r="F26" s="29" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="39"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="30">
+      <c r="A28" s="32"/>
+      <c r="B28" s="36">
         <f>MAX($B$1:B27)+1</f>
         <v>218</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>138</v>
+      <c r="D28" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="38"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="30">
+      <c r="A30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="36">
         <f>MAX($B$1:B29)+1</f>
         <v>219</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>154</v>
+      <c r="C30" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="38"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="38"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="39"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="19">
         <f>MAX($B$1:B33)+1</f>
         <v>220</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="19">
         <f>MAX($B$1:B34)+1</f>
         <v>221</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="E35" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="19">
         <f>MAX($B$1:B35)+1</f>
         <v>222</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="30">
+      <c r="A37" s="32"/>
+      <c r="B37" s="36">
         <f>MAX($B$1:B36)+1</f>
         <v>223</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>164</v>
+      <c r="C37" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="27"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="19">
         <f>MAX($B$1:B38)+1</f>
         <v>224</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
-        <v>70</v>
+      <c r="A40" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="B40" s="19">
         <f>MAX($B$1:B39)+1</f>
         <v>225</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="37"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="12">
         <f>MAX($B$1:B40)+1</f>
         <v>226</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A29"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="B11:B12"/>
@@ -4467,6 +4621,37 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -112,13 +112,15 @@
         "id": 1,
         "name": "用户1",
         "orgId": 0,
-        "status": 0
+        "status": 0,
+        "roles":[0,1]
     },
     {
         "id": 2,
         "name": "用户2",
         "orgId": 1,
-        "status": 0
+        "status": 0,
+        "roles":[2]
     }
 ]</t>
         </r>
@@ -166,7 +168,7 @@
     "name": "用户1",
     "password": "123",
     "orgId": 0,
-    "role": [
+    "roles": [
         0,
         1,
         2
@@ -309,6 +311,22 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>json:
+[1,2,3]</t>
         </r>
       </text>
     </comment>
@@ -552,6 +570,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="G36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>json:
+[1,2,3,4]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I37" authorId="0" shapeId="0">
       <text>
         <r>
@@ -653,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0" shapeId="0">
+    <comment ref="I44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1167,7 +1212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="210">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,11 +1375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROLE_INSIDE_STAFF
-ROLE_OUTSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/message/receive.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1367,11 +1407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROLE_INSIDE_STAFF
-ROLE_OUTSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROLE_OUTSIDE_STAFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1397,10 +1432,6 @@
   </si>
   <si>
     <t>提交汇报查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_OUTSIDE_STAFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1410,10 +1441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attachement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1438,83 +1465,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新后的用户信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼入电话列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/download.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传呼入电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/records.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>records</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/create.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/authority/interface.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ROLE_ADMIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新后的用户信息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼入电话列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/message/download.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传呼入电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/upload.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/records.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>records</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户查询查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/account/create.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/interface.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/authority/role.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/authority/search.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1607,10 +1622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>json 格式用户数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1624,10 +1635,6 @@
   </si>
   <si>
     <t>返回该角色可访问的接口id列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回 collection.protocol.Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1656,17 +1663,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回 collection.protocol.Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据不同权限返回不同的管理信息 
 ROLE_ADMIN ： 返回所有管理信息
 ROLE_INSIDE_STAFF: 返回其个人拥有的管理信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回 collection.protocol.Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1830,12 +1829,6 @@
     <t>接收人</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>attachements</t>
-  </si>
-  <si>
     <t>当前用户向指定人员发送消息，可包含文字和附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1845,10 +1838,6 @@
   </si>
   <si>
     <t>entrusted_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1901,10 +1890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回 collection.protocol.Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1913,26 +1898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/account/create.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/role.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/interface.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/search.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authority/add.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1949,26 +1914,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/entrusted_case/search.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/entrusted_case/download.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/entrusted_case/report/submit.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/entrusted_case/report/search.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/entrusted_case/report/download.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attachements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1977,11 +1922,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/phone/records.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/phone/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状太说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>组织结构查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/org/search.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN
+ROLE_INSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/search.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/update.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/import.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/update.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_INSIDE_STAFF
+ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案管理信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/manager/search.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案管理信息更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/manager/update.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交汇报查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_MANAGER
+ROLE_INSIDE_STAFF
+ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/send.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/unread.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记消息已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/entrusted_case.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取消息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/receive.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/download.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼入电话列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传呼入电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有接口信息  管理员配置角色权限使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回该角色可访问的接口id列表 管理员配置角色权限使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回下载的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2076,7 +2210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2306,48 +2440,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2371,16 +2468,94 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,48 +2564,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2440,20 +2573,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2464,8 +2585,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2473,23 +2600,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2789,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2802,506 +2964,582 @@
     <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="39.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="I1" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="33">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>168</v>
+      <c r="F2" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="I2" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="11">
+      <c r="I3" s="36"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="23">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>21</v>
+      <c r="C4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="11">
+      <c r="I4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="26">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="11">
+      <c r="I5" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="26">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
+      <c r="C6" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="11">
+        <v>62</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="26">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>80</v>
+      <c r="C7" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="11">
+        <v>100</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="26">
         <f>MAX($B$1:B7)+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="8" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="11">
+      <c r="I8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="26">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="11">
+      <c r="I9" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="26">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36">
+        <v>79</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="45">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="36">
+      <c r="I12" s="54"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="49"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="45">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="C13" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="F13" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="45">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="I15" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="D15" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="3" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="11">
+      <c r="I16" s="52"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="26">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>24</v>
+      <c r="F17" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="11">
+        <v>133</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="26">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>142</v>
+      <c r="C18" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="11">
+      <c r="J18" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="26">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>48</v>
+      <c r="F19" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="11">
+        <v>108</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="26">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>21</v>
+      <c r="C20" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="11">
+      <c r="I20" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="26">
         <f>MAX($B$1:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>28</v>
+      <c r="F21" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -3309,113 +3547,129 @@
       <c r="H21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="37">
+      <c r="I21" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="45">
         <f>MAX($B$1:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="C22" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>56</v>
+      <c r="F22" s="53" t="s">
+        <v>187</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+        <v>121</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="48"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="50"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="50"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+        <v>116</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="50"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="36">
+        <v>115</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="49"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="45">
         <f>MAX($B$1:B26)+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35" t="s">
-        <v>57</v>
+      <c r="C27" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="53" t="s">
+        <v>189</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
@@ -3423,340 +3677,443 @@
       <c r="H27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="I27" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="36">
+        <v>114</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="49"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="45">
         <f>MAX($B$1:B28)+1</f>
         <v>19</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35" t="s">
-        <v>57</v>
+      <c r="C29" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="53" t="s">
+        <v>189</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+        <v>122</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="54"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="49"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="45">
         <f>MAX($B$1:B30)+1</f>
         <v>20</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="34" t="s">
+      <c r="C31" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="35" t="s">
-        <v>23</v>
+      <c r="F31" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
+        <v>136</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
+        <v>138</v>
+      </c>
+      <c r="I32" s="55"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="50"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="3" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="I33" s="55"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="11">
+        <v>111</v>
+      </c>
+      <c r="I34" s="54"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="49"/>
+    </row>
+    <row r="35" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="37"/>
+      <c r="B35" s="26">
         <f>MAX($B$1:B34)+1</f>
         <v>21</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10" t="s">
-        <v>23</v>
+      <c r="C35" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="11">
+      <c r="I35" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="26">
         <f>MAX($B$1:B35)+1</f>
         <v>22</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10" t="s">
-        <v>39</v>
+      <c r="C36" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="11">
+        <v>46</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K36" s="31"/>
+    </row>
+    <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
+      <c r="B37" s="26">
         <f>MAX($B$1:B36)+1</f>
         <v>23</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10" t="s">
-        <v>23</v>
+      <c r="C37" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="36">
+      <c r="I37" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="31"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="45">
         <f>MAX($B$1:B37)+1</f>
         <v>24</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35" t="s">
-        <v>23</v>
+      <c r="C38" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I38" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" s="40"/>
-    </row>
-    <row r="40" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="11">
+        <v>150</v>
+      </c>
+      <c r="I39" s="54"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="49"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="45">
         <f>MAX($B$1:B39)+1</f>
         <v>25</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" s="57"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="58"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="37"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="56"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="58"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+      <c r="I43" s="52"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="44"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="26">
+        <f>MAX($B$1:B42)+1</f>
+        <v>26</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="11">
-        <f>MAX($B$1:B40)+1</f>
-        <v>26</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="38"/>
+      <c r="B45" s="9">
+        <f>MAX($B$1:B44)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="33"/>
-      <c r="B42" s="12">
-        <f>MAX($B$1:B41)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>167</v>
-      </c>
+      <c r="H45" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K45" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A15:A30"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I15:I16"/>
+  <mergeCells count="85">
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
     <mergeCell ref="I38:I39"/>
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="F31:F34"/>
@@ -3768,6 +4125,7 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="D31:D34"/>
     <mergeCell ref="C31:C34"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B27:B28"/>
@@ -3775,6 +4133,12 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
@@ -3789,9 +4153,7 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="F29:F30"/>
@@ -3802,16 +4164,47 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="A31:A43"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A15:A30"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="E40:E43"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I22:I26"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K38:K39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF($J$2="黑色",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J44:J45 J2:J40">
+      <formula1>"未开始,进行中,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3830,102 +4223,102 @@
     <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.25" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>102</v>
+      <c r="F1" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="36">
+      <c r="A2" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="33">
         <f>MAX($B$1:B1)+100</f>
         <v>100</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="19">
+      <c r="A4" s="37"/>
+      <c r="B4" s="14">
         <f>MAX($B$1:B3)+1</f>
         <v>101</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="19">
+      <c r="A5" s="37"/>
+      <c r="B5" s="14">
         <f>MAX($B$1:B4)+1</f>
         <v>102</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="19">
+      <c r="A6" s="37"/>
+      <c r="B6" s="14">
         <f>MAX($B$1:B5)+1</f>
         <v>103</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="19">
+      <c r="A7" s="37"/>
+      <c r="B7" s="14">
         <f>MAX($B$1:B6)+1</f>
         <v>104</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="17"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3954,655 +4347,655 @@
     <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.25" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>102</v>
+      <c r="F1" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="33">
         <f>MAX($B$1:B1)+200</f>
         <v>200</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>103</v>
+      <c r="E2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="19">
+      <c r="A4" s="37"/>
+      <c r="B4" s="14">
         <f>MAX($B$1:B3)+1</f>
         <v>201</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>104</v>
+      <c r="F4" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="19">
+      <c r="A5" s="37"/>
+      <c r="B5" s="14">
         <f>MAX($B$1:B4)+1</f>
         <v>202</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>62</v>
+      <c r="F5" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="19">
+      <c r="A6" s="37"/>
+      <c r="B6" s="14">
         <f>MAX($B$1:B5)+1</f>
         <v>203</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>112</v>
+      <c r="F6" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="19">
+      <c r="A7" s="37"/>
+      <c r="B7" s="14">
         <f>MAX($B$1:B6)+1</f>
         <v>204</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>112</v>
+      <c r="C7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="14">
         <f>MAX($B$1:B7)+1</f>
         <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>109</v>
+      <c r="F8" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="19">
+      <c r="A9" s="37"/>
+      <c r="B9" s="14">
         <f>MAX($B$1:B8)+1</f>
         <v>206</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>110</v>
+      <c r="F9" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="19">
+      <c r="A10" s="37"/>
+      <c r="B10" s="14">
         <f>MAX($B$1:B9)+1</f>
         <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>111</v>
+      <c r="F10" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36">
+      <c r="A11" s="37"/>
+      <c r="B11" s="33">
         <f>MAX($B$1:B10)+1</f>
         <v>208</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>91</v>
+      <c r="C11" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>114</v>
+      <c r="F11" s="39" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="36">
+      <c r="A13" s="37"/>
+      <c r="B13" s="33">
         <f>MAX($B$1:B12)+1</f>
         <v>209</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>94</v>
+      <c r="C13" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>115</v>
+      <c r="F13" s="39" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="14">
         <f>MAX($B$1:B14)+1</f>
         <v>210</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>112</v>
+      <c r="F15" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="19">
+      <c r="A16" s="37"/>
+      <c r="B16" s="14">
         <f>MAX($B$1:B15)+1</f>
         <v>211</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="C16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>116</v>
+      <c r="F16" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="19">
+      <c r="A17" s="37"/>
+      <c r="B17" s="14">
         <f>MAX($B$1:B16)+1</f>
         <v>212</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="C17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>157</v>
+      <c r="F17" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="19">
+      <c r="A18" s="37"/>
+      <c r="B18" s="14">
         <f>MAX($B$1:B17)+1</f>
         <v>213</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>112</v>
+      <c r="F18" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="19">
+      <c r="A19" s="37"/>
+      <c r="B19" s="14">
         <f>MAX($B$1:B18)+1</f>
         <v>214</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>119</v>
+      <c r="F19" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="19">
+      <c r="A20" s="37"/>
+      <c r="B20" s="14">
         <f>MAX($B$1:B19)+1</f>
         <v>215</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>112</v>
+      <c r="F20" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="37">
+      <c r="A21" s="37"/>
+      <c r="B21" s="45">
         <f>MAX($B$1:B20)+1</f>
         <v>216</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>130</v>
+      <c r="C21" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>123</v>
+        <v>47</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="30"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="30"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="30"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="31"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="36">
+      <c r="A26" s="37"/>
+      <c r="B26" s="33">
         <f>MAX($B$1:B25)+1</f>
         <v>217</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>128</v>
+      <c r="C26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>124</v>
+        <v>54</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="35"/>
-      <c r="F27" s="31"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="36">
+      <c r="A28" s="37"/>
+      <c r="B28" s="33">
         <f>MAX($B$1:B27)+1</f>
         <v>218</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>129</v>
+      <c r="C28" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>136</v>
+        <v>54</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="35"/>
-      <c r="F29" s="30"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="33">
         <f>MAX($B$1:B29)+1</f>
         <v>219</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>152</v>
+      <c r="F30" s="41" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="35"/>
-      <c r="F31" s="30"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="30"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="31"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="19">
+      <c r="A34" s="37"/>
+      <c r="B34" s="14">
         <f>MAX($B$1:B33)+1</f>
         <v>220</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="18" t="s">
+      <c r="C34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>158</v>
+      <c r="F34" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="19">
+      <c r="A35" s="37"/>
+      <c r="B35" s="14">
         <f>MAX($B$1:B34)+1</f>
         <v>221</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="18" t="s">
+      <c r="C35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>156</v>
+      <c r="F35" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="19">
+      <c r="A36" s="37"/>
+      <c r="B36" s="14">
         <f>MAX($B$1:B35)+1</f>
         <v>222</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>163</v>
+      <c r="F36" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="36">
+      <c r="A37" s="37"/>
+      <c r="B37" s="33">
         <f>MAX($B$1:B36)+1</f>
         <v>223</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>40</v>
+      <c r="D37" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="29" t="s">
-        <v>162</v>
+      <c r="F37" s="41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="35"/>
-      <c r="F38" s="40"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="19">
+      <c r="A39" s="37"/>
+      <c r="B39" s="14">
         <f>MAX($B$1:B38)+1</f>
         <v>224</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="18" t="s">
+      <c r="C39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>43</v>
+      <c r="F39" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="19">
+      <c r="A40" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="14">
         <f>MAX($B$1:B39)+1</f>
         <v>225</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>165</v>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="12">
+      <c r="A41" s="38"/>
+      <c r="B41" s="9">
         <f>MAX($B$1:B40)+1</f>
         <v>226</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="212">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1956,9 +1956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>组织结构查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2116,6 +2113,18 @@
   </si>
   <si>
     <t>返回下载的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确定管理员可以配置哪些权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确定查询协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确定委案格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2196,7 +2205,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2206,6 +2215,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,7 +2465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2513,51 +2534,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2573,77 +2615,119 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2966,580 +3050,592 @@
     <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.25" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="69">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="3" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="23">
+      <c r="A4" s="51"/>
+      <c r="B4" s="63">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="22" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="31"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="26">
+      <c r="A5" s="51"/>
+      <c r="B5" s="63">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="26">
+      <c r="A6" s="51"/>
+      <c r="B6" s="63">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="83"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="26">
+      <c r="A7" s="51"/>
+      <c r="B7" s="63">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="63">
         <f>MAX($B$1:B7)+1</f>
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="24" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="26">
+      <c r="A9" s="42"/>
+      <c r="B9" s="73">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="31"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="26">
+      <c r="A10" s="42"/>
+      <c r="B10" s="73">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="74"/>
+      <c r="F10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="K10" s="31"/>
+      <c r="I10" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="84" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="45">
+      <c r="A11" s="42"/>
+      <c r="B11" s="52">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="48"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="24" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="49"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="45">
+      <c r="A13" s="42"/>
+      <c r="B13" s="52">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="K13" s="48"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="24" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="49"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="78">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="K15" s="48"/>
+      <c r="K15" s="85" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="3" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="49"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="26">
+      <c r="A17" s="42"/>
+      <c r="B17" s="73">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="31"/>
+      <c r="K17" s="84" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="26">
+      <c r="A18" s="42"/>
+      <c r="B18" s="73">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="84" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="26">
+      <c r="A19" s="42"/>
+      <c r="B19" s="73">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="E19" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="31"/>
+      <c r="K19" s="84" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="26">
+      <c r="A20" s="42"/>
+      <c r="B20" s="23">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25" t="s">
-        <v>173</v>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="26">
+      <c r="A21" s="42"/>
+      <c r="B21" s="23">
         <f>MAX($B$1:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>173</v>
+      <c r="F21" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -3547,31 +3643,31 @@
       <c r="H21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="31"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="45">
+      <c r="A22" s="42"/>
+      <c r="B22" s="35">
         <f>MAX($B$1:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="53" t="s">
-        <v>187</v>
+      <c r="F22" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>48</v>
@@ -3579,97 +3675,97 @@
       <c r="H22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="48"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="55"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="50"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="55"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="50"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="55"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="55"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="50"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="54"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="2" t="s">
         <v>159</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="49"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="45">
+      <c r="A27" s="42"/>
+      <c r="B27" s="35">
         <f>MAX($B$1:B26)+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="38" t="s">
         <v>188</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="53" t="s">
-        <v>189</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
@@ -3677,46 +3773,46 @@
       <c r="H27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="K27" s="48"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="49"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="45">
+      <c r="A29" s="42"/>
+      <c r="B29" s="35">
         <f>MAX($B$1:B28)+1</f>
         <v>19</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="53" t="s">
-        <v>189</v>
+      <c r="E29" s="32"/>
+      <c r="F29" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>110</v>
@@ -3724,373 +3820,373 @@
       <c r="H29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="48"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="54"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="3" t="s">
         <v>123</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="49"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="52">
         <f>MAX($B$1:B30)+1</f>
         <v>20</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="58"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="67"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="J31" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="K31" s="48"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="I33" s="55"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="50"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="67"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="3" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="49"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="26">
+      <c r="A35" s="51"/>
+      <c r="B35" s="63">
         <f>MAX($B$1:B34)+1</f>
         <v>21</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="D35" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="K35" s="31"/>
+      <c r="K35" s="83"/>
     </row>
     <row r="36" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="26">
+      <c r="A36" s="51"/>
+      <c r="B36" s="63">
         <f>MAX($B$1:B35)+1</f>
         <v>22</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="C36" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="E36" s="64"/>
+      <c r="F36" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="K36" s="31"/>
+      <c r="K36" s="83"/>
     </row>
     <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="26">
+      <c r="A37" s="51"/>
+      <c r="B37" s="63">
         <f>MAX($B$1:B36)+1</f>
         <v>23</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="25" t="s">
+      <c r="D37" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="K37" s="31"/>
+      <c r="K37" s="83"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="45">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52">
         <f>MAX($B$1:B37)+1</f>
         <v>24</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="E38" s="53"/>
+      <c r="F38" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="53" t="s">
+      <c r="I38" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="K38" s="48"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="3" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="I39" s="54"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="49"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="68"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="45">
+      <c r="A40" s="51"/>
+      <c r="B40" s="52">
         <f>MAX($B$1:B39)+1</f>
         <v>25</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="I40" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="J40" s="45" t="s">
+      <c r="I40" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="J40" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="K40" s="57"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="58"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="67"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="56"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="58"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="67"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="44"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="68"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="23">
         <f>MAX($B$1:B42)+1</f>
         <v>26</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25" t="s">
-        <v>187</v>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="K44" s="31"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="9">
         <f>MAX($B$1:B44)+1</f>
         <v>27</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>69</v>
@@ -4104,55 +4200,30 @@
       <c r="J45" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K45" s="32"/>
+      <c r="K45" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J22:J26"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="C27:C28"/>
@@ -4169,30 +4240,55 @@
     <mergeCell ref="A15:A30"/>
     <mergeCell ref="F40:F43"/>
     <mergeCell ref="E40:E43"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="I31:I34"/>
     <mergeCell ref="I22:I26"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K22:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4215,7 +4311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4248,31 +4346,31 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="33">
-        <f>MAX($B$1:B1)+100</f>
-        <v>100</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="43">
+        <f>MAX($B$1:B1)+1000</f>
+        <v>1000</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="14">
         <f>MAX($B$1:B3)+1</f>
-        <v>101</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -4282,10 +4380,10 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="14">
         <f>MAX($B$1:B4)+1</f>
-        <v>102</v>
+        <v>1002</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -4295,10 +4393,10 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14">
         <f>MAX($B$1:B5)+1</f>
-        <v>103</v>
+        <v>1003</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -4308,10 +4406,10 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="14">
         <f>MAX($B$1:B6)+1</f>
-        <v>104</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4331,7 +4429,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4339,7 +4438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4372,39 +4473,39 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="33">
-        <f>MAX($B$1:B1)+200</f>
-        <v>200</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="43">
+        <f>MAX($B$1:B1)+2000</f>
+        <v>2000</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="46" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="14">
         <f>MAX($B$1:B3)+1</f>
-        <v>201</v>
+        <v>2001</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
@@ -4420,10 +4521,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="14">
         <f>MAX($B$1:B4)+1</f>
-        <v>202</v>
+        <v>2002</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>70</v>
@@ -4439,10 +4540,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14">
         <f>MAX($B$1:B5)+1</f>
-        <v>203</v>
+        <v>2003</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>59</v>
@@ -4458,10 +4559,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="14">
         <f>MAX($B$1:B6)+1</f>
-        <v>204</v>
+        <v>2004</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>98</v>
@@ -4477,12 +4578,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="14">
         <f>MAX($B$1:B7)+1</f>
-        <v>205</v>
+        <v>2005</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>73</v>
@@ -4498,10 +4599,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="14">
         <f>MAX($B$1:B8)+1</f>
-        <v>206</v>
+        <v>2006</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>80</v>
@@ -4517,10 +4618,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="14">
         <f>MAX($B$1:B9)+1</f>
-        <v>207</v>
+        <v>2007</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>81</v>
@@ -4536,66 +4637,66 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="33">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43">
         <f>MAX($B$1:B10)+1</f>
-        <v>208</v>
-      </c>
-      <c r="C11" s="36" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="46" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="33">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43">
         <f>MAX($B$1:B12)+1</f>
-        <v>209</v>
-      </c>
-      <c r="C13" s="36" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="46" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="14">
         <f>MAX($B$1:B14)+1</f>
-        <v>210</v>
+        <v>2010</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>14</v>
@@ -4611,10 +4712,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="14">
         <f>MAX($B$1:B15)+1</f>
-        <v>211</v>
+        <v>2011</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>126</v>
@@ -4630,10 +4731,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14">
         <f>MAX($B$1:B16)+1</f>
-        <v>212</v>
+        <v>2012</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>127</v>
@@ -4649,10 +4750,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="14">
         <f>MAX($B$1:B17)+1</f>
-        <v>213</v>
+        <v>2013</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>25</v>
@@ -4668,10 +4769,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="14">
         <f>MAX($B$1:B18)+1</f>
-        <v>214</v>
+        <v>2014</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>17</v>
@@ -4687,10 +4788,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="14">
         <f>MAX($B$1:B19)+1</f>
-        <v>215</v>
+        <v>2015</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>26</v>
@@ -4706,160 +4807,160 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="45">
+      <c r="A21" s="42"/>
+      <c r="B21" s="35">
         <f>MAX($B$1:B20)+1</f>
-        <v>216</v>
-      </c>
-      <c r="C21" s="36" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="48" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="42"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="42"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="43"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="50"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43">
         <f>MAX($B$1:B25)+1</f>
-        <v>217</v>
-      </c>
-      <c r="C26" s="36" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="48" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="43"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="33">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43">
         <f>MAX($B$1:B27)+1</f>
-        <v>218</v>
-      </c>
-      <c r="C28" s="36" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="43">
         <f>MAX($B$1:B29)+1</f>
-        <v>219</v>
-      </c>
-      <c r="C30" s="36" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="48" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="42"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="42"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="43"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="14">
         <f>MAX($B$1:B33)+1</f>
-        <v>220</v>
+        <v>2020</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>146</v>
@@ -4875,10 +4976,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="14">
         <f>MAX($B$1:B34)+1</f>
-        <v>221</v>
+        <v>2021</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>43</v>
@@ -4894,10 +4995,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="14">
         <f>MAX($B$1:B35)+1</f>
-        <v>222</v>
+        <v>2022</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>145</v>
@@ -4913,37 +5014,37 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="33">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43">
         <f>MAX($B$1:B36)+1</f>
-        <v>223</v>
-      </c>
-      <c r="C37" s="36" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C37" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="48" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="14">
         <f>MAX($B$1:B38)+1</f>
-        <v>224</v>
+        <v>2024</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>40</v>
@@ -4959,12 +5060,12 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="14">
         <f>MAX($B$1:B39)+1</f>
-        <v>225</v>
+        <v>2025</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>64</v>
@@ -4980,10 +5081,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="38"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="9">
         <f>MAX($B$1:B40)+1</f>
-        <v>226</v>
+        <v>2026</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>66</v>
@@ -5000,6 +5101,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="B11:B12"/>
@@ -5016,35 +5146,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A29"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -12,7 +12,7 @@
     <sheet name="UI接口" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -604,65 +604,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>collection.protocol.MessageEntrustedCase
-eg.
-[
-    {
-        "entrustedCaseId": 0,
-        "msgSummary": [
-            {
-                "fromId": 1,
-                "fromName": "张三",
-                "msgCount": 3
-            },
-            {
-                "fromId": 2,
-                "fromName": "张二",
-                "msgCount": 10
-            }
-        ]
-    },
-    {
-        "entrustedCaseId": 1,
-        "msgSummary": [
-            {
-                "fromId": 1,
-                "fromName": "张三",
-                "msgCount": 3
-            },
-            {
-                "fromId": 2,
-                "fromName": "张二",
-                "msgCount": 10
-            }
-        ]
-    }
-]</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I40" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1185,7 +1126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="854">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1463,10 +1404,6 @@
   </si>
   <si>
     <t>/phone/records.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>records</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1817,10 +1754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呼入录音名称列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1846,10 +1779,6 @@
   </si>
   <si>
     <t>/message/read_message.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/upload.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1965,10 +1894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/message/entrusted_case.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取消息内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1986,10 +1911,6 @@
   </si>
   <si>
     <t>呼入电话列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传呼入电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3982,6 +3903,85 @@
   </si>
   <si>
     <t>返回该角色可访问的接口id列表 管理员配置角色权限使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传呼入电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼入录音名称列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 collection.protocol.Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>拨打电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/call.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>records</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/unread_messages.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取未读消息信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有未读消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3989,7 +3989,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4048,6 +4048,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4075,7 +4083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4305,11 +4313,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4480,25 +4514,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4513,19 +4571,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4534,6 +4598,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4541,9 +4611,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4567,7 +4634,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4578,6 +4645,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4891,10 +4976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4917,13 +5002,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>0</v>
@@ -4938,73 +5023,73 @@
         <v>17</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="84">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>148</v>
+      <c r="F2" s="85" t="s">
+        <v>146</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="30"/>
-      <c r="I2" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="78"/>
+      <c r="I2" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="30" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="78"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="31">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="33" t="s">
@@ -5013,56 +5098,56 @@
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="31">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="31">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>60</v>
@@ -5071,295 +5156,295 @@
         <v>61</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="31">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>99</v>
-      </c>
       <c r="I7" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
-        <v>89</v>
+      <c r="A8" s="83" t="s">
+        <v>88</v>
       </c>
       <c r="B8" s="31">
         <f>MAX($B$1:B7)+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="54">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="53" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K9" s="51" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="54">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>78</v>
-      </c>
       <c r="I10" s="53" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="64">
+      <c r="A11" s="83"/>
+      <c r="B11" s="71">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="62" t="s">
+      <c r="C11" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="74"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="83"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="H12" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="68"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="64">
+      <c r="A13" s="83"/>
+      <c r="B13" s="71">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="62" t="s">
+      <c r="C13" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="32" t="s">
+      <c r="H13" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="74"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="83"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" s="66"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="68"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="71">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="62" t="s">
+      <c r="C15" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" s="66" t="s">
-        <v>201</v>
+      <c r="I15" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="74" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="68"/>
+        <v>804</v>
+      </c>
+      <c r="I16" s="82"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="36">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>1</v>
@@ -5371,146 +5456,146 @@
         <v>9</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="36">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="F18" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="G18" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>127</v>
-      </c>
       <c r="H18" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
-      <c r="B19" s="64">
+      <c r="A19" s="86"/>
+      <c r="B19" s="71">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="62" t="s">
+      <c r="C19" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>173</v>
+      <c r="F19" s="77" t="s">
+        <v>170</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="I19" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="66" t="s">
-        <v>201</v>
+        <v>805</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="74" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="61"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="68"/>
+        <v>106</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="54">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="54">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E22" s="53" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>15</v>
@@ -5519,525 +5604,525 @@
         <v>26</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="64">
+      <c r="A23" s="86"/>
+      <c r="B23" s="71">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
-      <c r="C23" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="62" t="s">
+      <c r="C23" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="77" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>47</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K23" s="66"/>
+        <v>821</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="74"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="71"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="78"/>
       <c r="G24" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="67"/>
+        <v>822</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="75"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="71"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="67"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="75"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="71"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="67"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="75"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="61"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="29" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="68"/>
+        <v>112</v>
+      </c>
+      <c r="I27" s="79"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="76"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
-      <c r="B28" s="64">
+      <c r="A28" s="86"/>
+      <c r="B28" s="71">
         <f>MAX($B$1:B27)+1</f>
         <v>18</v>
       </c>
-      <c r="C28" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="60" t="s">
+      <c r="C28" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="80"/>
+      <c r="F28" s="77" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K28" s="66"/>
+        <v>815</v>
+      </c>
+      <c r="I28" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="61"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="61"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="68"/>
+        <v>111</v>
+      </c>
+      <c r="I29" s="79"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="76"/>
     </row>
     <row r="30" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
-      <c r="B30" s="64">
+      <c r="A30" s="86"/>
+      <c r="B30" s="71">
         <f>MAX($B$1:B29)+1</f>
         <v>19</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="71"/>
+      <c r="F30" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="I30" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="I31" s="78"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="75"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="86"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K30" s="66"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="I31" s="71"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="67"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="30" t="s">
+      <c r="H32" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="61"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="68"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="76"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="71">
         <f>MAX($B$1:B32)+1</f>
         <v>20</v>
       </c>
-      <c r="C33" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="62" t="s">
+      <c r="C33" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="60" t="s">
-        <v>173</v>
+      <c r="F33" s="77" t="s">
+        <v>170</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H33" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="74"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="83"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="H34" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="78"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="75"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="83"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K33" s="66"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="72"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="I34" s="71"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="67"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="71"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="67"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="75"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="61"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="I36" s="61"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="I36" s="79"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="76"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
-      <c r="B37" s="54">
+      <c r="A37" s="83"/>
+      <c r="B37" s="103">
         <f>MAX($B$1:B36)+1</f>
         <v>21</v>
       </c>
-      <c r="C37" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="30" t="s">
+      <c r="C37" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="104"/>
+      <c r="F37" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="K37" s="51"/>
+      <c r="I37" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" s="107"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="72"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="54">
         <f>MAX($B$1:B37)+1</f>
         <v>22</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" s="53"/>
       <c r="F38" s="52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H38" s="30" t="s">
         <v>45</v>
       </c>
       <c r="I38" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J38" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K38" s="51"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="72"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="54">
         <f>MAX($B$1:B38)+1</f>
         <v>23</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>140</v>
+        <v>852</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>184</v>
+        <v>851</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="52" t="s">
-        <v>144</v>
+        <v>853</v>
       </c>
       <c r="J39" s="54" t="s">
-        <v>159</v>
+        <v>850</v>
       </c>
       <c r="K39" s="51"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="72"/>
-      <c r="B40" s="64">
+      <c r="A40" s="83"/>
+      <c r="B40" s="71">
         <f>MAX($B$1:B39)+1</f>
         <v>24</v>
       </c>
-      <c r="C40" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="60" t="s">
-        <v>173</v>
+      <c r="C40" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="80"/>
+      <c r="F40" s="77" t="s">
+        <v>170</v>
       </c>
       <c r="G40" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K40" s="66"/>
+      <c r="I40" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="74"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="61"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="79"/>
       <c r="G41" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="61"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="68"/>
+        <v>144</v>
+      </c>
+      <c r="I41" s="79"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="76"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
-      <c r="B42" s="64">
+      <c r="A42" s="83"/>
+      <c r="B42" s="71">
         <f>MAX($B$1:B41)+1</f>
         <v>25</v>
       </c>
-      <c r="C42" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="60" t="s">
-        <v>173</v>
+      <c r="C42" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="71"/>
+      <c r="F42" s="77" t="s">
+        <v>170</v>
       </c>
       <c r="G42" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="I42" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="74"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="83"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H42" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="I42" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="J42" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="K42" s="66"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="72"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="29" t="s">
-        <v>197</v>
-      </c>
       <c r="H43" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="67"/>
+        <v>144</v>
+      </c>
+      <c r="I43" s="81"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="75"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="72"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="71"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="78"/>
       <c r="G44" s="29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="I44" s="69"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="67"/>
+        <v>132</v>
+      </c>
+      <c r="I44" s="81"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="75"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="61"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="79"/>
       <c r="G45" s="29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H45" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I45" s="63"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="68"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="76"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="86" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="23">
@@ -6045,64 +6130,122 @@
         <v>26</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>158</v>
+        <v>838</v>
       </c>
       <c r="K46" s="28"/>
     </row>
-    <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="76"/>
-      <c r="B47" s="9">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="87"/>
+      <c r="B47" s="66">
         <f>MAX($B$1:B46)+1</f>
         <v>27</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>835</v>
+      </c>
+      <c r="E47" s="64"/>
+      <c r="F47" s="69" t="s">
+        <v>841</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>848</v>
+      </c>
+      <c r="H47" s="62" t="s">
+        <v>849</v>
+      </c>
+      <c r="I47" s="64" t="s">
+        <v>837</v>
+      </c>
+      <c r="J47" s="66" t="s">
+        <v>838</v>
+      </c>
+      <c r="K47" s="63"/>
+    </row>
+    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="87"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="61" t="s">
+        <v>843</v>
+      </c>
+      <c r="H48" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="I48" s="65"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="63"/>
+    </row>
+    <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="87"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="E49" s="59"/>
+      <c r="F49" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>845</v>
+      </c>
+      <c r="H49" s="62" t="s">
+        <v>847</v>
+      </c>
+      <c r="I49" s="59"/>
+      <c r="J49" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="K49" s="63"/>
+    </row>
+    <row r="50" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="88"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K47" s="19"/>
+      <c r="K50" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K47"/>
-  <mergeCells count="93">
+  <autoFilter ref="A1:K50"/>
+  <mergeCells count="100">
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K23:K27"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J33:J36"/>
@@ -6117,10 +6260,11 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J23:J27"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A46:A50"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="F40:F41"/>
@@ -6133,36 +6277,39 @@
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="F33:F36"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
     <mergeCell ref="K42:K45"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="C42:C45"/>
@@ -6178,18 +6325,20 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="I30:I32"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -6198,7 +6347,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J46:J47 J2:J19 J33:J42 J21:J23 J28:J30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J28:J30 J2:J19 J33:J42 J21:J23 J46:J47 J49:J50">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6230,5130 +6379,5130 @@
         <v>8</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
-        <v>807</v>
+      <c r="A2" s="86" t="s">
+        <v>802</v>
       </c>
       <c r="B2" s="3">
         <v>1000</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="3">
         <v>1001</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="3">
         <v>1002</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="3">
         <v>1003</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="3">
         <v>1004</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="3">
         <v>1005</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="3">
         <v>1006</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="3">
         <v>1007</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="3">
         <v>1008</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="3">
         <v>1009</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="3">
         <v>1010</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="3">
         <v>1011</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="3">
         <v>1012</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="3">
         <v>1013</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="3">
         <v>1014</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="3">
         <v>1015</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="3">
         <v>1016</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="3">
         <v>1017</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="3">
         <v>1018</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="3">
         <v>1019</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="3">
         <v>1020</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="3">
         <v>1021</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="3">
         <v>1022</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F24" s="46"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="3">
         <v>1023</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="3">
         <v>1024</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="73"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="3">
         <v>1025</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="3">
         <v>1026</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="3">
         <v>1027</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="3">
         <v>1028</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="3">
         <v>1029</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="3">
         <v>1030</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="73"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="3">
         <v>1031</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="3">
         <v>1032</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="3">
         <v>1033</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="3">
         <v>1034</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="3">
         <v>1035</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="3">
         <v>1036</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="73"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="3">
         <v>1037</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="3">
         <v>1038</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="73"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="3">
         <v>1039</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="73"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="3">
         <v>1040</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="73"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="3">
         <v>1041</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="73"/>
+      <c r="A44" s="86"/>
       <c r="B44" s="3">
         <v>1042</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F44" s="46"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="73"/>
+      <c r="A45" s="86"/>
       <c r="B45" s="3">
         <v>1043</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="73"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="3">
         <v>1044</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="73"/>
+      <c r="A47" s="86"/>
       <c r="B47" s="3">
         <v>1045</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="73"/>
+      <c r="A48" s="86"/>
       <c r="B48" s="3">
         <v>1046</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
+      <c r="A49" s="86"/>
       <c r="B49" s="3">
         <v>1047</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="73"/>
+      <c r="A50" s="86"/>
       <c r="B50" s="3">
         <v>1048</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F50" s="46"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="73"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="3">
         <v>1049</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F51" s="46"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="73"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="3">
         <v>1050</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="73"/>
+      <c r="A53" s="86"/>
       <c r="B53" s="3">
         <v>1051</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="73"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="3">
         <v>1052</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="73"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="3">
         <v>1053</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="73"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="3">
         <v>1054</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="73"/>
+      <c r="A57" s="86"/>
       <c r="B57" s="3">
         <v>1055</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="73"/>
+      <c r="A58" s="86"/>
       <c r="B58" s="3">
         <v>1056</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="73"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="3">
         <v>1057</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="73"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="3">
         <v>1058</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="73"/>
+      <c r="A61" s="86"/>
       <c r="B61" s="3">
         <v>1059</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="73"/>
+      <c r="A62" s="86"/>
       <c r="B62" s="3">
         <v>1060</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="73"/>
+      <c r="A63" s="86"/>
       <c r="B63" s="3">
         <v>1061</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="73"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="3">
         <v>1062</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="73"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="3">
         <v>1063</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="73"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="3">
         <v>1064</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F66" s="46"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="73"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="3">
         <v>1065</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="73"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="3">
         <v>1066</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F68" s="46"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="73"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="3">
         <v>1067</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="73"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="3">
         <v>1068</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="73"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="3">
         <v>1069</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="73"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="3">
         <v>1070</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="73"/>
+      <c r="A73" s="86"/>
       <c r="B73" s="3">
         <v>1071</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="73"/>
+      <c r="A74" s="86"/>
       <c r="B74" s="3">
         <v>1072</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F74" s="46"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="73"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="3">
         <v>1073</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F75" s="46"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="80" t="s">
-        <v>834</v>
+      <c r="A76" s="91" t="s">
+        <v>829</v>
       </c>
       <c r="B76" s="3">
         <v>1200</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F76" s="46"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="80"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="3">
         <v>1201</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F77" s="46"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="80"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="3">
         <v>1202</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F78" s="46"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="80"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="3">
         <v>1203</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D79" s="47" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F79" s="46"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="80"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="3">
         <v>1204</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F80" s="46"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="80"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="3">
         <v>1205</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F81" s="46"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="80"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="3">
         <v>1206</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F82" s="46"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="80"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="3">
         <v>1207</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="80"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="3">
         <v>1208</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D84" s="47" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F84" s="46"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="80"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="3">
         <v>1209</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="80"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="3">
         <v>1210</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F86" s="46"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="80"/>
+      <c r="A87" s="91"/>
       <c r="B87" s="3">
         <v>1211</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="80"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="3">
         <v>1212</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F88" s="46"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="80"/>
+      <c r="A89" s="91"/>
       <c r="B89" s="3">
         <v>1213</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="80"/>
+      <c r="A90" s="91"/>
       <c r="B90" s="3">
         <v>1214</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F90" s="46"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="80"/>
+      <c r="A91" s="91"/>
       <c r="B91" s="3">
         <v>1215</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F91" s="46"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="80"/>
+      <c r="A92" s="91"/>
       <c r="B92" s="3">
         <v>1216</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F92" s="46"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="80"/>
+      <c r="A93" s="91"/>
       <c r="B93" s="3">
         <v>1217</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="80"/>
+      <c r="A94" s="91"/>
       <c r="B94" s="3">
         <v>1218</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F94" s="46"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="80"/>
+      <c r="A95" s="91"/>
       <c r="B95" s="3">
         <v>1219</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F95" s="46"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="80"/>
+      <c r="A96" s="91"/>
       <c r="B96" s="3">
         <v>1220</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D96" s="47" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F96" s="46"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="80"/>
+      <c r="A97" s="91"/>
       <c r="B97" s="3">
         <v>1221</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F97" s="46"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="80"/>
+      <c r="A98" s="91"/>
       <c r="B98" s="3">
         <v>1222</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F98" s="46"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="80"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="3">
         <v>1223</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D99" s="47" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F99" s="46"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="80"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="3">
         <v>1224</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D100" s="47" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F100" s="46"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="80"/>
+      <c r="A101" s="91"/>
       <c r="B101" s="3">
         <v>1225</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F101" s="46"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="80"/>
+      <c r="A102" s="91"/>
       <c r="B102" s="3">
         <v>1226</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D102" s="47" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F102" s="46"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="80"/>
+      <c r="A103" s="91"/>
       <c r="B103" s="3">
         <v>1227</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D103" s="47" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F103" s="46"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="80"/>
+      <c r="A104" s="91"/>
       <c r="B104" s="3">
         <v>1228</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D104" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F104" s="46"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="80"/>
+      <c r="A105" s="91"/>
       <c r="B105" s="3">
         <v>1229</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F105" s="46"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="80"/>
+      <c r="A106" s="91"/>
       <c r="B106" s="3">
         <v>1230</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D106" s="47" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F106" s="46"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="80"/>
+      <c r="A107" s="91"/>
       <c r="B107" s="3">
         <v>1231</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D107" s="47" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F107" s="46"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="80"/>
+      <c r="A108" s="91"/>
       <c r="B108" s="3">
         <v>1232</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D108" s="47" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F108" s="46"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="80"/>
+      <c r="A109" s="91"/>
       <c r="B109" s="3">
         <v>1233</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D109" s="47" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E109" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F109" s="46"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="80"/>
+      <c r="A110" s="91"/>
       <c r="B110" s="3">
         <v>1234</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E110" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F110" s="46"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="80"/>
+      <c r="A111" s="91"/>
       <c r="B111" s="3">
         <v>1235</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E111" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F111" s="46"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="80"/>
+      <c r="A112" s="91"/>
       <c r="B112" s="3">
         <v>1236</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E112" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F112" s="46"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="80"/>
+      <c r="A113" s="91"/>
       <c r="B113" s="3">
         <v>1237</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E113" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F113" s="46"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="80"/>
+      <c r="A114" s="91"/>
       <c r="B114" s="3">
         <v>1238</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D114" s="47" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E114" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F114" s="46"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="80"/>
+      <c r="A115" s="91"/>
       <c r="B115" s="3">
         <v>1239</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E115" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F115" s="46"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="80"/>
+      <c r="A116" s="91"/>
       <c r="B116" s="3">
         <v>1240</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D116" s="47" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E116" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F116" s="46"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="80"/>
+      <c r="A117" s="91"/>
       <c r="B117" s="3">
         <v>1241</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D117" s="47" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E117" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F117" s="46"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="80"/>
+      <c r="A118" s="91"/>
       <c r="B118" s="3">
         <v>1242</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E118" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F118" s="46"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="80"/>
+      <c r="A119" s="91"/>
       <c r="B119" s="3">
         <v>1243</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D119" s="47" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E119" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F119" s="46"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="80"/>
+      <c r="A120" s="91"/>
       <c r="B120" s="3">
         <v>1244</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E120" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F120" s="46"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="80"/>
+      <c r="A121" s="91"/>
       <c r="B121" s="3">
         <v>1245</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D121" s="47" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E121" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F121" s="46"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="80"/>
+      <c r="A122" s="91"/>
       <c r="B122" s="3">
         <v>1246</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D122" s="47" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E122" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F122" s="46"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="80"/>
+      <c r="A123" s="91"/>
       <c r="B123" s="3">
         <v>1247</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D123" s="47" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E123" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F123" s="46"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="80"/>
+      <c r="A124" s="91"/>
       <c r="B124" s="3">
         <v>1248</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D124" s="47" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E124" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F124" s="46"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="80"/>
+      <c r="A125" s="91"/>
       <c r="B125" s="3">
         <v>1249</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E125" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F125" s="46"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="80"/>
+      <c r="A126" s="91"/>
       <c r="B126" s="3">
         <v>1250</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D126" s="47" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E126" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F126" s="46"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="80"/>
+      <c r="A127" s="91"/>
       <c r="B127" s="3">
         <v>1251</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D127" s="47" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E127" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F127" s="46"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="80"/>
+      <c r="A128" s="91"/>
       <c r="B128" s="3">
         <v>1252</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D128" s="47" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E128" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F128" s="46"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="80"/>
+      <c r="A129" s="91"/>
       <c r="B129" s="3">
         <v>1253</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D129" s="47" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E129" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F129" s="46"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="80"/>
+      <c r="A130" s="91"/>
       <c r="B130" s="3">
         <v>1254</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D130" s="47" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E130" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F130" s="46"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="80"/>
+      <c r="A131" s="91"/>
       <c r="B131" s="3">
         <v>1255</v>
       </c>
       <c r="C131" s="47" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D131" s="47" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E131" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F131" s="46"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="80"/>
+      <c r="A132" s="91"/>
       <c r="B132" s="3">
         <v>1256</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D132" s="47" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E132" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F132" s="46"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="80"/>
+      <c r="A133" s="91"/>
       <c r="B133" s="3">
         <v>1257</v>
       </c>
       <c r="C133" s="47" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D133" s="47" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E133" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F133" s="46"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="80"/>
+      <c r="A134" s="91"/>
       <c r="B134" s="3">
         <v>1258</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D134" s="47" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E134" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F134" s="46"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="80"/>
+      <c r="A135" s="91"/>
       <c r="B135" s="3">
         <v>1259</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D135" s="47" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E135" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F135" s="46"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="80"/>
+      <c r="A136" s="91"/>
       <c r="B136" s="3">
         <v>1260</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D136" s="47" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E136" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F136" s="46"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="80"/>
+      <c r="A137" s="91"/>
       <c r="B137" s="3">
         <v>1261</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D137" s="47" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E137" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="80"/>
+      <c r="A138" s="91"/>
       <c r="B138" s="3">
         <v>1262</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D138" s="47" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E138" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F138" s="46"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="80"/>
+      <c r="A139" s="91"/>
       <c r="B139" s="3">
         <v>1263</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D139" s="47" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E139" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F139" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="80"/>
+      <c r="A140" s="91"/>
       <c r="B140" s="3">
         <v>1264</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D140" s="47" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F140" s="46"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="80"/>
+      <c r="A141" s="91"/>
       <c r="B141" s="3">
         <v>1265</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D141" s="47" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E141" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F141" s="46"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="80"/>
+      <c r="A142" s="91"/>
       <c r="B142" s="3">
         <v>1266</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D142" s="47" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E142" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F142" s="46"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="80"/>
+      <c r="A143" s="91"/>
       <c r="B143" s="3">
         <v>1267</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D143" s="47" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E143" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F143" s="46"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="80"/>
+      <c r="A144" s="91"/>
       <c r="B144" s="3">
         <v>1268</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D144" s="47" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E144" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F144" s="46"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="80"/>
+      <c r="A145" s="91"/>
       <c r="B145" s="3">
         <v>1269</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D145" s="47" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E145" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F145" s="46"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="80" t="s">
-        <v>835</v>
+      <c r="A146" s="91" t="s">
+        <v>830</v>
       </c>
       <c r="B146" s="3">
         <v>1400</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D146" s="47" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E146" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F146" s="46"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="80"/>
+      <c r="A147" s="91"/>
       <c r="B147" s="3">
         <v>1401</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D147" s="47" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E147" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F147" s="46"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="80"/>
+      <c r="A148" s="91"/>
       <c r="B148" s="3">
         <v>1402</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D148" s="47" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E148" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F148" s="46"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="80"/>
+      <c r="A149" s="91"/>
       <c r="B149" s="3">
         <v>1403</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D149" s="47" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E149" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F149" s="46"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="80"/>
+      <c r="A150" s="91"/>
       <c r="B150" s="3">
         <v>1404</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D150" s="47" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E150" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F150" s="46"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="80"/>
+      <c r="A151" s="91"/>
       <c r="B151" s="3">
         <v>1405</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D151" s="47" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E151" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F151" s="46"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="80"/>
+      <c r="A152" s="91"/>
       <c r="B152" s="3">
         <v>1406</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D152" s="47" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E152" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F152" s="46"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="80"/>
+      <c r="A153" s="91"/>
       <c r="B153" s="3">
         <v>1407</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D153" s="47" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E153" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F153" s="46"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="80"/>
+      <c r="A154" s="91"/>
       <c r="B154" s="3">
         <v>1408</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E154" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F154" s="46"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="80"/>
+      <c r="A155" s="91"/>
       <c r="B155" s="3">
         <v>1409</v>
       </c>
       <c r="C155" s="47" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D155" s="47" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E155" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F155" s="46"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="80"/>
+      <c r="A156" s="91"/>
       <c r="B156" s="3">
         <v>1410</v>
       </c>
       <c r="C156" s="47" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D156" s="47" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E156" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F156" s="46"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="80"/>
+      <c r="A157" s="91"/>
       <c r="B157" s="3">
         <v>1411</v>
       </c>
       <c r="C157" s="47" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D157" s="47" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E157" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F157" s="46"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="80"/>
+      <c r="A158" s="91"/>
       <c r="B158" s="3">
         <v>1412</v>
       </c>
       <c r="C158" s="47" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D158" s="47" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E158" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F158" s="46"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="80"/>
+      <c r="A159" s="91"/>
       <c r="B159" s="3">
         <v>1413</v>
       </c>
       <c r="C159" s="47" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D159" s="47" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E159" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F159" s="46"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="80"/>
+      <c r="A160" s="91"/>
       <c r="B160" s="3">
         <v>1414</v>
       </c>
       <c r="C160" s="47" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D160" s="47" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E160" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F160" s="46"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="80"/>
+      <c r="A161" s="91"/>
       <c r="B161" s="3">
         <v>1415</v>
       </c>
       <c r="C161" s="47" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D161" s="47" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E161" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F161" s="46"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="80"/>
+      <c r="A162" s="91"/>
       <c r="B162" s="3">
         <v>1416</v>
       </c>
       <c r="C162" s="47" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D162" s="47" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E162" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F162" s="46"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="80"/>
+      <c r="A163" s="91"/>
       <c r="B163" s="3">
         <v>1417</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D163" s="47" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E163" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F163" s="46"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="80"/>
+      <c r="A164" s="91"/>
       <c r="B164" s="3">
         <v>1418</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D164" s="47" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E164" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F164" s="46"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="80"/>
+      <c r="A165" s="91"/>
       <c r="B165" s="3">
         <v>1419</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D165" s="47" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E165" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F165" s="46"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="80"/>
+      <c r="A166" s="91"/>
       <c r="B166" s="3">
         <v>1420</v>
       </c>
       <c r="C166" s="47" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D166" s="47" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E166" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F166" s="46"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="80"/>
+      <c r="A167" s="91"/>
       <c r="B167" s="3">
         <v>1421</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D167" s="47" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E167" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F167" s="46"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="80"/>
+      <c r="A168" s="91"/>
       <c r="B168" s="3">
         <v>1422</v>
       </c>
       <c r="C168" s="47" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D168" s="47" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E168" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F168" s="46"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="80"/>
+      <c r="A169" s="91"/>
       <c r="B169" s="3">
         <v>1423</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D169" s="47" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E169" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F169" s="46"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="80"/>
+      <c r="A170" s="91"/>
       <c r="B170" s="3">
         <v>1424</v>
       </c>
       <c r="C170" s="47" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D170" s="47" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E170" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F170" s="46"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="80"/>
+      <c r="A171" s="91"/>
       <c r="B171" s="3">
         <v>1425</v>
       </c>
       <c r="C171" s="47" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D171" s="47" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E171" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F171" s="46"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="80"/>
+      <c r="A172" s="91"/>
       <c r="B172" s="3">
         <v>1426</v>
       </c>
       <c r="C172" s="47" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D172" s="47" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E172" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F172" s="46"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="80"/>
+      <c r="A173" s="91"/>
       <c r="B173" s="3">
         <v>1427</v>
       </c>
       <c r="C173" s="47" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D173" s="47" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E173" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F173" s="46"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="80"/>
+      <c r="A174" s="91"/>
       <c r="B174" s="3">
         <v>1428</v>
       </c>
       <c r="C174" s="47" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D174" s="47" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E174" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F174" s="46"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="80"/>
+      <c r="A175" s="91"/>
       <c r="B175" s="3">
         <v>1429</v>
       </c>
       <c r="C175" s="47" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D175" s="47" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E175" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F175" s="46"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="80"/>
+      <c r="A176" s="91"/>
       <c r="B176" s="3">
         <v>1430</v>
       </c>
       <c r="C176" s="47" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D176" s="47" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E176" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F176" s="46"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="80"/>
+      <c r="A177" s="91"/>
       <c r="B177" s="3">
         <v>1431</v>
       </c>
       <c r="C177" s="47" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D177" s="47" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E177" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F177" s="46"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="80"/>
+      <c r="A178" s="91"/>
       <c r="B178" s="3">
         <v>1432</v>
       </c>
       <c r="C178" s="47" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D178" s="47" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E178" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F178" s="46"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="80"/>
+      <c r="A179" s="91"/>
       <c r="B179" s="3">
         <v>1433</v>
       </c>
       <c r="C179" s="47" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D179" s="47" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E179" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F179" s="46"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="80"/>
+      <c r="A180" s="91"/>
       <c r="B180" s="3">
         <v>1434</v>
       </c>
       <c r="C180" s="47" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D180" s="47" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E180" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F180" s="46"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="80"/>
+      <c r="A181" s="91"/>
       <c r="B181" s="3">
         <v>1435</v>
       </c>
       <c r="C181" s="47" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D181" s="47" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E181" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F181" s="46"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="80"/>
+      <c r="A182" s="91"/>
       <c r="B182" s="3">
         <v>1436</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D182" s="47" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E182" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F182" s="46"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="80"/>
+      <c r="A183" s="91"/>
       <c r="B183" s="3">
         <v>1437</v>
       </c>
       <c r="C183" s="47" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D183" s="47" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E183" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F183" s="46"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="80"/>
+      <c r="A184" s="91"/>
       <c r="B184" s="3">
         <v>1438</v>
       </c>
       <c r="C184" s="47" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D184" s="47" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E184" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F184" s="46"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="80"/>
+      <c r="A185" s="91"/>
       <c r="B185" s="3">
         <v>1439</v>
       </c>
       <c r="C185" s="47" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D185" s="47" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E185" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F185" s="46"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="80"/>
+      <c r="A186" s="91"/>
       <c r="B186" s="3">
         <v>1440</v>
       </c>
       <c r="C186" s="47" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D186" s="47" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E186" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F186" s="46"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="80"/>
+      <c r="A187" s="91"/>
       <c r="B187" s="3">
         <v>1441</v>
       </c>
       <c r="C187" s="47" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D187" s="47" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E187" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F187" s="46"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="80"/>
+      <c r="A188" s="91"/>
       <c r="B188" s="3">
         <v>1442</v>
       </c>
       <c r="C188" s="47" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D188" s="47" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E188" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F188" s="46"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="80"/>
+      <c r="A189" s="91"/>
       <c r="B189" s="3">
         <v>1443</v>
       </c>
       <c r="C189" s="47" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D189" s="47" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E189" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F189" s="46"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="80"/>
+      <c r="A190" s="91"/>
       <c r="B190" s="3">
         <v>1444</v>
       </c>
       <c r="C190" s="47" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D190" s="47" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E190" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F190" s="46"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="80"/>
+      <c r="A191" s="91"/>
       <c r="B191" s="3">
         <v>1445</v>
       </c>
       <c r="C191" s="47" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D191" s="47" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E191" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F191" s="46"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="80"/>
+      <c r="A192" s="91"/>
       <c r="B192" s="3">
         <v>1446</v>
       </c>
       <c r="C192" s="47" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D192" s="47" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E192" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F192" s="46"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="80"/>
+      <c r="A193" s="91"/>
       <c r="B193" s="3">
         <v>1447</v>
       </c>
       <c r="C193" s="47" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D193" s="47" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E193" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F193" s="46"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="80"/>
+      <c r="A194" s="91"/>
       <c r="B194" s="3">
         <v>1448</v>
       </c>
       <c r="C194" s="47" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D194" s="47" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E194" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F194" s="46"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="80"/>
+      <c r="A195" s="91"/>
       <c r="B195" s="3">
         <v>1449</v>
       </c>
       <c r="C195" s="47" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D195" s="47" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E195" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F195" s="46"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="80"/>
+      <c r="A196" s="91"/>
       <c r="B196" s="3">
         <v>1450</v>
       </c>
       <c r="C196" s="47" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D196" s="47" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E196" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F196" s="46"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="80"/>
+      <c r="A197" s="91"/>
       <c r="B197" s="3">
         <v>1451</v>
       </c>
       <c r="C197" s="47" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D197" s="47" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E197" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F197" s="46"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="80"/>
+      <c r="A198" s="91"/>
       <c r="B198" s="3">
         <v>1452</v>
       </c>
       <c r="C198" s="47" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D198" s="47" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E198" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F198" s="46"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="80"/>
+      <c r="A199" s="91"/>
       <c r="B199" s="3">
         <v>1453</v>
       </c>
       <c r="C199" s="47" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D199" s="47" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E199" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F199" s="46"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="80"/>
+      <c r="A200" s="91"/>
       <c r="B200" s="3">
         <v>1454</v>
       </c>
       <c r="C200" s="47" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D200" s="47" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E200" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F200" s="46"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="80"/>
+      <c r="A201" s="91"/>
       <c r="B201" s="3">
         <v>1455</v>
       </c>
       <c r="C201" s="47" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D201" s="47" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E201" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F201" s="46"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="80"/>
+      <c r="A202" s="91"/>
       <c r="B202" s="3">
         <v>1456</v>
       </c>
       <c r="C202" s="47" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D202" s="47" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E202" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F202" s="46"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="80"/>
+      <c r="A203" s="91"/>
       <c r="B203" s="3">
         <v>1457</v>
       </c>
       <c r="C203" s="47" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D203" s="47" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E203" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F203" s="46"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="80"/>
+      <c r="A204" s="91"/>
       <c r="B204" s="3">
         <v>1458</v>
       </c>
       <c r="C204" s="47" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D204" s="47" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E204" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F204" s="46"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="80"/>
+      <c r="A205" s="91"/>
       <c r="B205" s="3">
         <v>1459</v>
       </c>
       <c r="C205" s="47" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D205" s="47" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E205" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F205" s="46"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="80"/>
+      <c r="A206" s="91"/>
       <c r="B206" s="3">
         <v>1460</v>
       </c>
       <c r="C206" s="47" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D206" s="47" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E206" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F206" s="46"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="80"/>
+      <c r="A207" s="91"/>
       <c r="B207" s="3">
         <v>1461</v>
       </c>
       <c r="C207" s="47" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D207" s="47" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E207" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F207" s="46"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="80"/>
+      <c r="A208" s="91"/>
       <c r="B208" s="3">
         <v>1462</v>
       </c>
       <c r="C208" s="47" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D208" s="47" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E208" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F208" s="46"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="80"/>
+      <c r="A209" s="91"/>
       <c r="B209" s="3">
         <v>1463</v>
       </c>
       <c r="C209" s="47" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D209" s="47" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E209" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F209" s="46"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="80"/>
+      <c r="A210" s="91"/>
       <c r="B210" s="3">
         <v>1464</v>
       </c>
       <c r="C210" s="47" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D210" s="47" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E210" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F210" s="46"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="80"/>
+      <c r="A211" s="91"/>
       <c r="B211" s="3">
         <v>1465</v>
       </c>
       <c r="C211" s="47" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D211" s="47" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E211" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F211" s="46"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="80"/>
+      <c r="A212" s="91"/>
       <c r="B212" s="3">
         <v>1466</v>
       </c>
       <c r="C212" s="47" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D212" s="47" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E212" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F212" s="46"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="80"/>
+      <c r="A213" s="91"/>
       <c r="B213" s="3">
         <v>1467</v>
       </c>
       <c r="C213" s="47" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D213" s="47" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E213" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F213" s="46"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="80"/>
+      <c r="A214" s="91"/>
       <c r="B214" s="3">
         <v>1468</v>
       </c>
       <c r="C214" s="47" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D214" s="47" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E214" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F214" s="46"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="80"/>
+      <c r="A215" s="91"/>
       <c r="B215" s="3">
         <v>1469</v>
       </c>
       <c r="C215" s="47" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D215" s="47" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E215" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F215" s="46"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="80"/>
+      <c r="A216" s="91"/>
       <c r="B216" s="3">
         <v>1470</v>
       </c>
       <c r="C216" s="47" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D216" s="47" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E216" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F216" s="46"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="80"/>
+      <c r="A217" s="91"/>
       <c r="B217" s="3">
         <v>1471</v>
       </c>
       <c r="C217" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D217" s="47" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E217" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F217" s="46"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="80"/>
+      <c r="A218" s="91"/>
       <c r="B218" s="3">
         <v>1472</v>
       </c>
       <c r="C218" s="47" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D218" s="47" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E218" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F218" s="46"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="80"/>
+      <c r="A219" s="91"/>
       <c r="B219" s="3">
         <v>1473</v>
       </c>
       <c r="C219" s="47" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D219" s="47" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E219" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F219" s="46"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="80"/>
+      <c r="A220" s="91"/>
       <c r="B220" s="3">
         <v>1474</v>
       </c>
       <c r="C220" s="47" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D220" s="47" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E220" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F220" s="46"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="80"/>
+      <c r="A221" s="91"/>
       <c r="B221" s="3">
         <v>1475</v>
       </c>
       <c r="C221" s="47" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D221" s="47" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E221" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F221" s="46"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="80"/>
+      <c r="A222" s="91"/>
       <c r="B222" s="3">
         <v>1476</v>
       </c>
       <c r="C222" s="47" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D222" s="47" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E222" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F222" s="46"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="80"/>
+      <c r="A223" s="91"/>
       <c r="B223" s="3">
         <v>1477</v>
       </c>
       <c r="C223" s="47" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D223" s="47" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E223" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F223" s="46"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="80"/>
+      <c r="A224" s="91"/>
       <c r="B224" s="3">
         <v>1478</v>
       </c>
       <c r="C224" s="47" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D224" s="47" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E224" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F224" s="46"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="80"/>
+      <c r="A225" s="91"/>
       <c r="B225" s="3">
         <v>1479</v>
       </c>
       <c r="C225" s="47" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D225" s="47" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E225" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F225" s="46"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="80"/>
+      <c r="A226" s="91"/>
       <c r="B226" s="3">
         <v>1480</v>
       </c>
       <c r="C226" s="47" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D226" s="47" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E226" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F226" s="46"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="80"/>
+      <c r="A227" s="91"/>
       <c r="B227" s="3">
         <v>1481</v>
       </c>
       <c r="C227" s="47" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D227" s="47" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E227" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F227" s="46"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="80"/>
+      <c r="A228" s="91"/>
       <c r="B228" s="3">
         <v>1482</v>
       </c>
       <c r="C228" s="47" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D228" s="47" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E228" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F228" s="46"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="80"/>
+      <c r="A229" s="91"/>
       <c r="B229" s="3">
         <v>1483</v>
       </c>
       <c r="C229" s="47" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D229" s="47" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E229" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F229" s="46"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="80"/>
+      <c r="A230" s="91"/>
       <c r="B230" s="3">
         <v>1484</v>
       </c>
       <c r="C230" s="47" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D230" s="47" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E230" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F230" s="46"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="80"/>
+      <c r="A231" s="91"/>
       <c r="B231" s="3">
         <v>1485</v>
       </c>
       <c r="C231" s="47" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D231" s="47" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E231" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F231" s="46"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="80"/>
+      <c r="A232" s="91"/>
       <c r="B232" s="3">
         <v>1486</v>
       </c>
       <c r="C232" s="47" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D232" s="47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E232" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F232" s="46"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="80"/>
+      <c r="A233" s="91"/>
       <c r="B233" s="3">
         <v>1487</v>
       </c>
       <c r="C233" s="47" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D233" s="47" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E233" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F233" s="46"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="80"/>
+      <c r="A234" s="91"/>
       <c r="B234" s="3">
         <v>1488</v>
       </c>
       <c r="C234" s="47" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D234" s="47" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E234" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F234" s="46"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="80"/>
+      <c r="A235" s="91"/>
       <c r="B235" s="3">
         <v>1489</v>
       </c>
       <c r="C235" s="47" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D235" s="47" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E235" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F235" s="46"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="80"/>
+      <c r="A236" s="91"/>
       <c r="B236" s="3">
         <v>1490</v>
       </c>
       <c r="C236" s="47" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D236" s="47" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E236" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F236" s="46"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="80"/>
+      <c r="A237" s="91"/>
       <c r="B237" s="3">
         <v>1491</v>
       </c>
       <c r="C237" s="47" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D237" s="47" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E237" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F237" s="46"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="80"/>
+      <c r="A238" s="91"/>
       <c r="B238" s="3">
         <v>1492</v>
       </c>
       <c r="C238" s="47" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D238" s="47" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E238" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F238" s="46"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="80"/>
+      <c r="A239" s="91"/>
       <c r="B239" s="3">
         <v>1493</v>
       </c>
       <c r="C239" s="47" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D239" s="47" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E239" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F239" s="46"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="80"/>
+      <c r="A240" s="91"/>
       <c r="B240" s="3">
         <v>1494</v>
       </c>
       <c r="C240" s="47" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D240" s="47" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E240" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F240" s="46"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="80"/>
+      <c r="A241" s="91"/>
       <c r="B241" s="3">
         <v>1495</v>
       </c>
       <c r="C241" s="47" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D241" s="47" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E241" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F241" s="46"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="80"/>
+      <c r="A242" s="91"/>
       <c r="B242" s="3">
         <v>1496</v>
       </c>
       <c r="C242" s="47" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D242" s="47" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E242" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F242" s="46"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="80"/>
+      <c r="A243" s="91"/>
       <c r="B243" s="3">
         <v>1497</v>
       </c>
       <c r="C243" s="47" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D243" s="47" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E243" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F243" s="46"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="80"/>
+      <c r="A244" s="91"/>
       <c r="B244" s="3">
         <v>1498</v>
       </c>
       <c r="C244" s="47" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D244" s="47" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E244" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F244" s="46"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="80"/>
+      <c r="A245" s="91"/>
       <c r="B245" s="3">
         <v>1499</v>
       </c>
       <c r="C245" s="47" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D245" s="47" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E245" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F245" s="46"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="80"/>
+      <c r="A246" s="91"/>
       <c r="B246" s="3">
         <v>1500</v>
       </c>
       <c r="C246" s="47" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D246" s="47" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E246" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F246" s="46"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="80"/>
+      <c r="A247" s="91"/>
       <c r="B247" s="3">
         <v>1501</v>
       </c>
       <c r="C247" s="47" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D247" s="47" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E247" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F247" s="46"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="80"/>
+      <c r="A248" s="91"/>
       <c r="B248" s="3">
         <v>1502</v>
       </c>
       <c r="C248" s="47" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D248" s="47" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E248" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F248" s="46"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="80"/>
+      <c r="A249" s="91"/>
       <c r="B249" s="3">
         <v>1503</v>
       </c>
       <c r="C249" s="47" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D249" s="47" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E249" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F249" s="46"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="80"/>
+      <c r="A250" s="91"/>
       <c r="B250" s="3">
         <v>1504</v>
       </c>
       <c r="C250" s="47" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D250" s="47" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E250" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F250" s="46"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="80"/>
+      <c r="A251" s="91"/>
       <c r="B251" s="3">
         <v>1505</v>
       </c>
       <c r="C251" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D251" s="47" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E251" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F251" s="46"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="80"/>
+      <c r="A252" s="91"/>
       <c r="B252" s="3">
         <v>1506</v>
       </c>
       <c r="C252" s="47" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D252" s="47" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E252" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F252" s="46"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="80"/>
+      <c r="A253" s="91"/>
       <c r="B253" s="3">
         <v>1507</v>
       </c>
       <c r="C253" s="47" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D253" s="47" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E253" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F253" s="46"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="80"/>
+      <c r="A254" s="91"/>
       <c r="B254" s="3">
         <v>1508</v>
       </c>
       <c r="C254" s="47" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D254" s="47" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E254" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F254" s="46"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="80"/>
+      <c r="A255" s="91"/>
       <c r="B255" s="3">
         <v>1509</v>
       </c>
       <c r="C255" s="47" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D255" s="47" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E255" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F255" s="46"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="80"/>
+      <c r="A256" s="91"/>
       <c r="B256" s="3">
         <v>1510</v>
       </c>
       <c r="C256" s="47" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D256" s="47" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E256" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F256" s="46"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="80"/>
+      <c r="A257" s="91"/>
       <c r="B257" s="3">
         <v>1511</v>
       </c>
       <c r="C257" s="47" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D257" s="47" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E257" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F257" s="46"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="80"/>
+      <c r="A258" s="91"/>
       <c r="B258" s="3">
         <v>1512</v>
       </c>
       <c r="C258" s="47" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D258" s="47" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E258" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F258" s="46"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="80"/>
+      <c r="A259" s="91"/>
       <c r="B259" s="3">
         <v>1513</v>
       </c>
       <c r="C259" s="47" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D259" s="47" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E259" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F259" s="46"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="80"/>
+      <c r="A260" s="91"/>
       <c r="B260" s="3">
         <v>1514</v>
       </c>
       <c r="C260" s="47" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D260" s="47" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E260" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F260" s="46"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="80"/>
+      <c r="A261" s="91"/>
       <c r="B261" s="3">
         <v>1515</v>
       </c>
       <c r="C261" s="47" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D261" s="47" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E261" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F261" s="46"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="80"/>
+      <c r="A262" s="91"/>
       <c r="B262" s="3">
         <v>1516</v>
       </c>
       <c r="C262" s="47" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D262" s="47" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E262" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F262" s="46"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="80"/>
+      <c r="A263" s="91"/>
       <c r="B263" s="3">
         <v>1517</v>
       </c>
       <c r="C263" s="47" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D263" s="47" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E263" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F263" s="46"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="80"/>
+      <c r="A264" s="91"/>
       <c r="B264" s="3">
         <v>1518</v>
       </c>
       <c r="C264" s="47" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D264" s="47" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E264" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F264" s="46"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="80"/>
+      <c r="A265" s="91"/>
       <c r="B265" s="3">
         <v>1519</v>
       </c>
       <c r="C265" s="47" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D265" s="47" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E265" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F265" s="46"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="80"/>
+      <c r="A266" s="91"/>
       <c r="B266" s="3">
         <v>1520</v>
       </c>
       <c r="C266" s="47" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D266" s="47" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E266" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F266" s="46"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="80"/>
+      <c r="A267" s="91"/>
       <c r="B267" s="3">
         <v>1521</v>
       </c>
       <c r="C267" s="47" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D267" s="47" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E267" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F267" s="46"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="80"/>
+      <c r="A268" s="91"/>
       <c r="B268" s="3">
         <v>1522</v>
       </c>
       <c r="C268" s="47" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D268" s="47" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E268" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F268" s="46"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="80"/>
+      <c r="A269" s="91"/>
       <c r="B269" s="3">
         <v>1523</v>
       </c>
       <c r="C269" s="47" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D269" s="47" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E269" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F269" s="46"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="80"/>
+      <c r="A270" s="91"/>
       <c r="B270" s="3">
         <v>1524</v>
       </c>
       <c r="C270" s="47" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D270" s="47" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E270" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F270" s="46"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="80"/>
+      <c r="A271" s="91"/>
       <c r="B271" s="3">
         <v>1525</v>
       </c>
       <c r="C271" s="47" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D271" s="47" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E271" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F271" s="46"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="80"/>
+      <c r="A272" s="91"/>
       <c r="B272" s="3">
         <v>1526</v>
       </c>
       <c r="C272" s="47" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D272" s="47" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E272" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F272" s="46"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="80"/>
+      <c r="A273" s="91"/>
       <c r="B273" s="3">
         <v>1527</v>
       </c>
       <c r="C273" s="47" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D273" s="47" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E273" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F273" s="46"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="80"/>
+      <c r="A274" s="91"/>
       <c r="B274" s="3">
         <v>1528</v>
       </c>
       <c r="C274" s="47" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D274" s="47" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E274" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F274" s="46"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="80"/>
+      <c r="A275" s="91"/>
       <c r="B275" s="3">
         <v>1529</v>
       </c>
       <c r="C275" s="47" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D275" s="47" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E275" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F275" s="46"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="80"/>
+      <c r="A276" s="91"/>
       <c r="B276" s="3">
         <v>1530</v>
       </c>
       <c r="C276" s="47" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D276" s="47" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F276" s="46"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="80"/>
+      <c r="A277" s="91"/>
       <c r="B277" s="3">
         <v>1531</v>
       </c>
       <c r="C277" s="47" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D277" s="47" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E277" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F277" s="46"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="80"/>
+      <c r="A278" s="91"/>
       <c r="B278" s="3">
         <v>1532</v>
       </c>
       <c r="C278" s="47" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D278" s="47" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E278" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F278" s="46"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="80"/>
+      <c r="A279" s="91"/>
       <c r="B279" s="3">
         <v>1533</v>
       </c>
       <c r="C279" s="47" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D279" s="47" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E279" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F279" s="46"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="80"/>
+      <c r="A280" s="91"/>
       <c r="B280" s="3">
         <v>1534</v>
       </c>
       <c r="C280" s="47" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D280" s="47" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E280" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F280" s="46"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="80"/>
+      <c r="A281" s="91"/>
       <c r="B281" s="3">
         <v>1535</v>
       </c>
       <c r="C281" s="47" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D281" s="47" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E281" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F281" s="46"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="80"/>
+      <c r="A282" s="91"/>
       <c r="B282" s="3">
         <v>1536</v>
       </c>
       <c r="C282" s="47" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D282" s="47" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E282" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F282" s="46"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="80"/>
+      <c r="A283" s="91"/>
       <c r="B283" s="3">
         <v>1537</v>
       </c>
       <c r="C283" s="47" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D283" s="47" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E283" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F283" s="46"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="80"/>
+      <c r="A284" s="91"/>
       <c r="B284" s="3">
         <v>1538</v>
       </c>
       <c r="C284" s="47" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D284" s="47" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E284" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F284" s="46"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="80"/>
+      <c r="A285" s="91"/>
       <c r="B285" s="3">
         <v>1539</v>
       </c>
       <c r="C285" s="47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D285" s="47" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E285" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F285" s="46"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="80"/>
+      <c r="A286" s="91"/>
       <c r="B286" s="3">
         <v>1540</v>
       </c>
       <c r="C286" s="47" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D286" s="47" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E286" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F286" s="46"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="80"/>
+      <c r="A287" s="91"/>
       <c r="B287" s="3">
         <v>1541</v>
       </c>
       <c r="C287" s="47" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D287" s="47" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E287" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F287" s="46"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="80"/>
+      <c r="A288" s="91"/>
       <c r="B288" s="3">
         <v>1542</v>
       </c>
       <c r="C288" s="47" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D288" s="47" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E288" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F288" s="46"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="80"/>
+      <c r="A289" s="91"/>
       <c r="B289" s="3">
         <v>1543</v>
       </c>
       <c r="C289" s="47" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D289" s="47" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E289" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F289" s="46"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="80"/>
+      <c r="A290" s="91"/>
       <c r="B290" s="3">
         <v>1544</v>
       </c>
       <c r="C290" s="47" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D290" s="47" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E290" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F290" s="46"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="80"/>
+      <c r="A291" s="91"/>
       <c r="B291" s="3">
         <v>1545</v>
       </c>
       <c r="C291" s="47" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D291" s="47" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E291" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F291" s="46"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="80"/>
+      <c r="A292" s="91"/>
       <c r="B292" s="3">
         <v>1546</v>
       </c>
       <c r="C292" s="47" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D292" s="47" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E292" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F292" s="46"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="80"/>
+      <c r="A293" s="91"/>
       <c r="B293" s="3">
         <v>1547</v>
       </c>
       <c r="C293" s="47" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D293" s="47" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E293" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F293" s="46"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="80"/>
+      <c r="A294" s="91"/>
       <c r="B294" s="3">
         <v>1548</v>
       </c>
       <c r="C294" s="47" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D294" s="47" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E294" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F294" s="46"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="80"/>
+      <c r="A295" s="91"/>
       <c r="B295" s="3">
         <v>1549</v>
       </c>
       <c r="C295" s="47" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D295" s="47" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E295" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F295" s="46"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="80"/>
+      <c r="A296" s="91"/>
       <c r="B296" s="3">
         <v>1550</v>
       </c>
       <c r="C296" s="47" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D296" s="47" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E296" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F296" s="46"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="80"/>
+      <c r="A297" s="91"/>
       <c r="B297" s="3">
         <v>1551</v>
       </c>
       <c r="C297" s="47" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D297" s="47" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E297" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F297" s="46"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="80"/>
+      <c r="A298" s="91"/>
       <c r="B298" s="3">
         <v>1552</v>
       </c>
       <c r="C298" s="47" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D298" s="47" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F298" s="46"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="80"/>
+      <c r="A299" s="91"/>
       <c r="B299" s="3">
         <v>1553</v>
       </c>
       <c r="C299" s="47" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D299" s="47" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E299" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F299" s="46"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="80"/>
+      <c r="A300" s="91"/>
       <c r="B300" s="3">
         <v>1554</v>
       </c>
       <c r="C300" s="47" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D300" s="47" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E300" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F300" s="46"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="80"/>
+      <c r="A301" s="91"/>
       <c r="B301" s="3">
         <v>1555</v>
       </c>
       <c r="C301" s="47" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D301" s="47" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E301" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F301" s="46"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="80"/>
+      <c r="A302" s="91"/>
       <c r="B302" s="3">
         <v>1556</v>
       </c>
       <c r="C302" s="47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D302" s="47" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E302" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F302" s="46"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="80"/>
+      <c r="A303" s="91"/>
       <c r="B303" s="3">
         <v>1557</v>
       </c>
       <c r="C303" s="47" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D303" s="47" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E303" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F303" s="46"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="80"/>
+      <c r="A304" s="91"/>
       <c r="B304" s="3">
         <v>1558</v>
       </c>
       <c r="C304" s="47" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D304" s="47" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F304" s="46"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="80"/>
+      <c r="A305" s="91"/>
       <c r="B305" s="3">
         <v>1559</v>
       </c>
       <c r="C305" s="47" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D305" s="47" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E305" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F305" s="46"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="80"/>
+      <c r="A306" s="91"/>
       <c r="B306" s="3">
         <v>1560</v>
       </c>
       <c r="C306" s="47" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D306" s="47" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E306" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F306" s="46"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="80"/>
+      <c r="A307" s="91"/>
       <c r="B307" s="3">
         <v>1561</v>
       </c>
       <c r="C307" s="47" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D307" s="47" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E307" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F307" s="46"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="80"/>
+      <c r="A308" s="91"/>
       <c r="B308" s="3">
         <v>1562</v>
       </c>
       <c r="C308" s="47" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D308" s="47" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E308" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F308" s="46"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="80"/>
+      <c r="A309" s="91"/>
       <c r="B309" s="3">
         <v>1563</v>
       </c>
       <c r="C309" s="47" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D309" s="47" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E309" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F309" s="46"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="80"/>
+      <c r="A310" s="91"/>
       <c r="B310" s="3">
         <v>1564</v>
       </c>
       <c r="C310" s="47" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D310" s="47" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E310" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F310" s="46"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="80"/>
+      <c r="A311" s="91"/>
       <c r="B311" s="3">
         <v>1565</v>
       </c>
       <c r="C311" s="47" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D311" s="47" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E311" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F311" s="46"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="80"/>
+      <c r="A312" s="91"/>
       <c r="B312" s="3">
         <v>1566</v>
       </c>
       <c r="C312" s="47" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D312" s="47" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E312" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F312" s="46"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="80"/>
+      <c r="A313" s="91"/>
       <c r="B313" s="3">
         <v>1567</v>
       </c>
       <c r="C313" s="47" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D313" s="47" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E313" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F313" s="46"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="80"/>
+      <c r="A314" s="91"/>
       <c r="B314" s="3">
         <v>1568</v>
       </c>
       <c r="C314" s="47" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D314" s="47" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E314" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F314" s="46"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="80"/>
+      <c r="A315" s="91"/>
       <c r="B315" s="3">
         <v>1569</v>
       </c>
       <c r="C315" s="47" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D315" s="47" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E315" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F315" s="46"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="80"/>
+      <c r="A316" s="91"/>
       <c r="B316" s="3">
         <v>1570</v>
       </c>
       <c r="C316" s="47" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D316" s="47" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E316" s="45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F316" s="46"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="80"/>
+      <c r="A317" s="91"/>
       <c r="B317" s="3">
         <v>1571</v>
       </c>
       <c r="C317" s="47" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D317" s="47" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E317" s="45" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F317" s="46"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="80"/>
+      <c r="A318" s="91"/>
       <c r="B318" s="3">
         <v>1572</v>
       </c>
       <c r="C318" s="47" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D318" s="47" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E318" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F318" s="56"/>
     </row>
     <row r="319" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A319" s="80" t="s">
-        <v>815</v>
+      <c r="A319" s="91" t="s">
+        <v>810</v>
       </c>
       <c r="B319" s="47">
         <v>1600</v>
       </c>
       <c r="C319" s="47" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D319" s="47" t="s">
+        <v>807</v>
+      </c>
+      <c r="E319" s="48" t="s">
         <v>812</v>
       </c>
-      <c r="E319" s="48" t="s">
-        <v>817</v>
-      </c>
       <c r="F319" s="56"/>
     </row>
     <row r="320" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="81"/>
+      <c r="A320" s="92"/>
       <c r="B320" s="49">
         <v>1601</v>
       </c>
       <c r="C320" s="49" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D320" s="49" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E320" s="50" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F320" s="57"/>
     </row>
@@ -11393,52 +11542,52 @@
         <v>8</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="95">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>95</v>
+      <c r="E2" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="83"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="14">
         <f>MAX($B$1:B3)+1</f>
         <v>2001</v>
@@ -11453,17 +11602,17 @@
         <v>20</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="14">
         <f>MAX($B$1:B4)+1</f>
         <v>2002</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>56</v>
@@ -11476,7 +11625,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="14">
         <f>MAX($B$1:B5)+1</f>
         <v>2003</v>
@@ -11491,143 +11640,143 @@
         <v>19</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="14">
         <f>MAX($B$1:B6)+1</f>
         <v>2004</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
-        <v>89</v>
+      <c r="A8" s="86" t="s">
+        <v>88</v>
       </c>
       <c r="B8" s="14">
         <f>MAX($B$1:B7)+1</f>
         <v>2005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="14">
         <f>MAX($B$1:B8)+1</f>
         <v>2006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="14">
         <f>MAX($B$1:B9)+1</f>
         <v>2007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="84">
+      <c r="A11" s="86"/>
+      <c r="B11" s="95">
         <f>MAX($B$1:B10)+1</f>
         <v>2008</v>
       </c>
-      <c r="C11" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="86" t="s">
+      <c r="C11" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="82" t="s">
-        <v>104</v>
+      <c r="F11" s="93" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="83"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
-      <c r="B13" s="84">
+      <c r="A13" s="86"/>
+      <c r="B13" s="95">
         <f>MAX($B$1:B12)+1</f>
         <v>2009</v>
       </c>
-      <c r="C13" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="86" t="s">
+      <c r="C13" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="82" t="s">
-        <v>105</v>
+      <c r="F13" s="93" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="83"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="86" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="14">
@@ -11644,49 +11793,49 @@
         <v>21</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="14">
         <f>MAX($B$1:B15)+1</f>
         <v>2011</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="14">
         <f>MAX($B$1:B16)+1</f>
         <v>2012</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="14">
         <f>MAX($B$1:B17)+1</f>
         <v>2013</v>
@@ -11701,11 +11850,11 @@
         <v>22</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="14">
         <f>MAX($B$1:B18)+1</f>
         <v>2014</v>
@@ -11720,11 +11869,11 @@
         <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="14">
         <f>MAX($B$1:B19)+1</f>
         <v>2015</v>
@@ -11739,167 +11888,167 @@
         <v>27</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="73"/>
-      <c r="B21" s="87">
+      <c r="A21" s="86"/>
+      <c r="B21" s="66">
         <f>MAX($B$1:B20)+1</f>
         <v>2016</v>
       </c>
-      <c r="C21" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="86" t="s">
+      <c r="C21" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="88" t="s">
-        <v>110</v>
+      <c r="F21" s="99" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="89"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="100"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="100"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="89"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="100"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="90"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="101"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
-      <c r="B26" s="84">
+      <c r="A26" s="86"/>
+      <c r="B26" s="95">
         <f>MAX($B$1:B25)+1</f>
         <v>2017</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="86" t="s">
+      <c r="D26" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="88" t="s">
-        <v>111</v>
+      <c r="F26" s="99" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="73"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="90"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="101"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
-      <c r="B28" s="84">
+      <c r="A28" s="86"/>
+      <c r="B28" s="95">
         <f>MAX($B$1:B27)+1</f>
         <v>2018</v>
       </c>
-      <c r="C28" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="86" t="s">
+      <c r="C28" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="88" t="s">
-        <v>120</v>
+      <c r="F28" s="99" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="89"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="100"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="95">
         <f>MAX($B$1:B29)+1</f>
         <v>2019</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="88" t="s">
-        <v>134</v>
+      <c r="F30" s="99" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="89"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="100"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="89"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="73"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="90"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="101"/>
     </row>
     <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="14">
         <f>MAX($B$1:B33)+1</f>
         <v>2020</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>43</v>
@@ -11908,11 +12057,11 @@
         <v>22</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="14">
         <f>MAX($B$1:B34)+1</f>
         <v>2021</v>
@@ -11927,17 +12076,17 @@
         <v>22</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="14">
         <f>MAX($B$1:B35)+1</f>
         <v>2022</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>35</v>
@@ -11946,38 +12095,38 @@
         <v>22</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
-      <c r="B37" s="84">
+      <c r="A37" s="86"/>
+      <c r="B37" s="95">
         <f>MAX($B$1:B36)+1</f>
         <v>2023</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="88" t="s">
-        <v>143</v>
+      <c r="F37" s="99" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="79"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="102"/>
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="73"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="14">
         <f>MAX($B$1:B38)+1</f>
         <v>2024</v>
@@ -11996,7 +12145,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="86" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="14">
@@ -12013,11 +12162,11 @@
         <v>46</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="76"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="9">
         <f>MAX($B$1:B40)+1</f>
         <v>2026</v>
@@ -12032,7 +12181,7 @@
         <v>46</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -1126,7 +1126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="855">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3910,26 +3910,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>呼入录音名称列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>拨打电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/call.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>records</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/unread_messages.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取未读消息信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有未读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/phone/upload.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呼入录音名称列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回 collection.protocol.Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-  </si>
-  <si>
-    <t>拨打电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/call.do</t>
+    <t>/phone/missed_call.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3941,47 +3985,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>records</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrusted_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrusted_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/message/unread_messages.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取未读消息信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有未读消息</t>
+    <t>返回 collection.protocol.MissedCall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4532,6 +4536,81 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4553,88 +4632,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4646,23 +4647,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4978,9 +4982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5033,54 +5035,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="80">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="74" t="s">
         <v>146</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="30"/>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="90"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="30" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="90"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="31">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -5106,7 +5108,7 @@
       <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="31">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -5132,7 +5134,7 @@
       <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="31">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -5164,7 +5166,7 @@
       <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="31">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -5196,7 +5198,7 @@
       <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="31">
@@ -5224,7 +5226,7 @@
       <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="54">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -5252,7 +5254,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="54">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -5284,21 +5286,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="71">
+      <c r="A11" s="86"/>
+      <c r="B11" s="77">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="81" t="s">
         <v>73</v>
       </c>
       <c r="G11" s="32" t="s">
@@ -5307,47 +5309,47 @@
       <c r="H11" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="74"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="79"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="76"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="71">
+      <c r="A13" s="86"/>
+      <c r="B13" s="77">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="81" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="32" t="s">
@@ -5356,49 +5358,49 @@
       <c r="H13" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="74"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="79"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="76"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="77">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="75" t="s">
         <v>148</v>
       </c>
       <c r="G15" s="34" t="s">
@@ -5407,35 +5409,35 @@
       <c r="H15" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="70" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="30" t="s">
         <v>147</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>804</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="36">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -5469,7 +5471,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="36">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -5503,21 +5505,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="71">
+      <c r="A19" s="83"/>
+      <c r="B19" s="77">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="81" t="s">
         <v>170</v>
       </c>
       <c r="G19" s="30" t="s">
@@ -5526,35 +5528,35 @@
       <c r="H19" s="30" t="s">
         <v>805</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="70" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="79"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="54">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
@@ -5580,7 +5582,7 @@
       <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="54">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
@@ -5612,21 +5614,21 @@
       <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="71">
+      <c r="A23" s="83"/>
+      <c r="B23" s="77">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="81" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="30" t="s">
@@ -5635,96 +5637,96 @@
       <c r="H23" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K23" s="74"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="78"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="30" t="s">
         <v>151</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>822</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="75"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="72"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="78"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="87"/>
       <c r="G25" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="78"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="75"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="72"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="78"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="78"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="75"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="72"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="79"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="29" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="79"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="76"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
-      <c r="B28" s="71">
+      <c r="A28" s="83"/>
+      <c r="B28" s="77">
         <f>MAX($B$1:B27)+1</f>
         <v>18</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="77" t="s">
+      <c r="E28" s="75"/>
+      <c r="F28" s="81" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="30" t="s">
@@ -5733,45 +5735,45 @@
       <c r="H28" s="30" t="s">
         <v>815</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="74"/>
+      <c r="K28" s="70"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="79"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H29" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="79"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="76"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="71">
+      <c r="A30" s="83"/>
+      <c r="B30" s="77">
         <f>MAX($B$1:B29)+1</f>
         <v>19</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="77" t="s">
+      <c r="E30" s="77"/>
+      <c r="F30" s="81" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="29" t="s">
@@ -5780,66 +5782,66 @@
       <c r="H30" s="29" t="s">
         <v>816</v>
       </c>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="74"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="78"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="29" t="s">
         <v>818</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>819</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="75"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="72"/>
     </row>
     <row r="32" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="79"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="30" t="s">
         <v>117</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="I32" s="79"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="76"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="77">
         <f>MAX($B$1:B32)+1</f>
         <v>20</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="77" t="s">
+      <c r="F33" s="81" t="s">
         <v>170</v>
       </c>
       <c r="G33" s="29" t="s">
@@ -5848,97 +5850,97 @@
       <c r="H33" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K33" s="74"/>
+      <c r="K33" s="70"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="78"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="29" t="s">
         <v>131</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="78"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="75"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="72"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="78"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="30" t="s">
         <v>188</v>
       </c>
       <c r="H35" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="78"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="75"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="72"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="79"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="30" t="s">
         <v>151</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="76"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="71"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
-      <c r="B37" s="103">
+      <c r="A37" s="86"/>
+      <c r="B37" s="64">
         <f>MAX($B$1:B36)+1</f>
         <v>21</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="105" t="s">
+      <c r="E37" s="65"/>
+      <c r="F37" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="106" t="s">
+      <c r="G37" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="106" t="s">
+      <c r="H37" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="105" t="s">
+      <c r="I37" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="103" t="s">
+      <c r="J37" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="107"/>
+      <c r="K37" s="68"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="83"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="54">
         <f>MAX($B$1:B37)+1</f>
         <v>22</v>
@@ -5968,16 +5970,16 @@
       <c r="K38" s="51"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="54">
         <f>MAX($B$1:B38)+1</f>
         <v>23</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="52" t="s">
@@ -5986,27 +5988,27 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="52" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="J39" s="54" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="K39" s="51"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
-      <c r="B40" s="71">
+      <c r="A40" s="86"/>
+      <c r="B40" s="77">
         <f>MAX($B$1:B39)+1</f>
         <v>24</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="77" t="s">
+      <c r="E40" s="75"/>
+      <c r="F40" s="81" t="s">
         <v>170</v>
       </c>
       <c r="G40" s="30" t="s">
@@ -6015,114 +6017,114 @@
       <c r="H40" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="77" t="s">
+      <c r="I40" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="J40" s="71" t="s">
+      <c r="J40" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K40" s="74"/>
+      <c r="K40" s="70"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="79"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="82"/>
       <c r="G41" s="30" t="s">
         <v>141</v>
       </c>
       <c r="H41" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="I41" s="79"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="76"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="71"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="83"/>
-      <c r="B42" s="71">
+      <c r="A42" s="86"/>
+      <c r="B42" s="77">
         <f>MAX($B$1:B41)+1</f>
         <v>25</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="77" t="s">
+      <c r="E42" s="77"/>
+      <c r="F42" s="81" t="s">
         <v>170</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>846</v>
-      </c>
-      <c r="I42" s="80" t="s">
+        <v>842</v>
+      </c>
+      <c r="I42" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="J42" s="71" t="s">
+      <c r="J42" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="K42" s="74"/>
+      <c r="K42" s="70"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="78"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="29" t="s">
         <v>192</v>
       </c>
       <c r="H43" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="75"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="72"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="78"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="87"/>
       <c r="G44" s="29" t="s">
         <v>191</v>
       </c>
       <c r="H44" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I44" s="81"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="75"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="72"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="79"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="82"/>
       <c r="G45" s="29" t="s">
         <v>190</v>
       </c>
       <c r="H45" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I45" s="82"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="71"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="83" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="23">
@@ -6145,92 +6147,98 @@
         <v>145</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K46" s="28"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="87"/>
-      <c r="B47" s="66">
+      <c r="A47" s="84"/>
+      <c r="B47" s="91">
         <f>MAX($B$1:B46)+1</f>
         <v>27</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="89" t="s">
         <v>834</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="89" t="s">
+        <v>850</v>
+      </c>
+      <c r="E47" s="89"/>
+      <c r="F47" s="94" t="s">
+        <v>839</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>844</v>
+      </c>
+      <c r="H47" s="62" t="s">
+        <v>845</v>
+      </c>
+      <c r="I47" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="91" t="s">
+        <v>836</v>
+      </c>
+      <c r="K47" s="63"/>
+    </row>
+    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="84"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="61" t="s">
+        <v>840</v>
+      </c>
+      <c r="H48" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="69" t="s">
-        <v>841</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>848</v>
-      </c>
-      <c r="H47" s="62" t="s">
-        <v>849</v>
-      </c>
-      <c r="I47" s="64" t="s">
-        <v>837</v>
-      </c>
-      <c r="J47" s="66" t="s">
-        <v>838</v>
-      </c>
-      <c r="K47" s="63"/>
-    </row>
-    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="87"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="61" t="s">
-        <v>843</v>
-      </c>
-      <c r="H48" s="62" t="s">
-        <v>836</v>
-      </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="67"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="92"/>
       <c r="K48" s="63"/>
     </row>
     <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="87"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="9"/>
       <c r="C49" s="59" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D49" s="59" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E49" s="59"/>
       <c r="F49" s="60" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>845</v>
+        <v>5</v>
       </c>
       <c r="H49" s="62" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="I49" s="59"/>
       <c r="J49" s="58" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K49" s="63"/>
     </row>
     <row r="50" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="88"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>853</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="4" t="s">
+        <v>854</v>
+      </c>
       <c r="J50" s="9" t="s">
         <v>155</v>
       </c>
@@ -6239,28 +6247,67 @@
   </sheetData>
   <autoFilter ref="A1:K50"/>
   <mergeCells count="100">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
@@ -6277,68 +6324,29 @@
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J23:J27"/>
     <mergeCell ref="I23:I27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K23:K27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -6395,7 +6403,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="83" t="s">
         <v>802</v>
       </c>
       <c r="B2" s="3">
@@ -6413,7 +6421,7 @@
       <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="3">
         <v>1001</v>
       </c>
@@ -6429,7 +6437,7 @@
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="3">
         <v>1002</v>
       </c>
@@ -6445,7 +6453,7 @@
       <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="3">
         <v>1003</v>
       </c>
@@ -6461,7 +6469,7 @@
       <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="3">
         <v>1004</v>
       </c>
@@ -6477,7 +6485,7 @@
       <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="3">
         <v>1005</v>
       </c>
@@ -6493,7 +6501,7 @@
       <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="3">
         <v>1006</v>
       </c>
@@ -6509,7 +6517,7 @@
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="3">
         <v>1007</v>
       </c>
@@ -6525,7 +6533,7 @@
       <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="3">
         <v>1008</v>
       </c>
@@ -6541,7 +6549,7 @@
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="3">
         <v>1009</v>
       </c>
@@ -6557,7 +6565,7 @@
       <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="3">
         <v>1010</v>
       </c>
@@ -6573,7 +6581,7 @@
       <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="3">
         <v>1011</v>
       </c>
@@ -6589,7 +6597,7 @@
       <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="3">
         <v>1012</v>
       </c>
@@ -6605,7 +6613,7 @@
       <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="3">
         <v>1013</v>
       </c>
@@ -6621,7 +6629,7 @@
       <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="3">
         <v>1014</v>
       </c>
@@ -6637,7 +6645,7 @@
       <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="3">
         <v>1015</v>
       </c>
@@ -6653,7 +6661,7 @@
       <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="3">
         <v>1016</v>
       </c>
@@ -6669,7 +6677,7 @@
       <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="3">
         <v>1017</v>
       </c>
@@ -6685,7 +6693,7 @@
       <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="3">
         <v>1018</v>
       </c>
@@ -6701,7 +6709,7 @@
       <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="3">
         <v>1019</v>
       </c>
@@ -6717,7 +6725,7 @@
       <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="3">
         <v>1020</v>
       </c>
@@ -6733,7 +6741,7 @@
       <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="3">
         <v>1021</v>
       </c>
@@ -6749,7 +6757,7 @@
       <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="3">
         <v>1022</v>
       </c>
@@ -6765,7 +6773,7 @@
       <c r="F24" s="46"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="3">
         <v>1023</v>
       </c>
@@ -6781,7 +6789,7 @@
       <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="3">
         <v>1024</v>
       </c>
@@ -6797,7 +6805,7 @@
       <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="3">
         <v>1025</v>
       </c>
@@ -6813,7 +6821,7 @@
       <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="3">
         <v>1026</v>
       </c>
@@ -6829,7 +6837,7 @@
       <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="3">
         <v>1027</v>
       </c>
@@ -6845,7 +6853,7 @@
       <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="3">
         <v>1028</v>
       </c>
@@ -6861,7 +6869,7 @@
       <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="3">
         <v>1029</v>
       </c>
@@ -6877,7 +6885,7 @@
       <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="3">
         <v>1030</v>
       </c>
@@ -6893,7 +6901,7 @@
       <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="3">
         <v>1031</v>
       </c>
@@ -6909,7 +6917,7 @@
       <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="3">
         <v>1032</v>
       </c>
@@ -6925,7 +6933,7 @@
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="3">
         <v>1033</v>
       </c>
@@ -6941,7 +6949,7 @@
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="3">
         <v>1034</v>
       </c>
@@ -6957,7 +6965,7 @@
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="3">
         <v>1035</v>
       </c>
@@ -6973,7 +6981,7 @@
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="3">
         <v>1036</v>
       </c>
@@ -6989,7 +6997,7 @@
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="3">
         <v>1037</v>
       </c>
@@ -7005,7 +7013,7 @@
       <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="3">
         <v>1038</v>
       </c>
@@ -7021,7 +7029,7 @@
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="3">
         <v>1039</v>
       </c>
@@ -7037,7 +7045,7 @@
       <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="3">
         <v>1040</v>
       </c>
@@ -7053,7 +7061,7 @@
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="3">
         <v>1041</v>
       </c>
@@ -7069,7 +7077,7 @@
       <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="86"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="3">
         <v>1042</v>
       </c>
@@ -7085,7 +7093,7 @@
       <c r="F44" s="46"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="86"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="3">
         <v>1043</v>
       </c>
@@ -7101,7 +7109,7 @@
       <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="86"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="3">
         <v>1044</v>
       </c>
@@ -7117,7 +7125,7 @@
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="86"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="3">
         <v>1045</v>
       </c>
@@ -7133,7 +7141,7 @@
       <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="86"/>
+      <c r="A48" s="83"/>
       <c r="B48" s="3">
         <v>1046</v>
       </c>
@@ -7149,7 +7157,7 @@
       <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="3">
         <v>1047</v>
       </c>
@@ -7165,7 +7173,7 @@
       <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="3">
         <v>1048</v>
       </c>
@@ -7181,7 +7189,7 @@
       <c r="F50" s="46"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="86"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="3">
         <v>1049</v>
       </c>
@@ -7197,7 +7205,7 @@
       <c r="F51" s="46"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
+      <c r="A52" s="83"/>
       <c r="B52" s="3">
         <v>1050</v>
       </c>
@@ -7213,7 +7221,7 @@
       <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="86"/>
+      <c r="A53" s="83"/>
       <c r="B53" s="3">
         <v>1051</v>
       </c>
@@ -7229,7 +7237,7 @@
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="86"/>
+      <c r="A54" s="83"/>
       <c r="B54" s="3">
         <v>1052</v>
       </c>
@@ -7245,7 +7253,7 @@
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="86"/>
+      <c r="A55" s="83"/>
       <c r="B55" s="3">
         <v>1053</v>
       </c>
@@ -7261,7 +7269,7 @@
       <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="86"/>
+      <c r="A56" s="83"/>
       <c r="B56" s="3">
         <v>1054</v>
       </c>
@@ -7277,7 +7285,7 @@
       <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="86"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="3">
         <v>1055</v>
       </c>
@@ -7293,7 +7301,7 @@
       <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="86"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="3">
         <v>1056</v>
       </c>
@@ -7309,7 +7317,7 @@
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="86"/>
+      <c r="A59" s="83"/>
       <c r="B59" s="3">
         <v>1057</v>
       </c>
@@ -7325,7 +7333,7 @@
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
+      <c r="A60" s="83"/>
       <c r="B60" s="3">
         <v>1058</v>
       </c>
@@ -7341,7 +7349,7 @@
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="86"/>
+      <c r="A61" s="83"/>
       <c r="B61" s="3">
         <v>1059</v>
       </c>
@@ -7357,7 +7365,7 @@
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="86"/>
+      <c r="A62" s="83"/>
       <c r="B62" s="3">
         <v>1060</v>
       </c>
@@ -7373,7 +7381,7 @@
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="86"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="3">
         <v>1061</v>
       </c>
@@ -7389,7 +7397,7 @@
       <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="86"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="3">
         <v>1062</v>
       </c>
@@ -7405,7 +7413,7 @@
       <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="86"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="3">
         <v>1063</v>
       </c>
@@ -7421,7 +7429,7 @@
       <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="86"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="3">
         <v>1064</v>
       </c>
@@ -7437,7 +7445,7 @@
       <c r="F66" s="46"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="86"/>
+      <c r="A67" s="83"/>
       <c r="B67" s="3">
         <v>1065</v>
       </c>
@@ -7453,7 +7461,7 @@
       <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="86"/>
+      <c r="A68" s="83"/>
       <c r="B68" s="3">
         <v>1066</v>
       </c>
@@ -7469,7 +7477,7 @@
       <c r="F68" s="46"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="86"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="3">
         <v>1067</v>
       </c>
@@ -7485,7 +7493,7 @@
       <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="86"/>
+      <c r="A70" s="83"/>
       <c r="B70" s="3">
         <v>1068</v>
       </c>
@@ -7501,7 +7509,7 @@
       <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="86"/>
+      <c r="A71" s="83"/>
       <c r="B71" s="3">
         <v>1069</v>
       </c>
@@ -7517,7 +7525,7 @@
       <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="86"/>
+      <c r="A72" s="83"/>
       <c r="B72" s="3">
         <v>1070</v>
       </c>
@@ -7533,7 +7541,7 @@
       <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="86"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="3">
         <v>1071</v>
       </c>
@@ -7549,7 +7557,7 @@
       <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="86"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="3">
         <v>1072</v>
       </c>
@@ -7565,7 +7573,7 @@
       <c r="F74" s="46"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="86"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="3">
         <v>1073</v>
       </c>
@@ -7581,7 +7589,7 @@
       <c r="F75" s="46"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="96" t="s">
         <v>829</v>
       </c>
       <c r="B76" s="3">
@@ -7599,7 +7607,7 @@
       <c r="F76" s="46"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="3">
         <v>1201</v>
       </c>
@@ -7615,7 +7623,7 @@
       <c r="F77" s="46"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="91"/>
+      <c r="A78" s="96"/>
       <c r="B78" s="3">
         <v>1202</v>
       </c>
@@ -7631,7 +7639,7 @@
       <c r="F78" s="46"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="91"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="3">
         <v>1203</v>
       </c>
@@ -7647,7 +7655,7 @@
       <c r="F79" s="46"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="91"/>
+      <c r="A80" s="96"/>
       <c r="B80" s="3">
         <v>1204</v>
       </c>
@@ -7663,7 +7671,7 @@
       <c r="F80" s="46"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="91"/>
+      <c r="A81" s="96"/>
       <c r="B81" s="3">
         <v>1205</v>
       </c>
@@ -7679,7 +7687,7 @@
       <c r="F81" s="46"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
+      <c r="A82" s="96"/>
       <c r="B82" s="3">
         <v>1206</v>
       </c>
@@ -7695,7 +7703,7 @@
       <c r="F82" s="46"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="91"/>
+      <c r="A83" s="96"/>
       <c r="B83" s="3">
         <v>1207</v>
       </c>
@@ -7711,7 +7719,7 @@
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="91"/>
+      <c r="A84" s="96"/>
       <c r="B84" s="3">
         <v>1208</v>
       </c>
@@ -7727,7 +7735,7 @@
       <c r="F84" s="46"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="91"/>
+      <c r="A85" s="96"/>
       <c r="B85" s="3">
         <v>1209</v>
       </c>
@@ -7743,7 +7751,7 @@
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="91"/>
+      <c r="A86" s="96"/>
       <c r="B86" s="3">
         <v>1210</v>
       </c>
@@ -7759,7 +7767,7 @@
       <c r="F86" s="46"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="91"/>
+      <c r="A87" s="96"/>
       <c r="B87" s="3">
         <v>1211</v>
       </c>
@@ -7775,7 +7783,7 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="91"/>
+      <c r="A88" s="96"/>
       <c r="B88" s="3">
         <v>1212</v>
       </c>
@@ -7791,7 +7799,7 @@
       <c r="F88" s="46"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="91"/>
+      <c r="A89" s="96"/>
       <c r="B89" s="3">
         <v>1213</v>
       </c>
@@ -7807,7 +7815,7 @@
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="91"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="3">
         <v>1214</v>
       </c>
@@ -7823,7 +7831,7 @@
       <c r="F90" s="46"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="91"/>
+      <c r="A91" s="96"/>
       <c r="B91" s="3">
         <v>1215</v>
       </c>
@@ -7839,7 +7847,7 @@
       <c r="F91" s="46"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="91"/>
+      <c r="A92" s="96"/>
       <c r="B92" s="3">
         <v>1216</v>
       </c>
@@ -7855,7 +7863,7 @@
       <c r="F92" s="46"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="91"/>
+      <c r="A93" s="96"/>
       <c r="B93" s="3">
         <v>1217</v>
       </c>
@@ -7871,7 +7879,7 @@
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="91"/>
+      <c r="A94" s="96"/>
       <c r="B94" s="3">
         <v>1218</v>
       </c>
@@ -7887,7 +7895,7 @@
       <c r="F94" s="46"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="91"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="3">
         <v>1219</v>
       </c>
@@ -7903,7 +7911,7 @@
       <c r="F95" s="46"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="91"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="3">
         <v>1220</v>
       </c>
@@ -7919,7 +7927,7 @@
       <c r="F96" s="46"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="91"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="3">
         <v>1221</v>
       </c>
@@ -7935,7 +7943,7 @@
       <c r="F97" s="46"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="91"/>
+      <c r="A98" s="96"/>
       <c r="B98" s="3">
         <v>1222</v>
       </c>
@@ -7951,7 +7959,7 @@
       <c r="F98" s="46"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="91"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="3">
         <v>1223</v>
       </c>
@@ -7967,7 +7975,7 @@
       <c r="F99" s="46"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="91"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="3">
         <v>1224</v>
       </c>
@@ -7983,7 +7991,7 @@
       <c r="F100" s="46"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="91"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="3">
         <v>1225</v>
       </c>
@@ -7999,7 +8007,7 @@
       <c r="F101" s="46"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="91"/>
+      <c r="A102" s="96"/>
       <c r="B102" s="3">
         <v>1226</v>
       </c>
@@ -8015,7 +8023,7 @@
       <c r="F102" s="46"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="91"/>
+      <c r="A103" s="96"/>
       <c r="B103" s="3">
         <v>1227</v>
       </c>
@@ -8031,7 +8039,7 @@
       <c r="F103" s="46"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="91"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="3">
         <v>1228</v>
       </c>
@@ -8047,7 +8055,7 @@
       <c r="F104" s="46"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="91"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="3">
         <v>1229</v>
       </c>
@@ -8063,7 +8071,7 @@
       <c r="F105" s="46"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="91"/>
+      <c r="A106" s="96"/>
       <c r="B106" s="3">
         <v>1230</v>
       </c>
@@ -8079,7 +8087,7 @@
       <c r="F106" s="46"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="91"/>
+      <c r="A107" s="96"/>
       <c r="B107" s="3">
         <v>1231</v>
       </c>
@@ -8095,7 +8103,7 @@
       <c r="F107" s="46"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="91"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="3">
         <v>1232</v>
       </c>
@@ -8111,7 +8119,7 @@
       <c r="F108" s="46"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="91"/>
+      <c r="A109" s="96"/>
       <c r="B109" s="3">
         <v>1233</v>
       </c>
@@ -8127,7 +8135,7 @@
       <c r="F109" s="46"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="91"/>
+      <c r="A110" s="96"/>
       <c r="B110" s="3">
         <v>1234</v>
       </c>
@@ -8143,7 +8151,7 @@
       <c r="F110" s="46"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="91"/>
+      <c r="A111" s="96"/>
       <c r="B111" s="3">
         <v>1235</v>
       </c>
@@ -8159,7 +8167,7 @@
       <c r="F111" s="46"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="91"/>
+      <c r="A112" s="96"/>
       <c r="B112" s="3">
         <v>1236</v>
       </c>
@@ -8175,7 +8183,7 @@
       <c r="F112" s="46"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="91"/>
+      <c r="A113" s="96"/>
       <c r="B113" s="3">
         <v>1237</v>
       </c>
@@ -8191,7 +8199,7 @@
       <c r="F113" s="46"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="91"/>
+      <c r="A114" s="96"/>
       <c r="B114" s="3">
         <v>1238</v>
       </c>
@@ -8207,7 +8215,7 @@
       <c r="F114" s="46"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="91"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="3">
         <v>1239</v>
       </c>
@@ -8223,7 +8231,7 @@
       <c r="F115" s="46"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="91"/>
+      <c r="A116" s="96"/>
       <c r="B116" s="3">
         <v>1240</v>
       </c>
@@ -8239,7 +8247,7 @@
       <c r="F116" s="46"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="91"/>
+      <c r="A117" s="96"/>
       <c r="B117" s="3">
         <v>1241</v>
       </c>
@@ -8255,7 +8263,7 @@
       <c r="F117" s="46"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="91"/>
+      <c r="A118" s="96"/>
       <c r="B118" s="3">
         <v>1242</v>
       </c>
@@ -8271,7 +8279,7 @@
       <c r="F118" s="46"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="91"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="3">
         <v>1243</v>
       </c>
@@ -8287,7 +8295,7 @@
       <c r="F119" s="46"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="91"/>
+      <c r="A120" s="96"/>
       <c r="B120" s="3">
         <v>1244</v>
       </c>
@@ -8303,7 +8311,7 @@
       <c r="F120" s="46"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="91"/>
+      <c r="A121" s="96"/>
       <c r="B121" s="3">
         <v>1245</v>
       </c>
@@ -8319,7 +8327,7 @@
       <c r="F121" s="46"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="91"/>
+      <c r="A122" s="96"/>
       <c r="B122" s="3">
         <v>1246</v>
       </c>
@@ -8335,7 +8343,7 @@
       <c r="F122" s="46"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="91"/>
+      <c r="A123" s="96"/>
       <c r="B123" s="3">
         <v>1247</v>
       </c>
@@ -8351,7 +8359,7 @@
       <c r="F123" s="46"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="91"/>
+      <c r="A124" s="96"/>
       <c r="B124" s="3">
         <v>1248</v>
       </c>
@@ -8367,7 +8375,7 @@
       <c r="F124" s="46"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="91"/>
+      <c r="A125" s="96"/>
       <c r="B125" s="3">
         <v>1249</v>
       </c>
@@ -8383,7 +8391,7 @@
       <c r="F125" s="46"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="91"/>
+      <c r="A126" s="96"/>
       <c r="B126" s="3">
         <v>1250</v>
       </c>
@@ -8399,7 +8407,7 @@
       <c r="F126" s="46"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="91"/>
+      <c r="A127" s="96"/>
       <c r="B127" s="3">
         <v>1251</v>
       </c>
@@ -8415,7 +8423,7 @@
       <c r="F127" s="46"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="91"/>
+      <c r="A128" s="96"/>
       <c r="B128" s="3">
         <v>1252</v>
       </c>
@@ -8431,7 +8439,7 @@
       <c r="F128" s="46"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="91"/>
+      <c r="A129" s="96"/>
       <c r="B129" s="3">
         <v>1253</v>
       </c>
@@ -8447,7 +8455,7 @@
       <c r="F129" s="46"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="91"/>
+      <c r="A130" s="96"/>
       <c r="B130" s="3">
         <v>1254</v>
       </c>
@@ -8463,7 +8471,7 @@
       <c r="F130" s="46"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="91"/>
+      <c r="A131" s="96"/>
       <c r="B131" s="3">
         <v>1255</v>
       </c>
@@ -8479,7 +8487,7 @@
       <c r="F131" s="46"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="91"/>
+      <c r="A132" s="96"/>
       <c r="B132" s="3">
         <v>1256</v>
       </c>
@@ -8495,7 +8503,7 @@
       <c r="F132" s="46"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="91"/>
+      <c r="A133" s="96"/>
       <c r="B133" s="3">
         <v>1257</v>
       </c>
@@ -8511,7 +8519,7 @@
       <c r="F133" s="46"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="91"/>
+      <c r="A134" s="96"/>
       <c r="B134" s="3">
         <v>1258</v>
       </c>
@@ -8527,7 +8535,7 @@
       <c r="F134" s="46"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="91"/>
+      <c r="A135" s="96"/>
       <c r="B135" s="3">
         <v>1259</v>
       </c>
@@ -8543,7 +8551,7 @@
       <c r="F135" s="46"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="91"/>
+      <c r="A136" s="96"/>
       <c r="B136" s="3">
         <v>1260</v>
       </c>
@@ -8559,7 +8567,7 @@
       <c r="F136" s="46"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="91"/>
+      <c r="A137" s="96"/>
       <c r="B137" s="3">
         <v>1261</v>
       </c>
@@ -8575,7 +8583,7 @@
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="91"/>
+      <c r="A138" s="96"/>
       <c r="B138" s="3">
         <v>1262</v>
       </c>
@@ -8591,7 +8599,7 @@
       <c r="F138" s="46"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="91"/>
+      <c r="A139" s="96"/>
       <c r="B139" s="3">
         <v>1263</v>
       </c>
@@ -8607,7 +8615,7 @@
       <c r="F139" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="91"/>
+      <c r="A140" s="96"/>
       <c r="B140" s="3">
         <v>1264</v>
       </c>
@@ -8623,7 +8631,7 @@
       <c r="F140" s="46"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="91"/>
+      <c r="A141" s="96"/>
       <c r="B141" s="3">
         <v>1265</v>
       </c>
@@ -8639,7 +8647,7 @@
       <c r="F141" s="46"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="91"/>
+      <c r="A142" s="96"/>
       <c r="B142" s="3">
         <v>1266</v>
       </c>
@@ -8655,7 +8663,7 @@
       <c r="F142" s="46"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="91"/>
+      <c r="A143" s="96"/>
       <c r="B143" s="3">
         <v>1267</v>
       </c>
@@ -8671,7 +8679,7 @@
       <c r="F143" s="46"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="91"/>
+      <c r="A144" s="96"/>
       <c r="B144" s="3">
         <v>1268</v>
       </c>
@@ -8687,7 +8695,7 @@
       <c r="F144" s="46"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="91"/>
+      <c r="A145" s="96"/>
       <c r="B145" s="3">
         <v>1269</v>
       </c>
@@ -8703,7 +8711,7 @@
       <c r="F145" s="46"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="91" t="s">
+      <c r="A146" s="96" t="s">
         <v>830</v>
       </c>
       <c r="B146" s="3">
@@ -8721,7 +8729,7 @@
       <c r="F146" s="46"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="91"/>
+      <c r="A147" s="96"/>
       <c r="B147" s="3">
         <v>1401</v>
       </c>
@@ -8737,7 +8745,7 @@
       <c r="F147" s="46"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="91"/>
+      <c r="A148" s="96"/>
       <c r="B148" s="3">
         <v>1402</v>
       </c>
@@ -8753,7 +8761,7 @@
       <c r="F148" s="46"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="91"/>
+      <c r="A149" s="96"/>
       <c r="B149" s="3">
         <v>1403</v>
       </c>
@@ -8769,7 +8777,7 @@
       <c r="F149" s="46"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="91"/>
+      <c r="A150" s="96"/>
       <c r="B150" s="3">
         <v>1404</v>
       </c>
@@ -8785,7 +8793,7 @@
       <c r="F150" s="46"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="91"/>
+      <c r="A151" s="96"/>
       <c r="B151" s="3">
         <v>1405</v>
       </c>
@@ -8801,7 +8809,7 @@
       <c r="F151" s="46"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="91"/>
+      <c r="A152" s="96"/>
       <c r="B152" s="3">
         <v>1406</v>
       </c>
@@ -8817,7 +8825,7 @@
       <c r="F152" s="46"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="91"/>
+      <c r="A153" s="96"/>
       <c r="B153" s="3">
         <v>1407</v>
       </c>
@@ -8833,7 +8841,7 @@
       <c r="F153" s="46"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="91"/>
+      <c r="A154" s="96"/>
       <c r="B154" s="3">
         <v>1408</v>
       </c>
@@ -8849,7 +8857,7 @@
       <c r="F154" s="46"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="91"/>
+      <c r="A155" s="96"/>
       <c r="B155" s="3">
         <v>1409</v>
       </c>
@@ -8865,7 +8873,7 @@
       <c r="F155" s="46"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="91"/>
+      <c r="A156" s="96"/>
       <c r="B156" s="3">
         <v>1410</v>
       </c>
@@ -8881,7 +8889,7 @@
       <c r="F156" s="46"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="91"/>
+      <c r="A157" s="96"/>
       <c r="B157" s="3">
         <v>1411</v>
       </c>
@@ -8897,7 +8905,7 @@
       <c r="F157" s="46"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="91"/>
+      <c r="A158" s="96"/>
       <c r="B158" s="3">
         <v>1412</v>
       </c>
@@ -8913,7 +8921,7 @@
       <c r="F158" s="46"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="91"/>
+      <c r="A159" s="96"/>
       <c r="B159" s="3">
         <v>1413</v>
       </c>
@@ -8929,7 +8937,7 @@
       <c r="F159" s="46"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="91"/>
+      <c r="A160" s="96"/>
       <c r="B160" s="3">
         <v>1414</v>
       </c>
@@ -8945,7 +8953,7 @@
       <c r="F160" s="46"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="91"/>
+      <c r="A161" s="96"/>
       <c r="B161" s="3">
         <v>1415</v>
       </c>
@@ -8961,7 +8969,7 @@
       <c r="F161" s="46"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="91"/>
+      <c r="A162" s="96"/>
       <c r="B162" s="3">
         <v>1416</v>
       </c>
@@ -8977,7 +8985,7 @@
       <c r="F162" s="46"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="91"/>
+      <c r="A163" s="96"/>
       <c r="B163" s="3">
         <v>1417</v>
       </c>
@@ -8993,7 +9001,7 @@
       <c r="F163" s="46"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="91"/>
+      <c r="A164" s="96"/>
       <c r="B164" s="3">
         <v>1418</v>
       </c>
@@ -9009,7 +9017,7 @@
       <c r="F164" s="46"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="91"/>
+      <c r="A165" s="96"/>
       <c r="B165" s="3">
         <v>1419</v>
       </c>
@@ -9025,7 +9033,7 @@
       <c r="F165" s="46"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="91"/>
+      <c r="A166" s="96"/>
       <c r="B166" s="3">
         <v>1420</v>
       </c>
@@ -9041,7 +9049,7 @@
       <c r="F166" s="46"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="91"/>
+      <c r="A167" s="96"/>
       <c r="B167" s="3">
         <v>1421</v>
       </c>
@@ -9057,7 +9065,7 @@
       <c r="F167" s="46"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="91"/>
+      <c r="A168" s="96"/>
       <c r="B168" s="3">
         <v>1422</v>
       </c>
@@ -9073,7 +9081,7 @@
       <c r="F168" s="46"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="91"/>
+      <c r="A169" s="96"/>
       <c r="B169" s="3">
         <v>1423</v>
       </c>
@@ -9089,7 +9097,7 @@
       <c r="F169" s="46"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="91"/>
+      <c r="A170" s="96"/>
       <c r="B170" s="3">
         <v>1424</v>
       </c>
@@ -9105,7 +9113,7 @@
       <c r="F170" s="46"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="91"/>
+      <c r="A171" s="96"/>
       <c r="B171" s="3">
         <v>1425</v>
       </c>
@@ -9121,7 +9129,7 @@
       <c r="F171" s="46"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="91"/>
+      <c r="A172" s="96"/>
       <c r="B172" s="3">
         <v>1426</v>
       </c>
@@ -9137,7 +9145,7 @@
       <c r="F172" s="46"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="91"/>
+      <c r="A173" s="96"/>
       <c r="B173" s="3">
         <v>1427</v>
       </c>
@@ -9153,7 +9161,7 @@
       <c r="F173" s="46"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="91"/>
+      <c r="A174" s="96"/>
       <c r="B174" s="3">
         <v>1428</v>
       </c>
@@ -9169,7 +9177,7 @@
       <c r="F174" s="46"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="91"/>
+      <c r="A175" s="96"/>
       <c r="B175" s="3">
         <v>1429</v>
       </c>
@@ -9185,7 +9193,7 @@
       <c r="F175" s="46"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="91"/>
+      <c r="A176" s="96"/>
       <c r="B176" s="3">
         <v>1430</v>
       </c>
@@ -9201,7 +9209,7 @@
       <c r="F176" s="46"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="91"/>
+      <c r="A177" s="96"/>
       <c r="B177" s="3">
         <v>1431</v>
       </c>
@@ -9217,7 +9225,7 @@
       <c r="F177" s="46"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="91"/>
+      <c r="A178" s="96"/>
       <c r="B178" s="3">
         <v>1432</v>
       </c>
@@ -9233,7 +9241,7 @@
       <c r="F178" s="46"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="91"/>
+      <c r="A179" s="96"/>
       <c r="B179" s="3">
         <v>1433</v>
       </c>
@@ -9249,7 +9257,7 @@
       <c r="F179" s="46"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="91"/>
+      <c r="A180" s="96"/>
       <c r="B180" s="3">
         <v>1434</v>
       </c>
@@ -9265,7 +9273,7 @@
       <c r="F180" s="46"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="91"/>
+      <c r="A181" s="96"/>
       <c r="B181" s="3">
         <v>1435</v>
       </c>
@@ -9281,7 +9289,7 @@
       <c r="F181" s="46"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="91"/>
+      <c r="A182" s="96"/>
       <c r="B182" s="3">
         <v>1436</v>
       </c>
@@ -9297,7 +9305,7 @@
       <c r="F182" s="46"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="91"/>
+      <c r="A183" s="96"/>
       <c r="B183" s="3">
         <v>1437</v>
       </c>
@@ -9313,7 +9321,7 @@
       <c r="F183" s="46"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="91"/>
+      <c r="A184" s="96"/>
       <c r="B184" s="3">
         <v>1438</v>
       </c>
@@ -9329,7 +9337,7 @@
       <c r="F184" s="46"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="91"/>
+      <c r="A185" s="96"/>
       <c r="B185" s="3">
         <v>1439</v>
       </c>
@@ -9345,7 +9353,7 @@
       <c r="F185" s="46"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="91"/>
+      <c r="A186" s="96"/>
       <c r="B186" s="3">
         <v>1440</v>
       </c>
@@ -9361,7 +9369,7 @@
       <c r="F186" s="46"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="91"/>
+      <c r="A187" s="96"/>
       <c r="B187" s="3">
         <v>1441</v>
       </c>
@@ -9377,7 +9385,7 @@
       <c r="F187" s="46"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="91"/>
+      <c r="A188" s="96"/>
       <c r="B188" s="3">
         <v>1442</v>
       </c>
@@ -9393,7 +9401,7 @@
       <c r="F188" s="46"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="91"/>
+      <c r="A189" s="96"/>
       <c r="B189" s="3">
         <v>1443</v>
       </c>
@@ -9409,7 +9417,7 @@
       <c r="F189" s="46"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="91"/>
+      <c r="A190" s="96"/>
       <c r="B190" s="3">
         <v>1444</v>
       </c>
@@ -9425,7 +9433,7 @@
       <c r="F190" s="46"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="91"/>
+      <c r="A191" s="96"/>
       <c r="B191" s="3">
         <v>1445</v>
       </c>
@@ -9441,7 +9449,7 @@
       <c r="F191" s="46"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="91"/>
+      <c r="A192" s="96"/>
       <c r="B192" s="3">
         <v>1446</v>
       </c>
@@ -9457,7 +9465,7 @@
       <c r="F192" s="46"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="91"/>
+      <c r="A193" s="96"/>
       <c r="B193" s="3">
         <v>1447</v>
       </c>
@@ -9473,7 +9481,7 @@
       <c r="F193" s="46"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="91"/>
+      <c r="A194" s="96"/>
       <c r="B194" s="3">
         <v>1448</v>
       </c>
@@ -9489,7 +9497,7 @@
       <c r="F194" s="46"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="91"/>
+      <c r="A195" s="96"/>
       <c r="B195" s="3">
         <v>1449</v>
       </c>
@@ -9505,7 +9513,7 @@
       <c r="F195" s="46"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="91"/>
+      <c r="A196" s="96"/>
       <c r="B196" s="3">
         <v>1450</v>
       </c>
@@ -9521,7 +9529,7 @@
       <c r="F196" s="46"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="91"/>
+      <c r="A197" s="96"/>
       <c r="B197" s="3">
         <v>1451</v>
       </c>
@@ -9537,7 +9545,7 @@
       <c r="F197" s="46"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="91"/>
+      <c r="A198" s="96"/>
       <c r="B198" s="3">
         <v>1452</v>
       </c>
@@ -9553,7 +9561,7 @@
       <c r="F198" s="46"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="91"/>
+      <c r="A199" s="96"/>
       <c r="B199" s="3">
         <v>1453</v>
       </c>
@@ -9569,7 +9577,7 @@
       <c r="F199" s="46"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="91"/>
+      <c r="A200" s="96"/>
       <c r="B200" s="3">
         <v>1454</v>
       </c>
@@ -9585,7 +9593,7 @@
       <c r="F200" s="46"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="91"/>
+      <c r="A201" s="96"/>
       <c r="B201" s="3">
         <v>1455</v>
       </c>
@@ -9601,7 +9609,7 @@
       <c r="F201" s="46"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="91"/>
+      <c r="A202" s="96"/>
       <c r="B202" s="3">
         <v>1456</v>
       </c>
@@ -9617,7 +9625,7 @@
       <c r="F202" s="46"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="91"/>
+      <c r="A203" s="96"/>
       <c r="B203" s="3">
         <v>1457</v>
       </c>
@@ -9633,7 +9641,7 @@
       <c r="F203" s="46"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="91"/>
+      <c r="A204" s="96"/>
       <c r="B204" s="3">
         <v>1458</v>
       </c>
@@ -9649,7 +9657,7 @@
       <c r="F204" s="46"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="91"/>
+      <c r="A205" s="96"/>
       <c r="B205" s="3">
         <v>1459</v>
       </c>
@@ -9665,7 +9673,7 @@
       <c r="F205" s="46"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="91"/>
+      <c r="A206" s="96"/>
       <c r="B206" s="3">
         <v>1460</v>
       </c>
@@ -9681,7 +9689,7 @@
       <c r="F206" s="46"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="91"/>
+      <c r="A207" s="96"/>
       <c r="B207" s="3">
         <v>1461</v>
       </c>
@@ -9697,7 +9705,7 @@
       <c r="F207" s="46"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="91"/>
+      <c r="A208" s="96"/>
       <c r="B208" s="3">
         <v>1462</v>
       </c>
@@ -9713,7 +9721,7 @@
       <c r="F208" s="46"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="91"/>
+      <c r="A209" s="96"/>
       <c r="B209" s="3">
         <v>1463</v>
       </c>
@@ -9729,7 +9737,7 @@
       <c r="F209" s="46"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="91"/>
+      <c r="A210" s="96"/>
       <c r="B210" s="3">
         <v>1464</v>
       </c>
@@ -9745,7 +9753,7 @@
       <c r="F210" s="46"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="91"/>
+      <c r="A211" s="96"/>
       <c r="B211" s="3">
         <v>1465</v>
       </c>
@@ -9761,7 +9769,7 @@
       <c r="F211" s="46"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="91"/>
+      <c r="A212" s="96"/>
       <c r="B212" s="3">
         <v>1466</v>
       </c>
@@ -9777,7 +9785,7 @@
       <c r="F212" s="46"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="91"/>
+      <c r="A213" s="96"/>
       <c r="B213" s="3">
         <v>1467</v>
       </c>
@@ -9793,7 +9801,7 @@
       <c r="F213" s="46"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="91"/>
+      <c r="A214" s="96"/>
       <c r="B214" s="3">
         <v>1468</v>
       </c>
@@ -9809,7 +9817,7 @@
       <c r="F214" s="46"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="91"/>
+      <c r="A215" s="96"/>
       <c r="B215" s="3">
         <v>1469</v>
       </c>
@@ -9825,7 +9833,7 @@
       <c r="F215" s="46"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="91"/>
+      <c r="A216" s="96"/>
       <c r="B216" s="3">
         <v>1470</v>
       </c>
@@ -9841,7 +9849,7 @@
       <c r="F216" s="46"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="91"/>
+      <c r="A217" s="96"/>
       <c r="B217" s="3">
         <v>1471</v>
       </c>
@@ -9857,7 +9865,7 @@
       <c r="F217" s="46"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="91"/>
+      <c r="A218" s="96"/>
       <c r="B218" s="3">
         <v>1472</v>
       </c>
@@ -9873,7 +9881,7 @@
       <c r="F218" s="46"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="91"/>
+      <c r="A219" s="96"/>
       <c r="B219" s="3">
         <v>1473</v>
       </c>
@@ -9889,7 +9897,7 @@
       <c r="F219" s="46"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="91"/>
+      <c r="A220" s="96"/>
       <c r="B220" s="3">
         <v>1474</v>
       </c>
@@ -9905,7 +9913,7 @@
       <c r="F220" s="46"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="91"/>
+      <c r="A221" s="96"/>
       <c r="B221" s="3">
         <v>1475</v>
       </c>
@@ -9921,7 +9929,7 @@
       <c r="F221" s="46"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="91"/>
+      <c r="A222" s="96"/>
       <c r="B222" s="3">
         <v>1476</v>
       </c>
@@ -9937,7 +9945,7 @@
       <c r="F222" s="46"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="91"/>
+      <c r="A223" s="96"/>
       <c r="B223" s="3">
         <v>1477</v>
       </c>
@@ -9953,7 +9961,7 @@
       <c r="F223" s="46"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="91"/>
+      <c r="A224" s="96"/>
       <c r="B224" s="3">
         <v>1478</v>
       </c>
@@ -9969,7 +9977,7 @@
       <c r="F224" s="46"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="91"/>
+      <c r="A225" s="96"/>
       <c r="B225" s="3">
         <v>1479</v>
       </c>
@@ -9985,7 +9993,7 @@
       <c r="F225" s="46"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="91"/>
+      <c r="A226" s="96"/>
       <c r="B226" s="3">
         <v>1480</v>
       </c>
@@ -10001,7 +10009,7 @@
       <c r="F226" s="46"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="91"/>
+      <c r="A227" s="96"/>
       <c r="B227" s="3">
         <v>1481</v>
       </c>
@@ -10017,7 +10025,7 @@
       <c r="F227" s="46"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="91"/>
+      <c r="A228" s="96"/>
       <c r="B228" s="3">
         <v>1482</v>
       </c>
@@ -10033,7 +10041,7 @@
       <c r="F228" s="46"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="91"/>
+      <c r="A229" s="96"/>
       <c r="B229" s="3">
         <v>1483</v>
       </c>
@@ -10049,7 +10057,7 @@
       <c r="F229" s="46"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="91"/>
+      <c r="A230" s="96"/>
       <c r="B230" s="3">
         <v>1484</v>
       </c>
@@ -10065,7 +10073,7 @@
       <c r="F230" s="46"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="91"/>
+      <c r="A231" s="96"/>
       <c r="B231" s="3">
         <v>1485</v>
       </c>
@@ -10081,7 +10089,7 @@
       <c r="F231" s="46"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="91"/>
+      <c r="A232" s="96"/>
       <c r="B232" s="3">
         <v>1486</v>
       </c>
@@ -10097,7 +10105,7 @@
       <c r="F232" s="46"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="91"/>
+      <c r="A233" s="96"/>
       <c r="B233" s="3">
         <v>1487</v>
       </c>
@@ -10113,7 +10121,7 @@
       <c r="F233" s="46"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="91"/>
+      <c r="A234" s="96"/>
       <c r="B234" s="3">
         <v>1488</v>
       </c>
@@ -10129,7 +10137,7 @@
       <c r="F234" s="46"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="91"/>
+      <c r="A235" s="96"/>
       <c r="B235" s="3">
         <v>1489</v>
       </c>
@@ -10145,7 +10153,7 @@
       <c r="F235" s="46"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="91"/>
+      <c r="A236" s="96"/>
       <c r="B236" s="3">
         <v>1490</v>
       </c>
@@ -10161,7 +10169,7 @@
       <c r="F236" s="46"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="91"/>
+      <c r="A237" s="96"/>
       <c r="B237" s="3">
         <v>1491</v>
       </c>
@@ -10177,7 +10185,7 @@
       <c r="F237" s="46"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="91"/>
+      <c r="A238" s="96"/>
       <c r="B238" s="3">
         <v>1492</v>
       </c>
@@ -10193,7 +10201,7 @@
       <c r="F238" s="46"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="91"/>
+      <c r="A239" s="96"/>
       <c r="B239" s="3">
         <v>1493</v>
       </c>
@@ -10209,7 +10217,7 @@
       <c r="F239" s="46"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="91"/>
+      <c r="A240" s="96"/>
       <c r="B240" s="3">
         <v>1494</v>
       </c>
@@ -10225,7 +10233,7 @@
       <c r="F240" s="46"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="91"/>
+      <c r="A241" s="96"/>
       <c r="B241" s="3">
         <v>1495</v>
       </c>
@@ -10241,7 +10249,7 @@
       <c r="F241" s="46"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="91"/>
+      <c r="A242" s="96"/>
       <c r="B242" s="3">
         <v>1496</v>
       </c>
@@ -10257,7 +10265,7 @@
       <c r="F242" s="46"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="91"/>
+      <c r="A243" s="96"/>
       <c r="B243" s="3">
         <v>1497</v>
       </c>
@@ -10273,7 +10281,7 @@
       <c r="F243" s="46"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="91"/>
+      <c r="A244" s="96"/>
       <c r="B244" s="3">
         <v>1498</v>
       </c>
@@ -10289,7 +10297,7 @@
       <c r="F244" s="46"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="91"/>
+      <c r="A245" s="96"/>
       <c r="B245" s="3">
         <v>1499</v>
       </c>
@@ -10305,7 +10313,7 @@
       <c r="F245" s="46"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="91"/>
+      <c r="A246" s="96"/>
       <c r="B246" s="3">
         <v>1500</v>
       </c>
@@ -10321,7 +10329,7 @@
       <c r="F246" s="46"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="91"/>
+      <c r="A247" s="96"/>
       <c r="B247" s="3">
         <v>1501</v>
       </c>
@@ -10337,7 +10345,7 @@
       <c r="F247" s="46"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="91"/>
+      <c r="A248" s="96"/>
       <c r="B248" s="3">
         <v>1502</v>
       </c>
@@ -10353,7 +10361,7 @@
       <c r="F248" s="46"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="91"/>
+      <c r="A249" s="96"/>
       <c r="B249" s="3">
         <v>1503</v>
       </c>
@@ -10369,7 +10377,7 @@
       <c r="F249" s="46"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="91"/>
+      <c r="A250" s="96"/>
       <c r="B250" s="3">
         <v>1504</v>
       </c>
@@ -10385,7 +10393,7 @@
       <c r="F250" s="46"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="91"/>
+      <c r="A251" s="96"/>
       <c r="B251" s="3">
         <v>1505</v>
       </c>
@@ -10401,7 +10409,7 @@
       <c r="F251" s="46"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="91"/>
+      <c r="A252" s="96"/>
       <c r="B252" s="3">
         <v>1506</v>
       </c>
@@ -10417,7 +10425,7 @@
       <c r="F252" s="46"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="91"/>
+      <c r="A253" s="96"/>
       <c r="B253" s="3">
         <v>1507</v>
       </c>
@@ -10433,7 +10441,7 @@
       <c r="F253" s="46"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="91"/>
+      <c r="A254" s="96"/>
       <c r="B254" s="3">
         <v>1508</v>
       </c>
@@ -10449,7 +10457,7 @@
       <c r="F254" s="46"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="91"/>
+      <c r="A255" s="96"/>
       <c r="B255" s="3">
         <v>1509</v>
       </c>
@@ -10465,7 +10473,7 @@
       <c r="F255" s="46"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="91"/>
+      <c r="A256" s="96"/>
       <c r="B256" s="3">
         <v>1510</v>
       </c>
@@ -10481,7 +10489,7 @@
       <c r="F256" s="46"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="91"/>
+      <c r="A257" s="96"/>
       <c r="B257" s="3">
         <v>1511</v>
       </c>
@@ -10497,7 +10505,7 @@
       <c r="F257" s="46"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="91"/>
+      <c r="A258" s="96"/>
       <c r="B258" s="3">
         <v>1512</v>
       </c>
@@ -10513,7 +10521,7 @@
       <c r="F258" s="46"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="91"/>
+      <c r="A259" s="96"/>
       <c r="B259" s="3">
         <v>1513</v>
       </c>
@@ -10529,7 +10537,7 @@
       <c r="F259" s="46"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="91"/>
+      <c r="A260" s="96"/>
       <c r="B260" s="3">
         <v>1514</v>
       </c>
@@ -10545,7 +10553,7 @@
       <c r="F260" s="46"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="91"/>
+      <c r="A261" s="96"/>
       <c r="B261" s="3">
         <v>1515</v>
       </c>
@@ -10561,7 +10569,7 @@
       <c r="F261" s="46"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="91"/>
+      <c r="A262" s="96"/>
       <c r="B262" s="3">
         <v>1516</v>
       </c>
@@ -10577,7 +10585,7 @@
       <c r="F262" s="46"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="91"/>
+      <c r="A263" s="96"/>
       <c r="B263" s="3">
         <v>1517</v>
       </c>
@@ -10593,7 +10601,7 @@
       <c r="F263" s="46"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="91"/>
+      <c r="A264" s="96"/>
       <c r="B264" s="3">
         <v>1518</v>
       </c>
@@ -10609,7 +10617,7 @@
       <c r="F264" s="46"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="91"/>
+      <c r="A265" s="96"/>
       <c r="B265" s="3">
         <v>1519</v>
       </c>
@@ -10625,7 +10633,7 @@
       <c r="F265" s="46"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="91"/>
+      <c r="A266" s="96"/>
       <c r="B266" s="3">
         <v>1520</v>
       </c>
@@ -10641,7 +10649,7 @@
       <c r="F266" s="46"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="91"/>
+      <c r="A267" s="96"/>
       <c r="B267" s="3">
         <v>1521</v>
       </c>
@@ -10657,7 +10665,7 @@
       <c r="F267" s="46"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="91"/>
+      <c r="A268" s="96"/>
       <c r="B268" s="3">
         <v>1522</v>
       </c>
@@ -10673,7 +10681,7 @@
       <c r="F268" s="46"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="91"/>
+      <c r="A269" s="96"/>
       <c r="B269" s="3">
         <v>1523</v>
       </c>
@@ -10689,7 +10697,7 @@
       <c r="F269" s="46"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="91"/>
+      <c r="A270" s="96"/>
       <c r="B270" s="3">
         <v>1524</v>
       </c>
@@ -10705,7 +10713,7 @@
       <c r="F270" s="46"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="91"/>
+      <c r="A271" s="96"/>
       <c r="B271" s="3">
         <v>1525</v>
       </c>
@@ -10721,7 +10729,7 @@
       <c r="F271" s="46"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="91"/>
+      <c r="A272" s="96"/>
       <c r="B272" s="3">
         <v>1526</v>
       </c>
@@ -10737,7 +10745,7 @@
       <c r="F272" s="46"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="91"/>
+      <c r="A273" s="96"/>
       <c r="B273" s="3">
         <v>1527</v>
       </c>
@@ -10753,7 +10761,7 @@
       <c r="F273" s="46"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="91"/>
+      <c r="A274" s="96"/>
       <c r="B274" s="3">
         <v>1528</v>
       </c>
@@ -10769,7 +10777,7 @@
       <c r="F274" s="46"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="91"/>
+      <c r="A275" s="96"/>
       <c r="B275" s="3">
         <v>1529</v>
       </c>
@@ -10785,7 +10793,7 @@
       <c r="F275" s="46"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="91"/>
+      <c r="A276" s="96"/>
       <c r="B276" s="3">
         <v>1530</v>
       </c>
@@ -10801,7 +10809,7 @@
       <c r="F276" s="46"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="91"/>
+      <c r="A277" s="96"/>
       <c r="B277" s="3">
         <v>1531</v>
       </c>
@@ -10817,7 +10825,7 @@
       <c r="F277" s="46"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="91"/>
+      <c r="A278" s="96"/>
       <c r="B278" s="3">
         <v>1532</v>
       </c>
@@ -10833,7 +10841,7 @@
       <c r="F278" s="46"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="91"/>
+      <c r="A279" s="96"/>
       <c r="B279" s="3">
         <v>1533</v>
       </c>
@@ -10849,7 +10857,7 @@
       <c r="F279" s="46"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="91"/>
+      <c r="A280" s="96"/>
       <c r="B280" s="3">
         <v>1534</v>
       </c>
@@ -10865,7 +10873,7 @@
       <c r="F280" s="46"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="91"/>
+      <c r="A281" s="96"/>
       <c r="B281" s="3">
         <v>1535</v>
       </c>
@@ -10881,7 +10889,7 @@
       <c r="F281" s="46"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="91"/>
+      <c r="A282" s="96"/>
       <c r="B282" s="3">
         <v>1536</v>
       </c>
@@ -10897,7 +10905,7 @@
       <c r="F282" s="46"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="91"/>
+      <c r="A283" s="96"/>
       <c r="B283" s="3">
         <v>1537</v>
       </c>
@@ -10913,7 +10921,7 @@
       <c r="F283" s="46"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="91"/>
+      <c r="A284" s="96"/>
       <c r="B284" s="3">
         <v>1538</v>
       </c>
@@ -10929,7 +10937,7 @@
       <c r="F284" s="46"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="91"/>
+      <c r="A285" s="96"/>
       <c r="B285" s="3">
         <v>1539</v>
       </c>
@@ -10945,7 +10953,7 @@
       <c r="F285" s="46"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="91"/>
+      <c r="A286" s="96"/>
       <c r="B286" s="3">
         <v>1540</v>
       </c>
@@ -10961,7 +10969,7 @@
       <c r="F286" s="46"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="91"/>
+      <c r="A287" s="96"/>
       <c r="B287" s="3">
         <v>1541</v>
       </c>
@@ -10977,7 +10985,7 @@
       <c r="F287" s="46"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="91"/>
+      <c r="A288" s="96"/>
       <c r="B288" s="3">
         <v>1542</v>
       </c>
@@ -10993,7 +11001,7 @@
       <c r="F288" s="46"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="91"/>
+      <c r="A289" s="96"/>
       <c r="B289" s="3">
         <v>1543</v>
       </c>
@@ -11009,7 +11017,7 @@
       <c r="F289" s="46"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="91"/>
+      <c r="A290" s="96"/>
       <c r="B290" s="3">
         <v>1544</v>
       </c>
@@ -11025,7 +11033,7 @@
       <c r="F290" s="46"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="91"/>
+      <c r="A291" s="96"/>
       <c r="B291" s="3">
         <v>1545</v>
       </c>
@@ -11041,7 +11049,7 @@
       <c r="F291" s="46"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="91"/>
+      <c r="A292" s="96"/>
       <c r="B292" s="3">
         <v>1546</v>
       </c>
@@ -11057,7 +11065,7 @@
       <c r="F292" s="46"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="91"/>
+      <c r="A293" s="96"/>
       <c r="B293" s="3">
         <v>1547</v>
       </c>
@@ -11073,7 +11081,7 @@
       <c r="F293" s="46"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="91"/>
+      <c r="A294" s="96"/>
       <c r="B294" s="3">
         <v>1548</v>
       </c>
@@ -11089,7 +11097,7 @@
       <c r="F294" s="46"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="91"/>
+      <c r="A295" s="96"/>
       <c r="B295" s="3">
         <v>1549</v>
       </c>
@@ -11105,7 +11113,7 @@
       <c r="F295" s="46"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="91"/>
+      <c r="A296" s="96"/>
       <c r="B296" s="3">
         <v>1550</v>
       </c>
@@ -11121,7 +11129,7 @@
       <c r="F296" s="46"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="91"/>
+      <c r="A297" s="96"/>
       <c r="B297" s="3">
         <v>1551</v>
       </c>
@@ -11137,7 +11145,7 @@
       <c r="F297" s="46"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="91"/>
+      <c r="A298" s="96"/>
       <c r="B298" s="3">
         <v>1552</v>
       </c>
@@ -11153,7 +11161,7 @@
       <c r="F298" s="46"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="91"/>
+      <c r="A299" s="96"/>
       <c r="B299" s="3">
         <v>1553</v>
       </c>
@@ -11169,7 +11177,7 @@
       <c r="F299" s="46"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="91"/>
+      <c r="A300" s="96"/>
       <c r="B300" s="3">
         <v>1554</v>
       </c>
@@ -11185,7 +11193,7 @@
       <c r="F300" s="46"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="91"/>
+      <c r="A301" s="96"/>
       <c r="B301" s="3">
         <v>1555</v>
       </c>
@@ -11201,7 +11209,7 @@
       <c r="F301" s="46"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="91"/>
+      <c r="A302" s="96"/>
       <c r="B302" s="3">
         <v>1556</v>
       </c>
@@ -11217,7 +11225,7 @@
       <c r="F302" s="46"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="91"/>
+      <c r="A303" s="96"/>
       <c r="B303" s="3">
         <v>1557</v>
       </c>
@@ -11233,7 +11241,7 @@
       <c r="F303" s="46"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="91"/>
+      <c r="A304" s="96"/>
       <c r="B304" s="3">
         <v>1558</v>
       </c>
@@ -11249,7 +11257,7 @@
       <c r="F304" s="46"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="91"/>
+      <c r="A305" s="96"/>
       <c r="B305" s="3">
         <v>1559</v>
       </c>
@@ -11265,7 +11273,7 @@
       <c r="F305" s="46"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="91"/>
+      <c r="A306" s="96"/>
       <c r="B306" s="3">
         <v>1560</v>
       </c>
@@ -11281,7 +11289,7 @@
       <c r="F306" s="46"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="91"/>
+      <c r="A307" s="96"/>
       <c r="B307" s="3">
         <v>1561</v>
       </c>
@@ -11297,7 +11305,7 @@
       <c r="F307" s="46"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="91"/>
+      <c r="A308" s="96"/>
       <c r="B308" s="3">
         <v>1562</v>
       </c>
@@ -11313,7 +11321,7 @@
       <c r="F308" s="46"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="91"/>
+      <c r="A309" s="96"/>
       <c r="B309" s="3">
         <v>1563</v>
       </c>
@@ -11329,7 +11337,7 @@
       <c r="F309" s="46"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="91"/>
+      <c r="A310" s="96"/>
       <c r="B310" s="3">
         <v>1564</v>
       </c>
@@ -11345,7 +11353,7 @@
       <c r="F310" s="46"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="91"/>
+      <c r="A311" s="96"/>
       <c r="B311" s="3">
         <v>1565</v>
       </c>
@@ -11361,7 +11369,7 @@
       <c r="F311" s="46"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="91"/>
+      <c r="A312" s="96"/>
       <c r="B312" s="3">
         <v>1566</v>
       </c>
@@ -11377,7 +11385,7 @@
       <c r="F312" s="46"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="91"/>
+      <c r="A313" s="96"/>
       <c r="B313" s="3">
         <v>1567</v>
       </c>
@@ -11393,7 +11401,7 @@
       <c r="F313" s="46"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="91"/>
+      <c r="A314" s="96"/>
       <c r="B314" s="3">
         <v>1568</v>
       </c>
@@ -11409,7 +11417,7 @@
       <c r="F314" s="46"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="91"/>
+      <c r="A315" s="96"/>
       <c r="B315" s="3">
         <v>1569</v>
       </c>
@@ -11425,7 +11433,7 @@
       <c r="F315" s="46"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="91"/>
+      <c r="A316" s="96"/>
       <c r="B316" s="3">
         <v>1570</v>
       </c>
@@ -11441,7 +11449,7 @@
       <c r="F316" s="46"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="91"/>
+      <c r="A317" s="96"/>
       <c r="B317" s="3">
         <v>1571</v>
       </c>
@@ -11457,7 +11465,7 @@
       <c r="F317" s="46"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="91"/>
+      <c r="A318" s="96"/>
       <c r="B318" s="3">
         <v>1572</v>
       </c>
@@ -11473,7 +11481,7 @@
       <c r="F318" s="56"/>
     </row>
     <row r="319" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A319" s="91" t="s">
+      <c r="A319" s="96" t="s">
         <v>810</v>
       </c>
       <c r="B319" s="47">
@@ -11491,7 +11499,7 @@
       <c r="F319" s="56"/>
     </row>
     <row r="320" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="92"/>
+      <c r="A320" s="97"/>
       <c r="B320" s="49">
         <v>1601</v>
       </c>
@@ -11558,36 +11566,36 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="101">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="105" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="94"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="106"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="14">
         <f>MAX($B$1:B3)+1</f>
         <v>2001</v>
@@ -11606,7 +11614,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="14">
         <f>MAX($B$1:B4)+1</f>
         <v>2002</v>
@@ -11625,7 +11633,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="14">
         <f>MAX($B$1:B5)+1</f>
         <v>2003</v>
@@ -11644,7 +11652,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="14">
         <f>MAX($B$1:B6)+1</f>
         <v>2004</v>
@@ -11663,7 +11671,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="83" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="14">
@@ -11684,7 +11692,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="14">
         <f>MAX($B$1:B8)+1</f>
         <v>2006</v>
@@ -11703,7 +11711,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="14">
         <f>MAX($B$1:B9)+1</f>
         <v>2007</v>
@@ -11722,61 +11730,61 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="95">
+      <c r="A11" s="83"/>
+      <c r="B11" s="101">
         <f>MAX($B$1:B10)+1</f>
         <v>2008</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="105" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="94"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="106"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="95">
+      <c r="A13" s="83"/>
+      <c r="B13" s="101">
         <f>MAX($B$1:B12)+1</f>
         <v>2009</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="105" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="94"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="106"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="83" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="14">
@@ -11797,7 +11805,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="14">
         <f>MAX($B$1:B15)+1</f>
         <v>2011</v>
@@ -11816,7 +11824,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="14">
         <f>MAX($B$1:B16)+1</f>
         <v>2012</v>
@@ -11835,7 +11843,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="14">
         <f>MAX($B$1:B17)+1</f>
         <v>2013</v>
@@ -11854,7 +11862,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="14">
         <f>MAX($B$1:B18)+1</f>
         <v>2014</v>
@@ -11873,7 +11881,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="14">
         <f>MAX($B$1:B19)+1</f>
         <v>2015</v>
@@ -11892,157 +11900,157 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="66">
+      <c r="A21" s="83"/>
+      <c r="B21" s="91">
         <f>MAX($B$1:B20)+1</f>
         <v>2016</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="98" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="100"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="99"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="100"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="99"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="100"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="99"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="101"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="100"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="95">
+      <c r="A26" s="83"/>
+      <c r="B26" s="101">
         <f>MAX($B$1:B25)+1</f>
         <v>2017</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="99" t="s">
+      <c r="F26" s="98" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="101"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="100"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
-      <c r="B28" s="95">
+      <c r="A28" s="83"/>
+      <c r="B28" s="101">
         <f>MAX($B$1:B27)+1</f>
         <v>2018</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="99" t="s">
+      <c r="F28" s="98" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="100"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="99"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="95">
+      <c r="B30" s="101">
         <f>MAX($B$1:B29)+1</f>
         <v>2019</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="99" t="s">
+      <c r="F30" s="98" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="100"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="99"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="100"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="99"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="101"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="100"/>
     </row>
     <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="14">
         <f>MAX($B$1:B33)+1</f>
         <v>2020</v>
@@ -12061,7 +12069,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="14">
         <f>MAX($B$1:B34)+1</f>
         <v>2021</v>
@@ -12080,7 +12088,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="14">
         <f>MAX($B$1:B35)+1</f>
         <v>2022</v>
@@ -12099,34 +12107,34 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
-      <c r="B37" s="95">
+      <c r="A37" s="83"/>
+      <c r="B37" s="101">
         <f>MAX($B$1:B36)+1</f>
         <v>2023</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="E37" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="99" t="s">
+      <c r="F37" s="98" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="102"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="104"/>
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="14">
         <f>MAX($B$1:B38)+1</f>
         <v>2024</v>
@@ -12145,7 +12153,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="83" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="14">
@@ -12166,7 +12174,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="88"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="9">
         <f>MAX($B$1:B40)+1</f>
         <v>2026</v>
@@ -12186,19 +12194,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A15:A29"/>
     <mergeCell ref="B21:B25"/>
@@ -12215,22 +12226,19 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
@@ -2247,64 +2247,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2320,42 +2356,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2672,7 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D42" sqref="D42:D45"/>
     </sheetView>
   </sheetViews>
@@ -2727,54 +2727,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="83">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="83" t="s">
         <v>104</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="61"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="36">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -2800,7 +2800,7 @@
       <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="36">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2826,7 +2826,7 @@
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="36">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -2858,7 +2858,7 @@
       <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="36">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2890,7 +2890,7 @@
       <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="82" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="36">
@@ -2918,7 +2918,7 @@
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="36">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2946,7 +2946,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="36">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -2978,21 +2978,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76"/>
-      <c r="B11" s="67">
+      <c r="A11" s="82"/>
+      <c r="B11" s="65">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="70" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="36" t="s">
@@ -3001,47 +3001,47 @@
       <c r="H11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="74"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="36" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="63"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
-      <c r="B13" s="67">
+      <c r="A13" s="82"/>
+      <c r="B13" s="65">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="70" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="36" t="s">
@@ -3050,49 +3050,49 @@
       <c r="H13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="74"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="36" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="63"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="65">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="65" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="36" t="s">
@@ -3101,35 +3101,35 @@
       <c r="H15" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="72" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="76"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="34" t="s">
         <v>105</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="63"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="76"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="36">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3163,7 +3163,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="76"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="36">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3197,21 +3197,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
-      <c r="B19" s="67">
+      <c r="A19" s="82"/>
+      <c r="B19" s="65">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="70" t="s">
         <v>234</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -3220,35 +3220,35 @@
       <c r="H19" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="72" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="74"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="63"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="36">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
@@ -3274,7 +3274,7 @@
       <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="76"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="36">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
@@ -3306,21 +3306,21 @@
       <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="67">
+      <c r="A23" s="82"/>
+      <c r="B23" s="65">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="70" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="34" t="s">
@@ -3329,93 +3329,93 @@
       <c r="H23" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="69" t="s">
+      <c r="J23" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="72"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="75"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="76"/>
       <c r="G24" s="34" t="s">
         <v>109</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="64"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="75"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="75"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="64"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="75"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="34" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="75"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="64"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="74"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="63"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="74"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="76"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87" t="s">
+      <c r="E28" s="80"/>
+      <c r="F28" s="78" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="47" t="s">
@@ -3424,33 +3424,33 @@
       <c r="H28" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="87" t="s">
+      <c r="I28" s="78" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="K28" s="89"/>
+      <c r="K28" s="91"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="92" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="92"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="76"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="36">
         <f>MAX($B$1:B29)+1</f>
         <v>18</v>
@@ -3473,22 +3473,22 @@
       <c r="J30" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="K30" s="95"/>
+      <c r="K30" s="62"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="76"/>
-      <c r="B31" s="67">
+      <c r="A31" s="82"/>
+      <c r="B31" s="65">
         <f>MAX($B$1:B30)+1</f>
         <v>19</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="73" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="70" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="40" t="s">
@@ -3497,49 +3497,49 @@
       <c r="H31" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="I31" s="73" t="s">
+      <c r="I31" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="J31" s="69" t="s">
+      <c r="J31" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K31" s="62"/>
+      <c r="K31" s="72"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="76"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="75"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="40" t="s">
         <v>156</v>
       </c>
       <c r="H32" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="64"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="65">
         <f>MAX($B$1:B32)+1</f>
         <v>20</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="70" t="s">
         <v>127</v>
       </c>
       <c r="G33" s="40" t="s">
@@ -3548,67 +3548,67 @@
       <c r="H33" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="69" t="s">
+      <c r="J33" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K33" s="62"/>
+      <c r="K33" s="72"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="75"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="40" t="s">
         <v>92</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="75"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="64"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="73"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="75"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="34" t="s">
         <v>142</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="75"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="64"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="73"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="76"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="74"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="34" t="s">
         <v>109</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="74"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="63"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="74"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="76"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45" t="s">
         <v>99</v>
@@ -3635,7 +3635,7 @@
       <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="36">
         <f>MAX($B$1:B37)+1</f>
         <v>21</v>
@@ -3665,7 +3665,7 @@
       <c r="K38" s="38"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="76"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="36">
         <f>MAX($B$1:B38)+1</f>
         <v>22</v>
@@ -3691,19 +3691,19 @@
       <c r="K39" s="38"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="76"/>
-      <c r="B40" s="67">
+      <c r="A40" s="82"/>
+      <c r="B40" s="65">
         <f>MAX($B$1:B39)+1</f>
         <v>23</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="73" t="s">
+      <c r="E40" s="65"/>
+      <c r="F40" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="34" t="s">
@@ -3712,45 +3712,45 @@
       <c r="H40" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="73" t="s">
+      <c r="I40" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="69" t="s">
+      <c r="J40" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K40" s="62"/>
+      <c r="K40" s="72"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="76"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="74"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="71"/>
       <c r="G41" s="34" t="s">
         <v>100</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="74"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="63"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="74"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
-      <c r="B42" s="67">
+      <c r="A42" s="82"/>
+      <c r="B42" s="65">
         <f>MAX($B$1:B41)+1</f>
         <v>24</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="69"/>
-      <c r="F42" s="73" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="40" t="s">
@@ -3759,67 +3759,67 @@
       <c r="H42" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="67" t="s">
+      <c r="I42" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="J42" s="69" t="s">
+      <c r="J42" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K42" s="62"/>
+      <c r="K42" s="72"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="76"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="75"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="40" t="s">
         <v>146</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I43" s="79"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="64"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="73"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="76"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="75"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="76"/>
       <c r="G44" s="40" t="s">
         <v>145</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="79"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="64"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="73"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="76"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="74"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="40" t="s">
         <v>144</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="63"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="74"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="82" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="36">
@@ -3847,19 +3847,19 @@
       <c r="K46" s="38"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="77"/>
-      <c r="B47" s="67">
+      <c r="A47" s="84"/>
+      <c r="B47" s="65">
         <f>MAX($B$1:B46)+1</f>
         <v>26</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="67" t="s">
+      <c r="D47" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="73" t="s">
+      <c r="E47" s="65"/>
+      <c r="F47" s="70" t="s">
         <v>27</v>
       </c>
       <c r="G47" s="49" t="s">
@@ -3868,33 +3868,33 @@
       <c r="H47" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="I47" s="67" t="s">
+      <c r="I47" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="69" t="s">
+      <c r="J47" s="67" t="s">
         <v>164</v>
       </c>
       <c r="K47" s="51"/>
     </row>
     <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="77"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="74"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="71"/>
       <c r="G48" s="49" t="s">
         <v>167</v>
       </c>
       <c r="H48" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="I48" s="68"/>
-      <c r="J48" s="71"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="68"/>
       <c r="K48" s="51"/>
     </row>
     <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="77"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="56"/>
       <c r="C49" s="53" t="s">
         <v>165</v>
@@ -3919,7 +3919,7 @@
       <c r="K49" s="51"/>
     </row>
     <row r="50" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="78"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="56"/>
       <c r="C50" s="56"/>
       <c r="D50" s="56" t="s">
@@ -3942,30 +3942,66 @@
   </sheetData>
   <autoFilter ref="A1:K50"/>
   <mergeCells count="100">
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="B15:B16"/>
@@ -3982,66 +4018,30 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4100,7 +4100,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="93" t="s">
         <v>232</v>
       </c>
       <c r="B2" s="31">
@@ -4118,7 +4118,7 @@
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
@@ -4147,9 +4147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4182,10 +4180,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="96">
+      <c r="B2" s="63">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
@@ -4201,8 +4199,8 @@
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
-      <c r="B3" s="97">
+      <c r="A3" s="97"/>
+      <c r="B3" s="64">
         <f>MAX($B$1:B2)+1</f>
         <v>2001</v>
       </c>
@@ -4218,7 +4216,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="95" t="s">
         <v>185</v>
       </c>
       <c r="B4" s="22">
@@ -4239,7 +4237,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="22">
         <f>MAX($B$1:B4)+1</f>
         <v>2003</v>
@@ -4258,7 +4256,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="22">
         <f>MAX($B$1:B5)+1</f>
         <v>2004</v>
@@ -4277,7 +4275,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="95" t="s">
         <v>244</v>
       </c>
       <c r="B7" s="22">
@@ -4296,7 +4294,7 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="22">
         <f>MAX($B$1:B7)+1</f>
         <v>2006</v>
@@ -4313,7 +4311,7 @@
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="22">
         <f>MAX($B$1:B8)+1</f>
         <v>2007</v>
@@ -4330,7 +4328,7 @@
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="22">
         <f>MAX($B$1:B9)+1</f>
         <v>2008</v>
@@ -4347,7 +4345,7 @@
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="22">
         <f>MAX($B$1:B10)+1</f>
         <v>2009</v>
@@ -4364,7 +4362,7 @@
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="22">
         <f>MAX($B$1:B11)+1</f>
         <v>2010</v>
@@ -4381,7 +4379,7 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="22">
         <f>MAX($B$1:B12)+1</f>
         <v>2011</v>
@@ -4398,7 +4396,7 @@
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="22">
         <f>MAX($B$1:B13)+1</f>
         <v>2012</v>
@@ -4415,7 +4413,7 @@
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="22">
         <f>MAX($B$1:B14)+1</f>
         <v>2013</v>
@@ -4432,7 +4430,7 @@
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="96" t="s">
         <v>202</v>
       </c>
       <c r="B16" s="22">
@@ -4451,7 +4449,7 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="22">
         <f>MAX($B$1:B16)+1</f>
         <v>2015</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="252">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,9 +1145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
@@ -1341,29 +1338,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传呼入电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼入录音名称列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未开始</t>
   </si>
   <si>
-    <t>拨打电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/call.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>records</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>entrusted_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1372,18 +1349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>委案id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1401,22 +1366,6 @@
   </si>
   <si>
     <t>/phone/upload.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/missed_call.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_OUTSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_OUTSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回 collection.protocol.MissedCall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1710,6 +1659,66 @@
   </si>
   <si>
     <t>获取所有的委案管理信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入流中包含文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传电话录音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/download.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/missed_call.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未接电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确到秒 YYYY-mm-dd HH:mm:ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1807,7 +1816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1962,13 +1971,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1982,72 +2008,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2067,7 +2028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2127,235 +2088,151 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2672,9 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2684,7 +2559,7 @@
     <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.25" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="25.5" style="1" bestFit="1" customWidth="1"/>
@@ -2727,120 +2602,120 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="57">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="57" t="s">
         <v>104</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="90"/>
+      <c r="J2" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="90"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="36">
+      <c r="A4" s="59"/>
+      <c r="B4" s="51">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="38"/>
+      <c r="J4" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="36">
+      <c r="A5" s="59"/>
+      <c r="B5" s="51">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
-        <v>233</v>
+      <c r="D5" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52" t="s">
+        <v>220</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="38"/>
+      <c r="I5" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="36">
+      <c r="A6" s="59"/>
+      <c r="B6" s="51">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="52" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -2849,51 +2724,51 @@
       <c r="H6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="38"/>
+      <c r="J6" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="36">
+      <c r="A7" s="59"/>
+      <c r="B7" s="51">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="52" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="38"/>
+      <c r="J7" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="51">
         <f>MAX($B$1:B7)+1</f>
         <v>6</v>
       </c>
@@ -2904,22 +2779,22 @@
         <v>44</v>
       </c>
       <c r="E8" s="34"/>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="35" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="38"/>
+      <c r="J8" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="36">
+      <c r="A9" s="59"/>
+      <c r="B9" s="51">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
@@ -2930,24 +2805,24 @@
         <v>42</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="35" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>148</v>
+      <c r="I9" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="36">
+      <c r="A10" s="59"/>
+      <c r="B10" s="51">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
@@ -2958,7 +2833,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="35" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="34" t="s">
@@ -2967,183 +2842,183 @@
       <c r="H10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>148</v>
+      <c r="I10" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="65">
+      <c r="A11" s="59"/>
+      <c r="B11" s="57">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="72"/>
+      <c r="J11" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="36" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="74"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="65">
+      <c r="A13" s="59"/>
+      <c r="B13" s="57">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="72"/>
+      <c r="J13" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="36" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="74"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="57">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="72" t="s">
-        <v>150</v>
+      <c r="J15" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="34" t="s">
         <v>105</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="74"/>
+        <v>151</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="36">
+      <c r="A17" s="59"/>
+      <c r="B17" s="51">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="52" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="34" t="s">
@@ -3152,32 +3027,32 @@
       <c r="H17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>149</v>
+      <c r="I17" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="36">
+      <c r="A18" s="59"/>
+      <c r="B18" s="51">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="36" t="s">
+      <c r="D18" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="52" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="34" t="s">
@@ -3186,524 +3061,524 @@
       <c r="H18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>149</v>
+      <c r="I18" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="65">
+      <c r="A19" s="59"/>
+      <c r="B19" s="57">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="65" t="s">
+      <c r="C19" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="70" t="s">
-        <v>234</v>
+      <c r="F19" s="56" t="s">
+        <v>221</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="72" t="s">
-        <v>150</v>
+      <c r="J19" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="71"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="74"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="36">
+      <c r="A21" s="59"/>
+      <c r="B21" s="51">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="37" t="s">
+      <c r="E21" s="51"/>
+      <c r="F21" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="38"/>
+      <c r="J21" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="36">
+      <c r="A22" s="59"/>
+      <c r="B22" s="51">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="38"/>
+      <c r="J22" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="65">
+      <c r="A23" s="59"/>
+      <c r="B23" s="57">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="56" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>28</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="72"/>
+      <c r="J23" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="55"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="76"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="34" t="s">
         <v>109</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="73"/>
+        <v>159</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="76"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="73"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="76"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="34" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="73"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="55"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="40" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="71"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="74"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="55"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="78" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="47" t="s">
+      <c r="G28" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="78" t="s">
+      <c r="I28" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="91"/>
+      <c r="J28" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="61" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="I29" s="79"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="92"/>
+      <c r="H29" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
-      <c r="B30" s="36">
+      <c r="A30" s="59"/>
+      <c r="B30" s="51">
         <f>MAX($B$1:B29)+1</f>
         <v>18</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="J30" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="K30" s="62"/>
+      <c r="C30" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
-      <c r="B31" s="65">
+      <c r="A31" s="59"/>
+      <c r="B31" s="57">
         <f>MAX($B$1:B30)+1</f>
         <v>19</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="70" t="s">
+      <c r="E31" s="58"/>
+      <c r="F31" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="55"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="59"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I31" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" s="72"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="40" t="s">
+      <c r="H32" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="76"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="73"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="55"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="57">
         <f>MAX($B$1:B32)+1</f>
         <v>20</v>
       </c>
-      <c r="C33" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="65" t="s">
+      <c r="C33" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" s="40" t="s">
+      <c r="F33" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K33" s="72"/>
+      <c r="J33" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="55"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="40" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="36" t="s">
         <v>92</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="76"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="73"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="76"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="76"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="73"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="55"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="71"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="34" t="s">
         <v>109</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="71"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="74"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="47" t="s">
+      <c r="D37" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="47" t="s">
+      <c r="H37" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="46" t="s">
+      <c r="I37" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J37" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" s="48"/>
+      <c r="J37" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="36">
+      <c r="A38" s="59"/>
+      <c r="B38" s="51">
         <f>MAX($B$1:B37)+1</f>
         <v>21</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="36" t="s">
+      <c r="C38" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37" t="s">
+      <c r="E38" s="51"/>
+      <c r="F38" s="52" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="K38" s="38"/>
+      <c r="J38" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" s="54"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="36">
+      <c r="A39" s="59"/>
+      <c r="B39" s="51">
         <f>MAX($B$1:B38)+1</f>
         <v>22</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37" t="s">
+      <c r="C39" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="K39" s="38"/>
+      <c r="I39" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="65">
+      <c r="A40" s="59"/>
+      <c r="B40" s="57">
         <f>MAX($B$1:B39)+1</f>
         <v>23</v>
       </c>
-      <c r="C40" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="70" t="s">
+      <c r="C40" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="57"/>
+      <c r="F40" s="56" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="34" t="s">
@@ -3712,243 +3587,321 @@
       <c r="H40" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="70" t="s">
+      <c r="I40" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K40" s="72"/>
+      <c r="J40" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="71"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="34" t="s">
         <v>100</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="74"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="55"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="65">
+      <c r="A42" s="59"/>
+      <c r="B42" s="57">
         <f>MAX($B$1:B41)+1</f>
         <v>24</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="67"/>
-      <c r="F42" s="70" t="s">
+      <c r="E42" s="58"/>
+      <c r="F42" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="I42" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="K42" s="72"/>
+      <c r="G42" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="40" t="s">
-        <v>146</v>
+      <c r="A43" s="59"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I43" s="77"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="73"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="55"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="40" t="s">
-        <v>145</v>
+      <c r="A44" s="59"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="77"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="73"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="55"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="40" t="s">
-        <v>144</v>
+      <c r="A45" s="59"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="66"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="74"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="51">
         <f>MAX($B$1:B44)+1</f>
         <v>25</v>
       </c>
-      <c r="C46" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="36" t="s">
+      <c r="C46" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="40"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="36"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J46" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="K46" s="38"/>
+      <c r="J46" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="K46" s="54"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="84"/>
-      <c r="B47" s="65">
+      <c r="A47" s="59"/>
+      <c r="B47" s="57">
         <f>MAX($B$1:B46)+1</f>
         <v>26</v>
       </c>
-      <c r="C47" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="70" t="s">
+      <c r="C47" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="57"/>
+      <c r="F47" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" s="54"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="59"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="54"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="59"/>
+      <c r="B49" s="51">
+        <f>MAX($B$1:B47)+1</f>
         <v>27</v>
       </c>
-      <c r="G47" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="H47" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="I47" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="J47" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="K47" s="51"/>
-    </row>
-    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="84"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="H48" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="51"/>
-    </row>
-    <row r="49" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="84"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="G49" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="I49" s="53"/>
-      <c r="J49" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="K49" s="51"/>
+      <c r="C49" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="I49" s="51"/>
+      <c r="J49" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="K49" s="54"/>
     </row>
     <row r="50" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="85"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="J50" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="K50" s="60"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="43">
+        <f>MAX($B$1:B49)+1</f>
+        <v>28</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="I50" s="43"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K50"/>
   <mergeCells count="100">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J33:J36"/>
@@ -3965,83 +3918,13 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="I23:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K23:K27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4050,7 +3933,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J33:J42 J21:J23 J46:J47 J49:J50 J28:J31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J33:J42 J21:J23 J46:J47 J28:J31 J49:J50">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4100,33 +3983,33 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
-        <v>232</v>
+      <c r="A2" s="61" t="s">
+        <v>219</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="94"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>43</v>
@@ -4147,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4180,130 +4063,130 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="63">
+      <c r="A2" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="49">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="97"/>
-      <c r="B3" s="64">
+      <c r="A3" s="65"/>
+      <c r="B3" s="50">
         <f>MAX($B$1:B2)+1</f>
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
-        <v>185</v>
+      <c r="A4" s="63" t="s">
+        <v>172</v>
       </c>
       <c r="B4" s="22">
         <f>MAX($B$1:B3)+1</f>
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="22">
         <f>MAX($B$1:B4)+1</f>
         <v>2003</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="95"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="22">
         <f>MAX($B$1:B5)+1</f>
         <v>2004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
-        <v>244</v>
+      <c r="A7" s="63" t="s">
+        <v>231</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="22">
         <f>MAX($B$1:B7)+1</f>
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>106</v>
@@ -4311,16 +4194,16 @@
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="22">
         <f>MAX($B$1:B8)+1</f>
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>106</v>
@@ -4328,16 +4211,16 @@
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="22">
         <f>MAX($B$1:B9)+1</f>
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>27</v>
@@ -4345,16 +4228,16 @@
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="22">
         <f>MAX($B$1:B10)+1</f>
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>106</v>
@@ -4362,16 +4245,16 @@
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="22">
         <f>MAX($B$1:B11)+1</f>
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>106</v>
@@ -4379,105 +4262,105 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="22">
         <f>MAX($B$1:B12)+1</f>
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="22">
         <f>MAX($B$1:B13)+1</f>
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="95"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="22">
         <f>MAX($B$1:B14)+1</f>
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
-        <v>202</v>
+      <c r="A16" s="64" t="s">
+        <v>189</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="22">
         <f>MAX($B$1:B16)+1</f>
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>27</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -12,7 +12,7 @@
     <sheet name="UI接口" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -658,7 +658,12 @@
             <charset val="134"/>
           </rPr>
           <t>eg.
-[a.mp3, b.mp3]</t>
+interface PhoneRecord{
+        status : CallStatus;
+        phoneNum:string;
+        time:string;
+        record:string;
+}</t>
         </r>
       </text>
     </comment>
@@ -667,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="258">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,10 +825,6 @@
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/records.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1105,10 +1106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回呼入电话录音列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1246,10 +1243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呼入电话列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回所有接口信息  管理员配置角色权限使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1362,10 +1355,6 @@
   </si>
   <si>
     <t>返回所有未读消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/upload.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1528,10 +1517,6 @@
   </si>
   <si>
     <t>未处理消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/nav/tips/missed_call</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1686,39 +1671,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/missed_call.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未接电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确到秒 YYYY-mm-dd HH:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/records.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 collection.protocol.Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 collection.protocol.Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传未接电话记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/phone/download.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录音名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/phone/missed_call.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未接电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精确到秒 YYYY-mm-dd HH:mm:ss</t>
+    <t>返回呼入电话录音列表 PhoneRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/nav/tips/missed_call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1816,7 +1845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2024,11 +2053,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2151,24 +2206,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2190,24 +2233,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2221,18 +2312,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2547,9 +2626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2571,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>0</v>
@@ -2592,131 +2673,131 @@
         <v>14</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="54">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>104</v>
+      <c r="F2" s="54" t="s">
+        <v>102</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
       <c r="I2" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="55"/>
+        <v>63</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="59"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
-      <c r="B4" s="51">
+      <c r="B4" s="47">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52" t="s">
+      <c r="C4" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
-      <c r="I4" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="54"/>
+      <c r="I4" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
-      <c r="B5" s="51">
+      <c r="B5" s="47">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52" t="s">
-        <v>220</v>
+      <c r="C5" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48" t="s">
+        <v>215</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="54"/>
+      <c r="I5" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
-      <c r="B6" s="51">
+      <c r="B6" s="47">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>43</v>
+      <c r="C6" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>34</v>
@@ -2724,446 +2805,446 @@
       <c r="H6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="54"/>
+      <c r="I6" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="51">
+      <c r="B7" s="47">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="51" t="s">
+      <c r="F7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="54"/>
+      <c r="I7" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="51">
+        <v>57</v>
+      </c>
+      <c r="B8" s="47">
         <f>MAX($B$1:B7)+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="54"/>
+      <c r="I8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
-      <c r="B9" s="51">
+      <c r="B9" s="47">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>147</v>
+      <c r="I9" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="51">
+      <c r="B10" s="47">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>147</v>
+      <c r="I10" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>54</v>
+      <c r="C11" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="55"/>
+        <v>70</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>57</v>
+      <c r="G12" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="I12" s="56"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="57">
+      <c r="B13" s="54">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>47</v>
+      <c r="H13" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="55"/>
+        <v>71</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>57</v>
+      <c r="G14" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="I14" s="56"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="54">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="55" t="s">
-        <v>149</v>
+      <c r="I15" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="59"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="55"/>
+        <v>148</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="59"/>
-      <c r="B17" s="51">
+      <c r="B17" s="47">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="51" t="s">
+      <c r="C17" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="52" t="s">
-        <v>104</v>
+      <c r="F17" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="54" t="s">
-        <v>148</v>
+        <v>87</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
-      <c r="B18" s="51">
+      <c r="B18" s="47">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="51" t="s">
+      <c r="C18" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>87</v>
-      </c>
       <c r="H18" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="54" t="s">
-        <v>148</v>
+        <v>88</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="59"/>
-      <c r="B19" s="57">
+      <c r="B19" s="54">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="57" t="s">
+      <c r="C19" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="54" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="55" t="s">
         <v>149</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="59"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="56"/>
       <c r="G20" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A21" s="59"/>
-      <c r="B21" s="51">
+      <c r="B21" s="47">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C21" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52" t="s">
-        <v>118</v>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48" t="s">
+        <v>116</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="54"/>
+      <c r="I21" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A22" s="59"/>
-      <c r="B22" s="51">
+      <c r="B22" s="47">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
-      <c r="C22" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="51" t="s">
+      <c r="C22" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="36" t="s">
@@ -3172,27 +3253,27 @@
       <c r="H22" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="54"/>
+      <c r="I22" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="59"/>
-      <c r="B23" s="57">
+      <c r="B23" s="54">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
-      <c r="C23" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="57" t="s">
+      <c r="C23" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="56" t="s">
@@ -3202,39 +3283,39 @@
         <v>28</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="55"/>
+        <v>75</v>
+      </c>
+      <c r="J23" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="59"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="56"/>
       <c r="G24" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I24" s="56"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="59"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="56"/>
       <c r="G25" s="34" t="s">
         <v>5</v>
@@ -3243,15 +3324,15 @@
         <v>6</v>
       </c>
       <c r="I25" s="56"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="59"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="56"/>
       <c r="G26" s="34" t="s">
         <v>29</v>
@@ -3260,581 +3341,659 @@
         <v>30</v>
       </c>
       <c r="I26" s="56"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="58"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="59"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="56"/>
       <c r="G27" s="36" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I27" s="56"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="58"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="59"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="57"/>
+      <c r="F28" s="62" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H28" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="69"/>
+      <c r="I28" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="72"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="48" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="H29" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="72"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="59"/>
-      <c r="B30" s="51">
+      <c r="B30" s="47">
         <f>MAX($B$1:B29)+1</f>
         <v>18</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52" t="s">
-        <v>218</v>
+      <c r="C30" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48" t="s">
+        <v>213</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>161</v>
+      <c r="I30" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="49" t="s">
+        <v>158</v>
       </c>
       <c r="K30" s="41"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="59"/>
-      <c r="B31" s="57">
+      <c r="B31" s="54">
         <f>MAX($B$1:B30)+1</f>
         <v>19</v>
       </c>
-      <c r="C31" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="58"/>
+      <c r="C31" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="55"/>
       <c r="F31" s="56" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="55"/>
+        <v>81</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="59"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="56"/>
       <c r="G32" s="36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I32" s="56"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="58"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="54">
         <f>MAX($B$1:B32)+1</f>
         <v>20</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="57" t="s">
+      <c r="C33" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="55"/>
+        <v>93</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="58"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="59"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="56"/>
       <c r="G34" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="34" t="s">
-        <v>93</v>
-      </c>
       <c r="I34" s="56"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="58"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="59"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="56"/>
       <c r="G35" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I35" s="56"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="58"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="59"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="56"/>
       <c r="G36" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="56"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A37" s="59"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="40" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A38" s="59"/>
-      <c r="B38" s="51">
+      <c r="B38" s="47">
         <f>MAX($B$1:B37)+1</f>
         <v>21</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52" t="s">
+      <c r="C38" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="J38" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="54"/>
+      <c r="I38" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="J38" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="50"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A39" s="59"/>
-      <c r="B39" s="51">
+      <c r="B39" s="47">
         <f>MAX($B$1:B38)+1</f>
         <v>22</v>
       </c>
-      <c r="C39" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52" t="s">
+      <c r="C39" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="53" t="s">
+      <c r="I39" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="54"/>
+      <c r="J39" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" s="50"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="59"/>
-      <c r="B40" s="57">
+      <c r="B40" s="54">
         <f>MAX($B$1:B39)+1</f>
         <v>23</v>
       </c>
-      <c r="C40" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="E40" s="57"/>
+      <c r="C40" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="54"/>
       <c r="F40" s="56" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H40" s="34" t="s">
-        <v>91</v>
-      </c>
       <c r="I40" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K40" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="J40" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="58"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="59"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="56"/>
       <c r="G41" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I41" s="56"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="59"/>
-      <c r="B42" s="57">
+      <c r="B42" s="54">
         <f>MAX($B$1:B41)+1</f>
         <v>24</v>
       </c>
-      <c r="C42" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="58"/>
+      <c r="C42" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="55"/>
       <c r="F42" s="56" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="I42" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="J42" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="K42" s="55"/>
+        <v>160</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="58"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="59"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="56"/>
       <c r="G43" s="36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="58"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="59"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="58"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
       <c r="F44" s="56"/>
       <c r="G44" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="55"/>
+        <v>92</v>
+      </c>
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="59"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="56"/>
       <c r="G45" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="55"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="58"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="51">
+      <c r="B46" s="47">
         <f>MAX($B$1:B44)+1</f>
         <v>25</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52" t="s">
-        <v>130</v>
+      <c r="C46" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48" t="s">
+        <v>128</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="34"/>
       <c r="I46" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="J46" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="K46" s="54"/>
+        <v>254</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="K46" s="50"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="59"/>
-      <c r="B47" s="57">
+      <c r="B47" s="54">
         <f>MAX($B$1:B46)+1</f>
         <v>26</v>
       </c>
-      <c r="C47" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="57"/>
+      <c r="C47" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="54"/>
       <c r="F47" s="56" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="I47" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J47" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="K47" s="54"/>
+        <v>233</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="J47" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="K47" s="50"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="59"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
       <c r="F48" s="56"/>
       <c r="G48" s="36" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="54"/>
+        <v>235</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="50"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="59"/>
-      <c r="B49" s="51">
+      <c r="B49" s="47">
         <f>MAX($B$1:B47)+1</f>
         <v>27</v>
       </c>
-      <c r="C49" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="D49" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="52" t="s">
-        <v>242</v>
+      <c r="C49" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48" t="s">
+        <v>237</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="I49" s="51"/>
-      <c r="J49" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="K49" s="54"/>
-    </row>
-    <row r="50" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="I49" s="47"/>
+      <c r="J49" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" s="50"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="60"/>
-      <c r="B50" s="43">
+      <c r="B50" s="64">
         <f>MAX($B$1:B49)+1</f>
         <v>28</v>
       </c>
-      <c r="C50" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="44" t="s">
+      <c r="C50" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="70"/>
+      <c r="F50" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="H50" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="I50" s="43"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="47"/>
+      <c r="I50" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="J50" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="61"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="67"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K50"/>
-  <mergeCells count="100">
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K40:K41"/>
+  <autoFilter ref="A1:K51"/>
+  <mergeCells count="108">
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -3843,29 +4002,6 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="F33:F36"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B36"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -3877,54 +4013,30 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K23:K27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -3967,52 +4079,52 @@
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>219</v>
+      <c r="A2" s="73" t="s">
+        <v>214</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="19"/>
     </row>
@@ -4030,7 +4142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="A21:E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4047,180 +4161,180 @@
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="49">
+      <c r="A2" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="45">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="50">
+      <c r="A3" s="77"/>
+      <c r="B3" s="46">
         <f>MAX($B$1:B2)+1</f>
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
-        <v>172</v>
+      <c r="A4" s="75" t="s">
+        <v>168</v>
       </c>
       <c r="B4" s="22">
         <f>MAX($B$1:B3)+1</f>
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="22">
         <f>MAX($B$1:B4)+1</f>
         <v>2003</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="22">
         <f>MAX($B$1:B5)+1</f>
         <v>2004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
-        <v>231</v>
+      <c r="A7" s="75" t="s">
+        <v>226</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="22">
         <f>MAX($B$1:B7)+1</f>
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="22">
         <f>MAX($B$1:B8)+1</f>
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="22">
         <f>MAX($B$1:B9)+1</f>
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>27</v>
@@ -4228,139 +4342,139 @@
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="22">
         <f>MAX($B$1:B10)+1</f>
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="22">
         <f>MAX($B$1:B11)+1</f>
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="22">
         <f>MAX($B$1:B12)+1</f>
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="22">
         <f>MAX($B$1:B13)+1</f>
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="22">
         <f>MAX($B$1:B14)+1</f>
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
-        <v>189</v>
+      <c r="A16" s="76" t="s">
+        <v>185</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="22">
         <f>MAX($B$1:B16)+1</f>
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>27</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -12,7 +12,7 @@
     <sheet name="UI接口" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0">
+    <comment ref="I29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -577,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G38" authorId="0" shapeId="0">
+    <comment ref="G39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0" shapeId="0">
+    <comment ref="I41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" shapeId="0">
+    <comment ref="I47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="260">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1748,6 +1748,14 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话附件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phones</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2242,62 +2250,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2626,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2683,54 +2691,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="65">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="65" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="58"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="47">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -2756,7 +2764,7 @@
       <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="47">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2782,7 +2790,7 @@
       <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="47">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -2814,7 +2822,7 @@
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="47">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2846,7 +2854,7 @@
       <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="68" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="47">
@@ -2874,7 +2882,7 @@
       <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="47">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2902,7 +2910,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="47">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -2934,21 +2942,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="54">
+      <c r="A11" s="68"/>
+      <c r="B11" s="65">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="64" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="47" t="s">
@@ -2957,47 +2965,47 @@
       <c r="H11" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="58"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="47" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="58"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="54">
+      <c r="A13" s="68"/>
+      <c r="B13" s="65">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="64" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="47" t="s">
@@ -3006,49 +3014,49 @@
       <c r="H13" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="58"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="56"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="47" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="58"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="65">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="65" t="s">
         <v>104</v>
       </c>
       <c r="G15" s="47" t="s">
@@ -3057,35 +3065,35 @@
       <c r="H15" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="62" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="58"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="47">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3119,7 +3127,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="47">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3153,21 +3161,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="54">
+      <c r="A19" s="68"/>
+      <c r="B19" s="65">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="64" t="s">
         <v>216</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -3176,35 +3184,35 @@
       <c r="H19" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="J19" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="62" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="56"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="58"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="62"/>
     </row>
     <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="47">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
@@ -3230,7 +3238,7 @@
       <c r="K21" s="50"/>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="47">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
@@ -3262,21 +3270,21 @@
       <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="54">
+      <c r="A23" s="68"/>
+      <c r="B23" s="65">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="64" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="34" t="s">
@@ -3285,680 +3293,740 @@
       <c r="H23" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="58"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="56"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="68"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="68"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H25" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="58"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="34" t="s">
+      <c r="I25" s="64"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="68"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="58"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="34" t="s">
+      <c r="I26" s="64"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="68"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="58"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="36" t="s">
+      <c r="I27" s="64"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="68"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="58"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57" t="s">
+      <c r="I28" s="64"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="68"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D29" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="62" t="s">
+      <c r="E29" s="71"/>
+      <c r="F29" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G29" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H29" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I29" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J29" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="72"/>
-    </row>
-    <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="44" t="s">
+      <c r="K29" s="63"/>
+    </row>
+    <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="68"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H30" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="72"/>
-    </row>
-    <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="47">
-        <f>MAX($B$1:B29)+1</f>
+      <c r="I30" s="72"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="63"/>
+    </row>
+    <row r="31" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="68"/>
+      <c r="B31" s="47">
+        <f>MAX($B$1:B30)+1</f>
         <v>18</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C31" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D31" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48" t="s">
+      <c r="E31" s="47"/>
+      <c r="F31" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="48" t="s">
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="J31" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="41"/>
-    </row>
-    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="54">
-        <f>MAX($B$1:B30)+1</f>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="68"/>
+      <c r="B32" s="65">
+        <f>MAX($B$1:B31)+1</f>
         <v>19</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C32" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D32" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56" t="s">
+      <c r="E32" s="66"/>
+      <c r="F32" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I32" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="J32" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K31" s="58"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="36" t="s">
+      <c r="K32" s="62"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="68"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H33" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="58"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="I33" s="64"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="62"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="54">
-        <f>MAX($B$1:B32)+1</f>
+      <c r="B34" s="65">
+        <f>MAX($B$1:B33)+1</f>
         <v>20</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C34" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D34" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E34" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F34" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G34" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H34" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I34" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="55" t="s">
+      <c r="J34" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K33" s="58"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="36" t="s">
+      <c r="K34" s="62"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="68"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H35" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="58"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="34" t="s">
+      <c r="I35" s="64"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="62"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="68"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H36" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="58"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="34" t="s">
+      <c r="I36" s="64"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="62"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="68"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H37" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="58"/>
-    </row>
-    <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38" t="s">
+      <c r="I37" s="64"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="62"/>
+    </row>
+    <row r="38" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="68"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D38" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39" t="s">
+      <c r="E38" s="38"/>
+      <c r="F38" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G38" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H38" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I38" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="J37" s="37" t="s">
+      <c r="J38" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="K37" s="41"/>
-    </row>
-    <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="47">
-        <f>MAX($B$1:B37)+1</f>
-        <v>21</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="K38" s="50"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="47">
         <f>MAX($B$1:B38)+1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="G39" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="I39" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="68"/>
+      <c r="B40" s="47">
+        <f>MAX($B$1:B39)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="49" t="s">
+      <c r="J40" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="K39" s="50"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="54">
-        <f>MAX($B$1:B39)+1</f>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="68"/>
+      <c r="B41" s="65">
+        <f>MAX($B$1:B40)+1</f>
         <v>23</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C41" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D41" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="56" t="s">
+      <c r="E41" s="65"/>
+      <c r="F41" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G41" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H41" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="56" t="s">
+      <c r="I41" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="J41" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="58"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="34" t="s">
+      <c r="K41" s="62"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="68"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H42" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="58"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="54">
-        <f>MAX($B$1:B41)+1</f>
+      <c r="I42" s="64"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="62"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="68"/>
+      <c r="B43" s="65">
+        <f>MAX($B$1:B42)+1</f>
         <v>24</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C43" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D43" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56" t="s">
+      <c r="E43" s="66"/>
+      <c r="F43" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G43" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H43" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="54" t="s">
+      <c r="I43" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="J42" s="55" t="s">
+      <c r="J43" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="58"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="36" t="s">
+      <c r="K43" s="62"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="68"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="34" t="s">
+      <c r="H44" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="54"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="58"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="36" t="s">
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="62"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="68"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="58"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="36" t="s">
+      <c r="I45" s="65"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="62"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="68"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="58"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
+      <c r="I46" s="65"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="62"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="47">
-        <f>MAX($B$1:B44)+1</f>
+      <c r="B47" s="47">
+        <f>MAX($B$1:B45)+1</f>
         <v>25</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C47" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D47" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48" t="s">
+      <c r="E47" s="47"/>
+      <c r="F47" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="51" t="s">
+      <c r="G47" s="36"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="J46" s="49" t="s">
+      <c r="J47" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="K46" s="50"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="54">
-        <f>MAX($B$1:B46)+1</f>
+      <c r="K47" s="50"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="68"/>
+      <c r="B48" s="65">
+        <f>MAX($B$1:B47)+1</f>
         <v>26</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C48" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D48" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="56" t="s">
+      <c r="E48" s="65"/>
+      <c r="F48" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G48" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H48" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="I47" s="54" t="s">
+      <c r="I48" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="J47" s="55" t="s">
+      <c r="J48" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="K47" s="50"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="36" t="s">
+      <c r="K48" s="50"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="68"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H49" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="I48" s="54"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="50"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="47">
-        <f>MAX($B$1:B47)+1</f>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="50"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="68"/>
+      <c r="B50" s="47">
+        <f>MAX($B$1:B48)+1</f>
         <v>27</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C50" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="D49" s="47" t="s">
+      <c r="D50" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48" t="s">
+      <c r="E50" s="47"/>
+      <c r="F50" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G50" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="H49" s="34" t="s">
+      <c r="H50" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="I49" s="47"/>
-      <c r="J49" s="49" t="s">
+      <c r="I50" s="47"/>
+      <c r="J50" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="K49" s="50"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="64">
-        <f>MAX($B$1:B49)+1</f>
+      <c r="K50" s="50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="69"/>
+      <c r="B51" s="54">
+        <f>MAX($B$1:B50)+1</f>
         <v>28</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C51" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D51" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="68" t="s">
+      <c r="E51" s="60"/>
+      <c r="F51" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="G50" s="52" t="s">
+      <c r="G51" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="H50" s="53" t="s">
+      <c r="H51" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="I50" s="64" t="s">
+      <c r="I51" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="J51" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="K50" s="66" t="s">
+      <c r="K51" s="56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="61"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="42" t="s">
+    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="70"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H52" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="67"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K51"/>
+  <autoFilter ref="A1:K52"/>
   <mergeCells count="108">
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A15:A33"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="I23:I28"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
@@ -3970,73 +4038,30 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4045,7 +4070,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J33:J42 J21:J23 J46:J47 J28:J31 J49:J50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J34:J43 J21:J24 J47:J48 J29:J32 J50:J51">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
@@ -2636,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4167,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="A21:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
@@ -1651,10 +1651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inputstream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1711,10 +1707,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回 collection.protocol.Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1756,6 +1748,21 @@
   </si>
   <si>
     <t>phones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+返回 collection.protocol.Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称 ： 
+1）Call out
+name : ecid_phonenumber_time   
+eg.   2_15966832154_895421214
+2）Call in
+name : phonenumber_time   
+eg.   15966832154_895421214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2250,6 +2257,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2274,38 +2311,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2636,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2691,54 +2698,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="54">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="54" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="62"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="47">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -2764,7 +2771,7 @@
       <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="47">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2790,7 +2797,7 @@
       <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="47">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -2822,7 +2829,7 @@
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="47">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2854,7 +2861,7 @@
       <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="60" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="47">
@@ -2882,7 +2889,7 @@
       <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="47">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2910,7 +2917,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="47">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -2942,21 +2949,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="65">
+      <c r="A11" s="60"/>
+      <c r="B11" s="54">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="47" t="s">
@@ -2965,47 +2972,47 @@
       <c r="H11" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="64"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="47" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="62"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="65">
+      <c r="A13" s="60"/>
+      <c r="B13" s="54">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="47" t="s">
@@ -3014,49 +3021,49 @@
       <c r="H13" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="J13" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="64"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="47" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="62"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="54">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="54" t="s">
         <v>104</v>
       </c>
       <c r="G15" s="47" t="s">
@@ -3065,35 +3072,35 @@
       <c r="H15" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="59" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="62"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="47">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3127,7 +3134,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="47">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3161,21 +3168,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="65">
+      <c r="A19" s="60"/>
+      <c r="B19" s="54">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="56" t="s">
         <v>216</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -3184,35 +3191,35 @@
       <c r="H19" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="66" t="s">
+      <c r="J19" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="59" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="64"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="62"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="47">
         <f>MAX($B$1:B19)+1</f>
         <v>15</v>
@@ -3238,7 +3245,7 @@
       <c r="K21" s="50"/>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="47">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
@@ -3270,21 +3277,21 @@
       <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="65">
+      <c r="A23" s="60"/>
+      <c r="B23" s="54">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="56" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="34" t="s">
@@ -3293,110 +3300,110 @@
       <c r="H23" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="66" t="s">
+      <c r="J23" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="64"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="62"/>
+        <v>256</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="64"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="34" t="s">
         <v>107</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="62"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="64"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="62"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="64"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="34" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="62"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="64"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="36" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="62"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="59"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72" t="s">
+      <c r="E29" s="57"/>
+      <c r="F29" s="58" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="40" t="s">
@@ -3405,33 +3412,33 @@
       <c r="H29" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="67" t="s">
+      <c r="J29" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="63"/>
+      <c r="K29" s="72"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="44" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="63"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="72"/>
     </row>
     <row r="31" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="47">
         <f>MAX($B$1:B30)+1</f>
         <v>18</v>
@@ -3457,19 +3464,19 @@
       <c r="K31" s="41"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="65">
+      <c r="A32" s="60"/>
+      <c r="B32" s="54">
         <f>MAX($B$1:B31)+1</f>
         <v>19</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="64" t="s">
+      <c r="E32" s="55"/>
+      <c r="F32" s="56" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="36" t="s">
@@ -3478,49 +3485,49 @@
       <c r="H32" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="I32" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="66" t="s">
+      <c r="J32" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="62"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="64"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="36" t="s">
         <v>152</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="62"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="54">
         <f>MAX($B$1:B33)+1</f>
         <v>20</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="56" t="s">
         <v>124</v>
       </c>
       <c r="G34" s="36" t="s">
@@ -3529,67 +3536,67 @@
       <c r="H34" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="64" t="s">
+      <c r="I34" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="66" t="s">
+      <c r="J34" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K34" s="62"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="64"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="36" t="s">
         <v>91</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I35" s="64"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="62"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="59"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="64"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="34" t="s">
         <v>138</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="62"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="64"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="34" t="s">
         <v>107</v>
       </c>
       <c r="H37" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="62"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38" t="s">
         <v>98</v>
@@ -3616,7 +3623,7 @@
       <c r="K38" s="41"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="47">
         <f>MAX($B$1:B38)+1</f>
         <v>21</v>
@@ -3646,7 +3653,7 @@
       <c r="K39" s="50"/>
     </row>
     <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="47">
         <f>MAX($B$1:B39)+1</f>
         <v>22</v>
@@ -3672,19 +3679,19 @@
       <c r="K40" s="50"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
-      <c r="B41" s="65">
+      <c r="A41" s="60"/>
+      <c r="B41" s="54">
         <f>MAX($B$1:B40)+1</f>
         <v>23</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="64" t="s">
+      <c r="E41" s="54"/>
+      <c r="F41" s="56" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="34" t="s">
@@ -3693,45 +3700,45 @@
       <c r="H41" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="64" t="s">
+      <c r="I41" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="66" t="s">
+      <c r="J41" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="62"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="64"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="34" t="s">
         <v>99</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="64"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="62"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
-      <c r="B43" s="65">
+      <c r="A43" s="60"/>
+      <c r="B43" s="54">
         <f>MAX($B$1:B42)+1</f>
         <v>24</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="64" t="s">
+      <c r="E43" s="55"/>
+      <c r="F43" s="56" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="36" t="s">
@@ -3740,67 +3747,67 @@
       <c r="H43" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="65" t="s">
+      <c r="I43" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="66" t="s">
+      <c r="J43" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="K43" s="62"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="68"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="64"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="36" t="s">
         <v>142</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="62"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="59"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="64"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="36" t="s">
         <v>141</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I45" s="65"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="62"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="59"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="68"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="64"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
       <c r="G46" s="36" t="s">
         <v>140</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="62"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="47">
@@ -3808,10 +3815,10 @@
         <v>25</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="48" t="s">
@@ -3820,81 +3827,81 @@
       <c r="G47" s="36"/>
       <c r="H47" s="34"/>
       <c r="I47" s="51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J47" s="49" t="s">
         <v>158</v>
       </c>
       <c r="K47" s="50"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="65">
+    <row r="48" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="60"/>
+      <c r="B48" s="54">
         <f>MAX($B$1:B47)+1</f>
         <v>26</v>
       </c>
-      <c r="C48" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="64" t="s">
-        <v>242</v>
+      <c r="C48" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="56" t="s">
+        <v>241</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="I48" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="J48" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="K48" s="50"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="60"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="I48" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="J48" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="K48" s="50"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="36" t="s">
+      <c r="H49" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="H49" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55"/>
       <c r="K49" s="50"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="68"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="47">
         <f>MAX($B$1:B48)+1</f>
         <v>27</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I50" s="47"/>
       <c r="J50" s="49" t="s">
@@ -3903,76 +3910,122 @@
       <c r="K50" s="50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="54">
+      <c r="A51" s="61"/>
+      <c r="B51" s="64">
         <f>MAX($B$1:B50)+1</f>
         <v>28</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="D51" s="54" t="s">
+      <c r="C51" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="58" t="s">
-        <v>251</v>
+      <c r="D51" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="70"/>
+      <c r="F51" s="68" t="s">
+        <v>249</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H51" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="J51" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="K51" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="I51" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="J51" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="K51" s="56" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="70"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="59"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="69"/>
       <c r="G52" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="H52" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="57"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K52"/>
   <mergeCells count="108">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A15:A33"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
@@ -3997,71 +4050,25 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="C23:C28"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A15:A33"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4167,7 +4174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4213,7 +4220,7 @@
         <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>207</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -12,7 +12,7 @@
     <sheet name="UI接口" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$54</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0">
+    <comment ref="I23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0">
+    <comment ref="H24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0">
+    <comment ref="H25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -577,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0" shapeId="0">
+    <comment ref="G41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0" shapeId="0">
+    <comment ref="I43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0" shapeId="0">
+    <comment ref="I49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="269">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1564,12 +1564,6 @@
   <si>
     <t>ROLE_ADMIN
 ROLE_INSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_INSIDE_STAFF
-ROLE_ADMIN
-ROLE_INSIDE_MANAGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1763,6 +1757,48 @@
 2）Call in
 name : phonenumber_time   
 eg.   15966832154_895421214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/assign/summary.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/accept/summary.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_INSIDE_STAFF
+ROLE_ADMIN
+ROLE_INSIDE_MANAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_INSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配委案摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收委案摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回collection.protocol.AssignSummary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回collection.protocol.AcceptSummary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2098,7 +2134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2210,109 +2246,115 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2641,11 +2683,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2698,120 +2738,120 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="67">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="67" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="59"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="47">
+      <c r="A4" s="70"/>
+      <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="47">
+      <c r="A5" s="70"/>
+      <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
         <v>215</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="47">
+      <c r="A6" s="70"/>
+      <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="46" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -2820,30 +2860,30 @@
       <c r="H6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="47">
+      <c r="A7" s="70"/>
+      <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="46" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="34" t="s">
@@ -2852,19 +2892,19 @@
       <c r="H7" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="50"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="45">
         <f>MAX($B$1:B7)+1</f>
         <v>6</v>
       </c>
@@ -2880,17 +2920,17 @@
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="50"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="47">
+      <c r="A9" s="70"/>
+      <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
@@ -2906,19 +2946,19 @@
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="47">
+      <c r="A10" s="70"/>
+      <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
@@ -2938,183 +2978,183 @@
       <c r="H10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="48" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="54">
+      <c r="A11" s="70"/>
+      <c r="B11" s="67">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="59"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="47" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="59"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="54">
+      <c r="A13" s="70"/>
+      <c r="B13" s="67">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="59"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="47" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="59"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="67">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="64" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="59"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="47">
+      <c r="A17" s="70"/>
+      <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="46" t="s">
         <v>102</v>
       </c>
       <c r="G17" s="34" t="s">
@@ -3123,32 +3163,32 @@
       <c r="H17" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" s="49" t="s">
+      <c r="I17" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="48" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="47">
+      <c r="A18" s="70"/>
+      <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="46" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="34" t="s">
@@ -3157,33 +3197,33 @@
       <c r="H18" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="J18" s="49" t="s">
+      <c r="I18" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="48" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="54">
+      <c r="A19" s="70"/>
+      <c r="B19" s="67">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="56" t="s">
-        <v>216</v>
+      <c r="F19" s="66" t="s">
+        <v>261</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>147</v>
@@ -3191,806 +3231,904 @@
       <c r="H19" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="59" t="s">
+      <c r="J19" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" s="64" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="56"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="47">
-        <f>MAX($B$1:B19)+1</f>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="64"/>
+    </row>
+    <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="70"/>
+      <c r="B21" s="52">
+        <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
-      <c r="C21" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="49" t="s">
+      <c r="C21" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="50"/>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="47">
+      <c r="K21" s="55"/>
+    </row>
+    <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="70"/>
+      <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="49" t="s">
+      <c r="C22" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="J22" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="50"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="54">
+      <c r="K22" s="55"/>
+    </row>
+    <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="70"/>
+      <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="70"/>
+      <c r="B24" s="45">
+        <f>MAX($B$1:B23)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="48"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="70"/>
+      <c r="B25" s="67">
+        <f>MAX($B$1:B24)+1</f>
+        <v>19</v>
+      </c>
+      <c r="C25" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D25" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E25" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G25" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H25" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I25" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J25" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="59"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="H24" s="34" t="s">
+      <c r="K25" s="64"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="70"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="34" t="s">
+      <c r="H26" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="70"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H27" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="59"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="34" t="s">
+      <c r="I27" s="66"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="70"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="59"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="34" t="s">
+      <c r="I28" s="66"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="64"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="70"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H29" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="59"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="36" t="s">
+      <c r="I29" s="66"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="64"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="70"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="59"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57" t="s">
+      <c r="I30" s="66"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="64"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="70"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58" t="s">
+      <c r="D31" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G31" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H31" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I31" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J31" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="72"/>
-    </row>
-    <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="44" t="s">
+      <c r="K31" s="65"/>
+    </row>
+    <row r="32" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="70"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H32" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" s="74"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="65"/>
+    </row>
+    <row r="33" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="70"/>
+      <c r="B33" s="45">
+        <f>MAX($B$1:B32)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C33" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="72"/>
-    </row>
-    <row r="31" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="47">
-        <f>MAX($B$1:B30)+1</f>
-        <v>18</v>
-      </c>
-      <c r="C31" s="47" t="s">
+      <c r="D33" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="J31" s="49" t="s">
+      <c r="J33" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="K31" s="41"/>
-    </row>
-    <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="54">
-        <f>MAX($B$1:B31)+1</f>
-        <v>19</v>
-      </c>
-      <c r="C32" s="54" t="s">
+      <c r="K33" s="39"/>
+    </row>
+    <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="70"/>
+      <c r="B34" s="67">
+        <f>MAX($B$1:B33)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C34" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D34" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56" t="s">
+      <c r="E34" s="68"/>
+      <c r="F34" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G34" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H34" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I34" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="55" t="s">
+      <c r="J34" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="59"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="36" t="s">
+      <c r="K34" s="64"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="70"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H35" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="59"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+      <c r="I35" s="66"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="64"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="54">
-        <f>MAX($B$1:B33)+1</f>
-        <v>20</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="54" t="s">
+      <c r="B36" s="67">
+        <f>MAX($B$1:B35)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E36" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F36" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G36" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H36" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I36" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="55" t="s">
+      <c r="J36" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K34" s="59"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="36" t="s">
+      <c r="K36" s="64"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="70"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H37" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="59"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="34" t="s">
+      <c r="I37" s="66"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="64"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="70"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H38" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="59"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="34" t="s">
+      <c r="I38" s="66"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="64"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="70"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H39" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="59"/>
-    </row>
-    <row r="38" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38" t="s">
+      <c r="I39" s="66"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="64"/>
+    </row>
+    <row r="40" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="70"/>
+      <c r="B40" s="52">
+        <f>MAX($B$1:B39)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C40" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D40" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G40" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H40" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I40" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="37" t="s">
+      <c r="J40" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="K38" s="41"/>
-    </row>
-    <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="47">
-        <f>MAX($B$1:B38)+1</f>
-        <v>21</v>
-      </c>
-      <c r="C39" s="47" t="s">
+      <c r="K40" s="39"/>
+    </row>
+    <row r="41" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="70"/>
+      <c r="B41" s="45">
+        <f>MAX($B$1:B40)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C41" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D41" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G41" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I41" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="J39" s="49" t="s">
+      <c r="J41" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="50"/>
-    </row>
-    <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="47">
-        <f>MAX($B$1:B39)+1</f>
-        <v>22</v>
-      </c>
-      <c r="C40" s="47" t="s">
+      <c r="K41" s="48"/>
+    </row>
+    <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="70"/>
+      <c r="B42" s="45">
+        <f>MAX($B$1:B41)+1</f>
+        <v>25</v>
+      </c>
+      <c r="C42" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D42" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48" t="s">
+      <c r="E42" s="45"/>
+      <c r="F42" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="48" t="s">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="J40" s="49" t="s">
+      <c r="J42" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="K40" s="50"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
-      <c r="B41" s="54">
-        <f>MAX($B$1:B40)+1</f>
-        <v>23</v>
-      </c>
-      <c r="C41" s="54" t="s">
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="70"/>
+      <c r="B43" s="67">
+        <f>MAX($B$1:B42)+1</f>
+        <v>26</v>
+      </c>
+      <c r="C43" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="56" t="s">
+      <c r="D43" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="67"/>
+      <c r="F43" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G43" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H43" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I43" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="55" t="s">
+      <c r="J43" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="59"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="34" t="s">
+      <c r="K43" s="64"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="70"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="34" t="s">
         <v>99</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="56"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="59"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
-      <c r="B43" s="54">
-        <f>MAX($B$1:B42)+1</f>
-        <v>24</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="J43" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="K43" s="59"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="36" t="s">
-        <v>142</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="59"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="64"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="67">
+        <f>MAX($B$1:B44)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="68"/>
+      <c r="F45" s="66" t="s">
+        <v>17</v>
+      </c>
       <c r="G45" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="64"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="70"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="67"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="64"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="70"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H47" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="59"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="36" t="s">
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="64"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="70"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H48" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="59"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="60" t="s">
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="64"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="47">
-        <f>MAX($B$1:B45)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C47" s="47" t="s">
+      <c r="B49" s="45">
+        <f>MAX($B$1:B47)+1</f>
+        <v>28</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="70"/>
+      <c r="B50" s="67">
+        <f>MAX($B$1:B49)+1</f>
+        <v>29</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I50" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="48"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="70"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I51" s="67"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="48"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="70"/>
+      <c r="B52" s="45">
+        <f>MAX($B$1:B50)+1</f>
+        <v>30</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="D47" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="J47" s="49" t="s">
+      <c r="H52" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="45"/>
+      <c r="J52" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="K47" s="50"/>
-    </row>
-    <row r="48" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
-      <c r="B48" s="54">
-        <f>MAX($B$1:B47)+1</f>
-        <v>26</v>
-      </c>
-      <c r="C48" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" s="54" t="s">
+      <c r="K52" s="48"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="71"/>
+      <c r="B53" s="56">
+        <f>MAX($B$1:B52)+1</f>
+        <v>31</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" s="62"/>
+      <c r="F53" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="I53" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="56" t="s">
+      <c r="J53" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="K53" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="72"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="G48" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="I48" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="J48" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="K48" s="50"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="60"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="54"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="50"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="47">
-        <f>MAX($B$1:B48)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="I50" s="47"/>
-      <c r="J50" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="K50" s="50"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
-      <c r="B51" s="64">
-        <f>MAX($B$1:B50)+1</f>
-        <v>28</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="I51" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="J51" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="K51" s="66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="62"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="42" t="s">
+      <c r="H54" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="67"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="59"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K52"/>
+  <autoFilter ref="A1:K54"/>
   <mergeCells count="108">
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A15:A35"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="I25:I30"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
@@ -4002,73 +4140,30 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A15:A33"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4077,7 +4172,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J34:J43 J21:J24 J47:J48 J29:J32 J50:J51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J36:J45 J49:J50 J31:J34 J52:J53 J21:J26">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4127,7 +4222,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>214</v>
       </c>
       <c r="B2" s="31">
@@ -4137,7 +4232,7 @@
         <v>212</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>201</v>
@@ -4145,12 +4240,12 @@
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>211</v>
@@ -4209,10 +4304,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
@@ -4220,7 +4315,7 @@
         <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>207</v>
@@ -4228,8 +4323,8 @@
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="46">
+      <c r="A3" s="79"/>
+      <c r="B3" s="44">
         <f>MAX($B$1:B2)+1</f>
         <v>2001</v>
       </c>
@@ -4245,7 +4340,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="77" t="s">
         <v>168</v>
       </c>
       <c r="B4" s="22">
@@ -4266,7 +4361,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="22">
         <f>MAX($B$1:B4)+1</f>
         <v>2003</v>
@@ -4285,7 +4380,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="22">
         <f>MAX($B$1:B5)+1</f>
         <v>2004</v>
@@ -4304,8 +4399,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="75" t="s">
-        <v>226</v>
+      <c r="A7" s="77" t="s">
+        <v>225</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
@@ -4323,16 +4418,16 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="22">
         <f>MAX($B$1:B7)+1</f>
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>104</v>
@@ -4340,7 +4435,7 @@
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="22">
         <f>MAX($B$1:B8)+1</f>
         <v>2007</v>
@@ -4357,7 +4452,7 @@
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="22">
         <f>MAX($B$1:B9)+1</f>
         <v>2008</v>
@@ -4374,7 +4469,7 @@
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="22">
         <f>MAX($B$1:B10)+1</f>
         <v>2009</v>
@@ -4391,7 +4486,7 @@
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="22">
         <f>MAX($B$1:B11)+1</f>
         <v>2010</v>
@@ -4408,7 +4503,7 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="22">
         <f>MAX($B$1:B12)+1</f>
         <v>2011</v>
@@ -4425,7 +4520,7 @@
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="22">
         <f>MAX($B$1:B13)+1</f>
         <v>2012</v>
@@ -4434,7 +4529,7 @@
         <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>201</v>
@@ -4442,7 +4537,7 @@
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="22">
         <f>MAX($B$1:B14)+1</f>
         <v>2013</v>
@@ -4459,7 +4554,7 @@
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="78" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="22">
@@ -4478,7 +4573,7 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="22">
         <f>MAX($B$1:B16)+1</f>
         <v>2015</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="UI接口" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -577,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0" shapeId="0">
+    <comment ref="G38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="0" shapeId="0">
+    <comment ref="I40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I49" authorId="0" shapeId="0">
+    <comment ref="I46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="265">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,10 +691,6 @@
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrusted_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -766,10 +762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>委案id [opt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,10 +787,6 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇报日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -995,22 +983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>文字消息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> [opt]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/entrusted_case/report/download.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1323,10 +1295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附件文件[opt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回该角色可访问的接口id列表 管理员配置角色权限使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1391,10 +1359,6 @@
   </si>
   <si>
     <t>可以显示 已接受委案数 未完成委案 未回复委案咨询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑所有委案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1471,19 +1435,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ec/import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/ec/ask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/ec/assign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ec/backup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1509,10 +1465,6 @@
   <si>
     <t>ROLE_OUTSIDE_STAFF
 ROLE_OUTSIDE_MANAGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/console/summary/manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1625,10 +1577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ec/edit/owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发送消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1722,10 +1670,6 @@
   </si>
   <si>
     <t>返回呼入电话录音列表 PhoneRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/nav/tips/missed_call</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1801,12 +1745,40 @@
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>附件文件[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ec/import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑所有委案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/nav/tips/missed_call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/console/summary/manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ec/edit/owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ec/backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1859,13 +1831,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <strike/>
       <sz val="9"/>
       <color theme="1"/>
@@ -2242,13 +2207,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,7 +2222,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2299,6 +2264,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2323,38 +2318,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2683,9 +2648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2704,1431 +2671,1337 @@
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="67">
+      <c r="A2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="57">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="67" t="s">
+      <c r="C2" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="67" t="s">
-        <v>102</v>
+      <c r="F2" s="57" t="s">
+        <v>98</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="64"/>
+      <c r="I2" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="64"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>42</v>
-      </c>
       <c r="G6" s="34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>69</v>
-      </c>
       <c r="J7" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
-        <v>57</v>
+      <c r="A8" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="45">
         <f>MAX($B$1:B7)+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>45</v>
-      </c>
       <c r="H10" s="34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="67">
+      <c r="A11" s="62"/>
+      <c r="B11" s="57">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="62"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="67" t="s">
+      <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="64"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="64"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="67">
+      <c r="A13" s="62"/>
+      <c r="B13" s="57">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="67" t="s">
+      <c r="F13" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="61"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="64"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="64"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="67">
+      <c r="A15" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="57">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>104</v>
+      <c r="C15" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="64" t="s">
-        <v>146</v>
+        <v>102</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="64"/>
+        <v>144</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="61"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="67">
+      <c r="A19" s="62"/>
+      <c r="B19" s="57">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="67" t="s">
+      <c r="C19" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="67" t="s">
+      <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="K19" s="64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="64"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="61"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
-      <c r="B25" s="67">
+      <c r="A25" s="62"/>
+      <c r="B25" s="57">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="67" t="s">
+      <c r="C25" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="61"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="62"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="56"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="61"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="62"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I27" s="56"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="61"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="62"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="H29" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="60"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="62"/>
+      <c r="B30" s="45">
+        <f>MAX($B$1:B29)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" s="39"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="62"/>
+      <c r="B31" s="57">
+        <f>MAX($B$1:B30)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="58"/>
+      <c r="F31" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="61"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="62"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="61"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="57">
+        <f>MAX($B$1:B32)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="61"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="62"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="61"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="56"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="61"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="61"/>
+    </row>
+    <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
+      <c r="B37" s="52">
+        <f>MAX($B$1:B36)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="39"/>
+    </row>
+    <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="62"/>
+      <c r="B38" s="45">
+        <f>MAX($B$1:B37)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="62"/>
+      <c r="B39" s="45">
+        <f>MAX($B$1:B38)+1</f>
+        <v>25</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
+      <c r="B40" s="57">
+        <f>MAX($B$1:B39)+1</f>
+        <v>26</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="57"/>
+      <c r="F40" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="61"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="62"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="61"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="62"/>
+      <c r="B42" s="57">
+        <f>MAX($B$1:B41)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="J42" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" s="61"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="62"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="61"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="62"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="61"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="62"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="61"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="45">
+        <f>MAX($B$1:B44)+1</f>
         <v>28</v>
       </c>
-      <c r="H25" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="64"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="64"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="64"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="64"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="34" t="s">
+      <c r="C46" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46" s="48"/>
+    </row>
+    <row r="47" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
+      <c r="B47" s="57">
+        <f>MAX($B$1:B46)+1</f>
         <v>29</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="64"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="64"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="I32" s="74"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="65"/>
-    </row>
-    <row r="33" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
-      <c r="B33" s="45">
-        <f>MAX($B$1:B32)+1</f>
-        <v>20</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="45" t="s">
+      <c r="C47" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="57"/>
+      <c r="F47" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="46" t="s">
+      <c r="H47" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="J47" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="48"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="62"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="J33" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="K33" s="39"/>
-    </row>
-    <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
-      <c r="B34" s="67">
-        <f>MAX($B$1:B33)+1</f>
-        <v>21</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34" s="64"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="70"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="I35" s="66"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="64"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="67">
-        <f>MAX($B$1:B35)+1</f>
-        <v>22</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="64"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="64"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="70"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="64"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="70"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="64"/>
-    </row>
-    <row r="40" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="70"/>
-      <c r="B40" s="52">
-        <f>MAX($B$1:B39)+1</f>
-        <v>23</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="K40" s="39"/>
-    </row>
-    <row r="41" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="70"/>
-      <c r="B41" s="45">
-        <f>MAX($B$1:B40)+1</f>
-        <v>24</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="K41" s="48"/>
-    </row>
-    <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="70"/>
-      <c r="B42" s="45">
-        <f>MAX($B$1:B41)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="J42" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="70"/>
-      <c r="B43" s="67">
-        <f>MAX($B$1:B42)+1</f>
-        <v>26</v>
-      </c>
-      <c r="C43" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I43" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K43" s="64"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="70"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I44" s="66"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="64"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="70"/>
-      <c r="B45" s="67">
-        <f>MAX($B$1:B44)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C45" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="68"/>
-      <c r="F45" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="I45" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="64"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="70"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="64"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="70"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="64"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="70"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="36" t="s">
-        <v>140</v>
-      </c>
       <c r="H48" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="64"/>
+        <v>223</v>
+      </c>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="70" t="s">
-        <v>36</v>
-      </c>
+      <c r="A49" s="62"/>
       <c r="B49" s="45">
         <f>MAX($B$1:B47)+1</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="49" t="s">
-        <v>251</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49" s="45"/>
       <c r="J49" s="47" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K49" s="48"/>
     </row>
-    <row r="50" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="70"/>
-      <c r="B50" s="67">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="63"/>
+      <c r="B50" s="66">
         <f>MAX($B$1:B49)+1</f>
-        <v>29</v>
-      </c>
-      <c r="C50" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="D50" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="66" t="s">
-        <v>240</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>258</v>
+        <v>31</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="72"/>
+      <c r="F50" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>237</v>
       </c>
       <c r="I50" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="J50" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="K50" s="48"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="70"/>
+        <v>235</v>
+      </c>
+      <c r="J50" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="64"/>
       <c r="B51" s="67"/>
       <c r="C51" s="67"/>
       <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="36" t="s">
+      <c r="E51" s="73"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="H51" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="H51" s="34" t="s">
-        <v>233</v>
-      </c>
       <c r="I51" s="67"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="48"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="70"/>
-      <c r="B52" s="45">
-        <f>MAX($B$1:B50)+1</f>
-        <v>30</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="I52" s="45"/>
-      <c r="J52" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="K52" s="48"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="56">
-        <f>MAX($B$1:B52)+1</f>
-        <v>31</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="62"/>
-      <c r="F53" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="G53" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="H53" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="I53" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="J53" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="K53" s="58" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="59"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K54"/>
+  <autoFilter ref="A1:K51"/>
   <mergeCells count="108">
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:F51"/>
     <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A36:A48"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A15:A35"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J34:J35"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
@@ -4140,30 +4013,73 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4172,7 +4088,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J36:J45 J49:J50 J31:J34 J52:J53 J21:J26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J33:J42 J46:J47 J28:J31 J49:J50 J21:J26">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4203,39 +4119,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -4245,13 +4161,13 @@
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="19"/>
     </row>
@@ -4269,9 +4185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4285,40 +4199,40 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="43">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -4329,35 +4243,35 @@
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="22">
         <f>MAX($B$1:B3)+1</f>
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
@@ -4367,16 +4281,16 @@
         <v>2003</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4386,34 +4300,34 @@
         <v>2004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -4424,13 +4338,13 @@
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -4441,13 +4355,13 @@
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -4458,13 +4372,13 @@
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -4475,13 +4389,13 @@
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -4492,13 +4406,13 @@
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4509,13 +4423,13 @@
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -4526,13 +4440,13 @@
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -4543,32 +4457,32 @@
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -4579,32 +4493,32 @@
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="9"/>
     </row>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -1362,10 +1362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ec/edit/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/ec/report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1771,6 +1767,10 @@
   </si>
   <si>
     <t>/ec/backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ec/edit/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2264,6 +2264,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2274,52 +2304,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2705,54 +2705,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="67">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="67" t="s">
         <v>98</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="61"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -2778,7 +2778,7 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -2804,7 +2804,7 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -2836,7 +2836,7 @@
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2868,7 +2868,7 @@
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="70" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -2896,7 +2896,7 @@
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2924,7 +2924,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -2956,21 +2956,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="57">
+      <c r="A11" s="70"/>
+      <c r="B11" s="67">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="66" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -2979,47 +2979,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="61"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="61"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="57">
+      <c r="A13" s="70"/>
+      <c r="B13" s="67">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="66" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3028,49 +3028,49 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="61"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="61"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="67">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="45" t="s">
@@ -3079,35 +3079,35 @@
       <c r="H15" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="64" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="34" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="61"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3131,7 +3131,7 @@
         <v>83</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J17" s="47" t="s">
         <v>108</v>
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3165,7 +3165,7 @@
         <v>84</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>108</v>
@@ -3175,22 +3175,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="57">
+      <c r="A19" s="70"/>
+      <c r="B19" s="67">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="56" t="s">
-        <v>250</v>
+      <c r="F19" s="66" t="s">
+        <v>249</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>143</v>
@@ -3198,53 +3198,53 @@
       <c r="H19" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="K19" s="61" t="s">
+      <c r="J19" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="64" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="61"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>107</v>
@@ -3252,25 +3252,25 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>107</v>
@@ -3278,7 +3278,7 @@
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
@@ -3304,7 +3304,7 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
@@ -3336,21 +3336,21 @@
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="57">
+      <c r="A25" s="70"/>
+      <c r="B25" s="67">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="66" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -3359,59 +3359,59 @@
       <c r="H25" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="58" t="s">
+      <c r="J25" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="61"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="61"/>
+        <v>243</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="61"/>
+        <v>257</v>
+      </c>
+      <c r="I27" s="66"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60" t="s">
+      <c r="D28" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -3420,51 +3420,51 @@
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="65" t="s">
+      <c r="J28" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="74"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="74"/>
+        <v>209</v>
+      </c>
+      <c r="I29" s="74"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="65"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
       </c>
       <c r="C30" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="45" t="s">
         <v>211</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>212</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J30" s="47" t="s">
         <v>153</v>
@@ -3472,19 +3472,19 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="62"/>
-      <c r="B31" s="57">
+      <c r="A31" s="70"/>
+      <c r="B31" s="67">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="56" t="s">
+      <c r="E31" s="68"/>
+      <c r="F31" s="66" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="36" t="s">
@@ -3493,49 +3493,49 @@
       <c r="H31" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="58" t="s">
+      <c r="J31" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="61"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="56"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="36" t="s">
         <v>148</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="61"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="67">
         <f>MAX($B$1:B32)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="57" t="s">
+      <c r="C33" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="66" t="s">
         <v>120</v>
       </c>
       <c r="G33" s="36" t="s">
@@ -3544,67 +3544,67 @@
       <c r="H33" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="58" t="s">
+      <c r="J33" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="61"/>
+      <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="56"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="66"/>
       <c r="G34" s="36" t="s">
         <v>87</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="61"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="56"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="34" t="s">
         <v>134</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="61"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="56"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="61"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="52">
         <f>MAX($B$1:B36)+1</f>
         <v>23</v>
@@ -3634,7 +3634,7 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="45">
         <f>MAX($B$1:B37)+1</f>
         <v>24</v>
@@ -3664,7 +3664,7 @@
       <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="45">
         <f>MAX($B$1:B38)+1</f>
         <v>25</v>
@@ -3690,19 +3690,19 @@
       <c r="K39" s="48"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="57">
+      <c r="A40" s="70"/>
+      <c r="B40" s="67">
         <f>MAX($B$1:B39)+1</f>
         <v>26</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="56" t="s">
+      <c r="D40" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="67"/>
+      <c r="F40" s="66" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="34" t="s">
@@ -3711,45 +3711,45 @@
       <c r="H40" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="56" t="s">
+      <c r="I40" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="J40" s="58" t="s">
+      <c r="J40" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="61"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="56"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="66"/>
       <c r="G41" s="34" t="s">
         <v>95</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="61"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="64"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="62"/>
-      <c r="B42" s="57">
+      <c r="A42" s="70"/>
+      <c r="B42" s="67">
         <f>MAX($B$1:B41)+1</f>
         <v>27</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="56" t="s">
+      <c r="E42" s="68"/>
+      <c r="F42" s="66" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="36" t="s">
@@ -3758,67 +3758,67 @@
       <c r="H42" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="I42" s="57" t="s">
+      <c r="I42" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J42" s="58" t="s">
+      <c r="J42" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="K42" s="61"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="62"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="56"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="36" t="s">
         <v>138</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="61"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="62"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="56"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="36" t="s">
         <v>137</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="61"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="64"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="62"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="56"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="36" t="s">
         <v>136</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="61"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="64"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="45">
@@ -3826,10 +3826,10 @@
         <v>28</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E46" s="45"/>
       <c r="F46" s="46" t="s">
@@ -3838,7 +3838,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="34"/>
       <c r="I46" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J46" s="47" t="s">
         <v>153</v>
@@ -3846,73 +3846,73 @@
       <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="57">
+      <c r="A47" s="70"/>
+      <c r="B47" s="67">
         <f>MAX($B$1:B46)+1</f>
         <v>29</v>
       </c>
-      <c r="C47" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="56" t="s">
-        <v>230</v>
+      <c r="C47" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="67"/>
+      <c r="F47" s="66" t="s">
+        <v>229</v>
       </c>
       <c r="G47" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="I47" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="J47" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="48"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="70"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I47" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="J47" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="K47" s="48"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="62"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="36" t="s">
+      <c r="H48" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="H48" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="58"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
       <c r="K48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="45">
         <f>MAX($B$1:B47)+1</f>
         <v>30</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I49" s="45"/>
       <c r="J49" s="47" t="s">
@@ -3921,57 +3921,141 @@
       <c r="K49" s="48"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
-      <c r="B50" s="66">
+      <c r="A50" s="71"/>
+      <c r="B50" s="56">
         <f>MAX($B$1:B49)+1</f>
         <v>31</v>
       </c>
-      <c r="C50" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="D50" s="66" t="s">
+      <c r="C50" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="70" t="s">
+      <c r="D50" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="62"/>
+      <c r="F50" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="J50" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="G50" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="I50" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="J50" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="K50" s="68" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="51" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="64"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="71"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="H51" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H51" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="69"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K51"/>
   <mergeCells count="108">
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="K50:K51"/>
@@ -3996,90 +4080,6 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4139,19 +4139,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -4161,10 +4161,10 @@
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -4229,10 +4229,10 @@
         <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -4243,13 +4243,13 @@
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="18"/>
     </row>
@@ -4268,10 +4268,10 @@
         <v>164</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
@@ -4287,7 +4287,7 @@
         <v>165</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>168</v>
@@ -4303,7 +4303,7 @@
         <v>167</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
@@ -4314,20 +4314,20 @@
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -4338,10 +4338,10 @@
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>100</v>
@@ -4355,10 +4355,10 @@
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>100</v>
@@ -4372,10 +4372,10 @@
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>25</v>
@@ -4389,10 +4389,10 @@
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>100</v>
@@ -4406,10 +4406,10 @@
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>100</v>
@@ -4423,13 +4423,13 @@
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -4440,13 +4440,13 @@
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -4457,32 +4457,32 @@
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -4493,29 +4493,29 @@
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>180</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>181</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>25</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="UI接口" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -604,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0" shapeId="0">
+    <comment ref="I41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" shapeId="0">
+    <comment ref="I47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="270">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1315,14 +1315,6 @@
   </si>
   <si>
     <t>/message/unread_messages.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取未读消息信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有未读消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1771,6 +1763,34 @@
   </si>
   <si>
     <t>/ec/edit/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/send_messages.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取未读消息信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已发送的消息信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有未读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有已发送的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read[opt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2099,7 +2119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2264,6 +2284,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2288,38 +2350,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2648,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2705,54 +2737,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="61">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="61" t="s">
         <v>98</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="64"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="64"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -2778,7 +2810,7 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2791,7 +2823,7 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -2804,7 +2836,7 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -2836,7 +2868,7 @@
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2868,7 +2900,7 @@
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="66" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -2896,7 +2928,7 @@
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2924,7 +2956,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -2956,21 +2988,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="67">
+      <c r="A11" s="66"/>
+      <c r="B11" s="61">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="60" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -2979,47 +3011,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="64"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="66"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="64"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="67">
+      <c r="A13" s="66"/>
+      <c r="B13" s="61">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="60" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3028,49 +3060,49 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="64"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="66"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="64"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="61">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="61" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="45" t="s">
@@ -3079,35 +3111,35 @@
       <c r="H15" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="65" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="34" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="64"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3131,7 +3163,7 @@
         <v>83</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J17" s="47" t="s">
         <v>108</v>
@@ -3141,7 +3173,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3150,7 +3182,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>81</v>
@@ -3165,7 +3197,7 @@
         <v>84</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>108</v>
@@ -3175,22 +3207,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="67">
+      <c r="A19" s="66"/>
+      <c r="B19" s="61">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="66" t="s">
-        <v>249</v>
+      <c r="F19" s="60" t="s">
+        <v>247</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>143</v>
@@ -3198,53 +3230,53 @@
       <c r="H19" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="K19" s="64" t="s">
+      <c r="J19" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="65" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="66"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="64"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>107</v>
@@ -3252,25 +3284,25 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>107</v>
@@ -3278,7 +3310,7 @@
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
@@ -3304,7 +3336,7 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
@@ -3336,21 +3368,21 @@
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
-      <c r="B25" s="67">
+      <c r="A25" s="66"/>
+      <c r="B25" s="61">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="60" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -3359,59 +3391,59 @@
       <c r="H25" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="66" t="s">
+      <c r="I25" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="66"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="64"/>
+        <v>241</v>
+      </c>
+      <c r="I26" s="60"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="66"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="64"/>
+        <v>255</v>
+      </c>
+      <c r="I27" s="60"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74" t="s">
+      <c r="D28" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -3420,51 +3452,51 @@
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="64" t="s">
         <v>73</v>
       </c>
       <c r="J28" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="65"/>
+      <c r="K28" s="78"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" s="74"/>
+        <v>207</v>
+      </c>
+      <c r="I29" s="64"/>
       <c r="J29" s="69"/>
-      <c r="K29" s="65"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J30" s="47" t="s">
         <v>153</v>
@@ -3472,19 +3504,19 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
-      <c r="B31" s="67">
+      <c r="A31" s="66"/>
+      <c r="B31" s="61">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="66" t="s">
+      <c r="E31" s="62"/>
+      <c r="F31" s="60" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="36" t="s">
@@ -3493,49 +3525,49 @@
       <c r="H31" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="68" t="s">
+      <c r="J31" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="64"/>
+      <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="66"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="36" t="s">
         <v>148</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="64"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="65"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="61">
         <f>MAX($B$1:B32)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="67" t="s">
+      <c r="C33" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="60" t="s">
         <v>120</v>
       </c>
       <c r="G33" s="36" t="s">
@@ -3544,67 +3576,67 @@
       <c r="H33" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="J33" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="64"/>
+      <c r="K33" s="65"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="66"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="36" t="s">
         <v>87</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="64"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="70"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="66"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="34" t="s">
         <v>134</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="66"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="64"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="65"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="66"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="64"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="52">
         <f>MAX($B$1:B36)+1</f>
         <v>23</v>
@@ -3634,7 +3666,7 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="70"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="45">
         <f>MAX($B$1:B37)+1</f>
         <v>24</v>
@@ -3663,340 +3695,409 @@
       </c>
       <c r="K38" s="48"/>
     </row>
-    <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="70"/>
-      <c r="B39" s="45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="J39" s="59"/>
+      <c r="K39" s="56"/>
+    </row>
+    <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="66"/>
+      <c r="B40" s="45">
         <f>MAX($B$1:B38)+1</f>
         <v>25</v>
       </c>
-      <c r="C39" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="45" t="s">
+      <c r="C40" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="J39" s="47" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="J40" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="K39" s="48"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="70"/>
-      <c r="B40" s="67">
-        <f>MAX($B$1:B39)+1</f>
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="66"/>
+      <c r="B41" s="61">
+        <f>MAX($B$1:B40)+1</f>
         <v>26</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C41" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="66" t="s">
+      <c r="D41" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G41" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H41" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="66" t="s">
+      <c r="I41" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="J40" s="68" t="s">
+      <c r="J41" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="64"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="70"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="34" t="s">
+      <c r="K41" s="65"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="66"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H42" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="64"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="70"/>
-      <c r="B42" s="67">
-        <f>MAX($B$1:B41)+1</f>
+      <c r="I42" s="60"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="65"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="66"/>
+      <c r="B43" s="61">
+        <f>MAX($B$1:B42)+1</f>
         <v>27</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C43" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D43" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="66" t="s">
+      <c r="E43" s="62"/>
+      <c r="F43" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G43" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H43" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="I42" s="67" t="s">
+      <c r="I43" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="J42" s="68" t="s">
+      <c r="J43" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K42" s="64"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="70"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="36" t="s">
+      <c r="K43" s="65"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="66"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H43" s="34" t="s">
+      <c r="H44" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="64"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="70"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="36" t="s">
+      <c r="I44" s="61"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="65"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="66"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H45" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="67"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="64"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="70"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="36" t="s">
+      <c r="I45" s="61"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="65"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="66"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H46" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="64"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="70" t="s">
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="65"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="45">
-        <f>MAX($B$1:B44)+1</f>
+      <c r="B47" s="45">
+        <f>MAX($B$1:B45)+1</f>
         <v>28</v>
       </c>
-      <c r="C46" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="D46" s="45" t="s">
+      <c r="C47" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="J47" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="48"/>
+    </row>
+    <row r="48" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="66"/>
+      <c r="B48" s="61">
+        <f>MAX($B$1:B47)+1</f>
+        <v>29</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="61"/>
+      <c r="F48" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="I48" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="J48" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="K48" s="48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="66"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I49" s="61"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="66"/>
+      <c r="B50" s="45">
+        <f>MAX($B$1:B48)+1</f>
+        <v>30</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="45"/>
+      <c r="J50" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="48"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="67"/>
+      <c r="B51" s="70">
+        <f>MAX($B$1:B50)+1</f>
+        <v>31</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="76"/>
+      <c r="F51" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="J46" s="47" t="s">
+      <c r="J51" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="K46" s="48"/>
-    </row>
-    <row r="47" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="70"/>
-      <c r="B47" s="67">
-        <f>MAX($B$1:B46)+1</f>
-        <v>29</v>
-      </c>
-      <c r="C47" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="66" t="s">
+      <c r="K51" s="72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="68"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="H52" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="I47" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="J47" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="K47" s="48"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="70"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="70"/>
-      <c r="B49" s="45">
-        <f>MAX($B$1:B47)+1</f>
-        <v>30</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I49" s="45"/>
-      <c r="J49" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="K49" s="48"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="56">
-        <f>MAX($B$1:B49)+1</f>
-        <v>31</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="I50" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="J50" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="K50" s="58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="59"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K51"/>
+  <autoFilter ref="A1:K52"/>
   <mergeCells count="108">
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I41:I42"/>
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="F33:F36"/>
     <mergeCell ref="A2:A7"/>
@@ -4015,71 +4116,25 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4088,7 +4143,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J33:J42 J46:J47 J28:J31 J49:J50 J21:J26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J33:J43 J47:J48 J28:J31 J50:J51 J21:J26">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4138,33 +4193,33 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
-        <v>204</v>
+      <c r="A2" s="79" t="s">
+        <v>202</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -4185,7 +4240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4218,130 +4273,130 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>162</v>
+      <c r="A2" s="82" t="s">
+        <v>160</v>
       </c>
       <c r="B2" s="43">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="44">
         <f>MAX($B$1:B2)+1</f>
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
-        <v>163</v>
+      <c r="A4" s="81" t="s">
+        <v>161</v>
       </c>
       <c r="B4" s="22">
         <f>MAX($B$1:B3)+1</f>
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="22">
         <f>MAX($B$1:B4)+1</f>
         <v>2003</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="22">
         <f>MAX($B$1:B5)+1</f>
         <v>2004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
-        <v>215</v>
+      <c r="A7" s="81" t="s">
+        <v>213</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="22">
         <f>MAX($B$1:B7)+1</f>
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>100</v>
@@ -4349,16 +4404,16 @@
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="22">
         <f>MAX($B$1:B8)+1</f>
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>100</v>
@@ -4366,16 +4421,16 @@
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="22">
         <f>MAX($B$1:B9)+1</f>
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>25</v>
@@ -4383,16 +4438,16 @@
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="22">
         <f>MAX($B$1:B10)+1</f>
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>100</v>
@@ -4400,16 +4455,16 @@
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="22">
         <f>MAX($B$1:B11)+1</f>
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>100</v>
@@ -4417,105 +4472,105 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="22">
         <f>MAX($B$1:B12)+1</f>
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="22">
         <f>MAX($B$1:B13)+1</f>
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="22">
         <f>MAX($B$1:B14)+1</f>
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
-        <v>178</v>
+      <c r="A16" s="82" t="s">
+        <v>176</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="22">
         <f>MAX($B$1:B16)+1</f>
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>25</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="272">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1139,10 +1139,6 @@
   </si>
   <si>
     <t>/account/search.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1791,6 +1787,18 @@
   </si>
   <si>
     <t>read[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称列表[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2296,6 +2304,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2306,52 +2344,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2682,9 +2690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2737,54 +2743,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="71">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="71" t="s">
         <v>98</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -2810,7 +2816,7 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2823,12 +2829,16 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+        <v>202</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>270</v>
+      </c>
       <c r="I5" s="45" t="s">
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>107</v>
@@ -2836,16 +2846,16 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>115</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>116</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>36</v>
@@ -2868,7 +2878,7 @@
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2900,7 +2910,7 @@
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="74" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -2928,7 +2938,7 @@
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2946,17 +2956,17 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>107</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -2978,31 +2988,31 @@
         <v>43</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J10" s="47" t="s">
         <v>107</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="61">
+      <c r="A11" s="74"/>
+      <c r="B11" s="71">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="70" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3011,47 +3021,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="65"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="61">
+      <c r="A13" s="74"/>
+      <c r="B13" s="71">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="70" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3060,49 +3070,49 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="65"/>
+      <c r="K13" s="68"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="65"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="71">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="71" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="45" t="s">
@@ -3111,35 +3121,35 @@
       <c r="H15" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="65" t="s">
-        <v>142</v>
+      <c r="K15" s="68" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="34" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="65"/>
+        <v>143</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3163,17 +3173,17 @@
         <v>83</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J17" s="47" t="s">
         <v>108</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3182,7 +3192,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>81</v>
@@ -3197,86 +3207,86 @@
         <v>84</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>108</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="61">
+      <c r="A19" s="74"/>
+      <c r="B19" s="71">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="61" t="s">
+      <c r="C19" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>247</v>
+      <c r="F19" s="70" t="s">
+        <v>246</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="K19" s="65" t="s">
-        <v>142</v>
+      <c r="J19" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="65"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="68"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>107</v>
@@ -3284,25 +3294,25 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>107</v>
@@ -3310,13 +3320,13 @@
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>28</v>
@@ -3336,16 +3346,16 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
       </c>
       <c r="C24" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>122</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>123</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>1</v>
@@ -3368,275 +3378,275 @@
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="61">
+      <c r="A25" s="74"/>
+      <c r="B25" s="71">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="70" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="62" t="s">
+      <c r="J25" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="65"/>
+      <c r="K25" s="68"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="65"/>
+        <v>240</v>
+      </c>
+      <c r="I26" s="70"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="60"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="65"/>
+        <v>254</v>
+      </c>
+      <c r="I27" s="70"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="68"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="69" t="s">
+      <c r="J28" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="78"/>
+      <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="78"/>
+        <v>206</v>
+      </c>
+      <c r="I29" s="78"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
       </c>
       <c r="C30" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="45" t="s">
         <v>208</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>209</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="61">
+      <c r="A31" s="74"/>
+      <c r="B31" s="71">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="60" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="70" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="68"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H31" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="65"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="68"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="71">
         <f>MAX($B$1:B32)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="61" t="s">
+      <c r="C33" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="60" t="s">
-        <v>120</v>
+      <c r="F33" s="70" t="s">
+        <v>119</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="62" t="s">
+      <c r="J33" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="65"/>
+      <c r="K33" s="68"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="60"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="36" t="s">
         <v>87</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="60"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="65"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="60"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="65"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="68"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="34" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="65"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="52">
         <f>MAX($B$1:B36)+1</f>
         <v>23</v>
@@ -3645,11 +3655,11 @@
         <v>94</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>91</v>
@@ -3666,13 +3676,13 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="45">
         <f>MAX($B$1:B37)+1</f>
         <v>24</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="45" t="s">
         <v>104</v>
@@ -3682,7 +3692,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>24</v>
@@ -3696,39 +3706,39 @@
       <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E39" s="58"/>
       <c r="F39" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J39" s="59"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="45">
         <f>MAX($B$1:B38)+1</f>
         <v>25</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
@@ -3737,27 +3747,27 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J40" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K40" s="48"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
-      <c r="B41" s="61">
+      <c r="A41" s="74"/>
+      <c r="B41" s="71">
         <f>MAX($B$1:B40)+1</f>
         <v>26</v>
       </c>
-      <c r="C41" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="60" t="s">
+      <c r="C41" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="70" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="34" t="s">
@@ -3766,114 +3776,114 @@
       <c r="H41" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="60" t="s">
+      <c r="I41" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="J41" s="62" t="s">
+      <c r="J41" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="65"/>
+      <c r="K41" s="68"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="60"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="70"/>
       <c r="G42" s="34" t="s">
         <v>95</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="65"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="61">
+      <c r="A43" s="74"/>
+      <c r="B43" s="71">
         <f>MAX($B$1:B42)+1</f>
         <v>27</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="60" t="s">
+      <c r="E43" s="72"/>
+      <c r="F43" s="70" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="I43" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="J43" s="62" t="s">
+      <c r="I43" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="K43" s="65"/>
+      <c r="K43" s="68"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="60"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I44" s="61"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="65"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="68"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="60"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="70"/>
       <c r="G45" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="65"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="68"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="60"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="65"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="68"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="74" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="45">
@@ -3881,152 +3891,236 @@
         <v>28</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="34"/>
       <c r="I47" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K47" s="48"/>
     </row>
     <row r="48" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="61">
+      <c r="A48" s="74"/>
+      <c r="B48" s="71">
         <f>MAX($B$1:B47)+1</f>
         <v>29</v>
       </c>
-      <c r="C48" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="60" t="s">
-        <v>227</v>
+      <c r="C48" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="71"/>
+      <c r="F48" s="70" t="s">
+        <v>226</v>
       </c>
       <c r="G48" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="I48" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="K48" s="48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="74"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="H48" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="I48" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="J48" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="K48" s="48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="36" t="s">
+      <c r="H49" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="H49" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="I49" s="61"/>
-      <c r="J49" s="62"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="72"/>
       <c r="K49" s="48"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="45">
         <f>MAX($B$1:B48)+1</f>
         <v>30</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I50" s="45"/>
       <c r="J50" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K50" s="48"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
-      <c r="B51" s="70">
+      <c r="A51" s="75"/>
+      <c r="B51" s="60">
         <f>MAX($B$1:B50)+1</f>
         <v>31</v>
       </c>
-      <c r="C51" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="D51" s="70" t="s">
+      <c r="C51" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="74" t="s">
+      <c r="D51" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="I51" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="J51" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="K51" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="J51" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="K51" s="72" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="68"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="75"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H52" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="H52" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="73"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K52"/>
   <mergeCells count="108">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
@@ -4051,90 +4145,6 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4194,19 +4204,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -4216,10 +4226,10 @@
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -4274,20 +4284,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="43">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -4298,35 +4308,35 @@
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="22">
         <f>MAX($B$1:B3)+1</f>
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
@@ -4336,16 +4346,16 @@
         <v>2003</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4355,34 +4365,34 @@
         <v>2004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -4393,10 +4403,10 @@
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>100</v>
@@ -4410,10 +4420,10 @@
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>100</v>
@@ -4427,10 +4437,10 @@
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>25</v>
@@ -4444,10 +4454,10 @@
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>100</v>
@@ -4461,10 +4471,10 @@
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>100</v>
@@ -4478,13 +4488,13 @@
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -4495,13 +4505,13 @@
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -4512,32 +4522,32 @@
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -4548,29 +4558,29 @@
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>177</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>178</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>25</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -1082,10 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROLE_INSIDE_STAFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1151,10 +1147,6 @@
   </si>
   <si>
     <t>委案导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/entrusted_case/import.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1799,6 +1791,14 @@
   </si>
   <si>
     <t>返回所有用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/import.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2304,6 +2304,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2328,38 +2358,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2736,70 +2736,70 @@
         <v>59</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="61">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="61" t="s">
         <v>98</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="68"/>
+      <c r="J2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="68"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>111</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="46" t="s">
@@ -2811,12 +2811,12 @@
         <v>61</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2825,37 +2825,37 @@
         <v>34</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>271</v>
-      </c>
       <c r="J5" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>115</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>36</v>
@@ -2873,12 +2873,12 @@
         <v>66</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2896,7 +2896,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>64</v>
@@ -2905,12 +2905,12 @@
         <v>66</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="66" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -2933,12 +2933,12 @@
         <v>65</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2956,17 +2956,17 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -2988,31 +2988,31 @@
         <v>43</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="71">
+      <c r="A11" s="66"/>
+      <c r="B11" s="61">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="60" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3021,47 +3021,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="68"/>
+      <c r="J11" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="70"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="68"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="71">
+      <c r="A13" s="66"/>
+      <c r="B13" s="61">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="60" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3070,86 +3070,86 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="68"/>
+      <c r="J13" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="70"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="68"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="61">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="71" t="s">
+      <c r="C15" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="H15" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="68" t="s">
+      <c r="J15" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="66"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="68"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3173,17 +3173,17 @@
         <v>83</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3192,7 +3192,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>81</v>
@@ -3207,133 +3207,133 @@
         <v>84</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="71">
+      <c r="A19" s="66"/>
+      <c r="B19" s="61">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="71" t="s">
+      <c r="C19" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="70" t="s">
-        <v>246</v>
+      <c r="F19" s="60" t="s">
+        <v>244</v>
       </c>
       <c r="G19" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="K19" s="68" t="s">
-        <v>141</v>
+      <c r="J19" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="K19" s="65" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="70"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="68"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
@@ -3341,21 +3341,21 @@
         <v>70</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>1</v>
@@ -3373,280 +3373,280 @@
         <v>66</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="71">
+      <c r="A25" s="66"/>
+      <c r="B25" s="61">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="60" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="68"/>
+      <c r="J25" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="68"/>
+        <v>238</v>
+      </c>
+      <c r="I26" s="60"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="70"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="68"/>
+        <v>252</v>
+      </c>
+      <c r="I27" s="60"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="78" t="s">
+      <c r="I28" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="69"/>
+      <c r="J28" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="78"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="69"/>
+        <v>204</v>
+      </c>
+      <c r="I29" s="64"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
-      <c r="B31" s="71">
+      <c r="A31" s="66"/>
+      <c r="B31" s="61">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="70" t="s">
+      <c r="E31" s="62"/>
+      <c r="F31" s="60" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="65"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="66"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="68"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" s="70"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="68"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="65"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="61">
         <f>MAX($B$1:B32)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="71" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="71" t="s">
+      <c r="C33" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="70" t="s">
-        <v>119</v>
+      <c r="F33" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="68"/>
+      <c r="J33" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="65"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="70"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="36" t="s">
         <v>87</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="68"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="70"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="68"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="65"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="70"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="68"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="52">
         <f>MAX($B$1:B36)+1</f>
         <v>23</v>
@@ -3655,11 +3655,11 @@
         <v>94</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>91</v>
@@ -3671,28 +3671,28 @@
         <v>93</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="45">
         <f>MAX($B$1:B37)+1</f>
         <v>24</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>24</v>
@@ -3701,44 +3701,44 @@
         <v>92</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E39" s="58"/>
       <c r="F39" s="57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J39" s="59"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="45">
         <f>MAX($B$1:B38)+1</f>
         <v>25</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
@@ -3747,27 +3747,27 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J40" s="47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K40" s="48"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="71">
+      <c r="A41" s="66"/>
+      <c r="B41" s="61">
         <f>MAX($B$1:B40)+1</f>
         <v>26</v>
       </c>
-      <c r="C41" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="70" t="s">
+      <c r="C41" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="60" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="34" t="s">
@@ -3776,114 +3776,114 @@
       <c r="H41" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="J41" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K41" s="68"/>
+      <c r="J41" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="65"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="70"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="34" t="s">
         <v>95</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I42" s="70"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="68"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="65"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="71">
+      <c r="A43" s="66"/>
+      <c r="B43" s="61">
         <f>MAX($B$1:B42)+1</f>
         <v>27</v>
       </c>
-      <c r="C43" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="70" t="s">
+      <c r="C43" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="62"/>
+      <c r="F43" s="60" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" s="68"/>
+        <v>152</v>
+      </c>
+      <c r="I43" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" s="65"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="74"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="70"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="60"/>
       <c r="G44" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="68"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="65"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="70"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="71"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="68"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="65"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="70"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="68"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="45">
@@ -3891,171 +3891,217 @@
         <v>28</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="34"/>
       <c r="I47" s="49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K47" s="48"/>
     </row>
     <row r="48" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="74"/>
-      <c r="B48" s="71">
+      <c r="A48" s="66"/>
+      <c r="B48" s="61">
         <f>MAX($B$1:B47)+1</f>
         <v>29</v>
       </c>
-      <c r="C48" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="70" t="s">
-        <v>226</v>
+      <c r="C48" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="61"/>
+      <c r="F48" s="60" t="s">
+        <v>224</v>
       </c>
       <c r="G48" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="I48" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" s="48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="66"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="H49" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="H48" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="J48" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="K48" s="48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="74"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="I49" s="71"/>
-      <c r="J49" s="72"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="62"/>
       <c r="K49" s="48"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="45">
         <f>MAX($B$1:B48)+1</f>
         <v>30</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" s="34" t="s">
         <v>221</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>223</v>
       </c>
       <c r="I50" s="45"/>
       <c r="J50" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K50" s="48"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="75"/>
-      <c r="B51" s="60">
+      <c r="A51" s="67"/>
+      <c r="B51" s="70">
         <f>MAX($B$1:B50)+1</f>
         <v>31</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="76"/>
+      <c r="F51" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="I51" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="J51" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="K51" s="72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="68"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="D51" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="I51" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="J51" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="K51" s="62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="76"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="40" t="s">
-        <v>227</v>
-      </c>
       <c r="H52" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="63"/>
+        <v>226</v>
+      </c>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K52"/>
   <mergeCells count="108">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -4080,71 +4126,25 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4153,7 +4153,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 J33:J43 J47:J48 J28:J31 J50:J51 J21:J26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J33:J43 J47:J48 J28:J31 J50:J51 J21:J26 J2:J19">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4204,19 +4204,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -4226,10 +4226,10 @@
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -4284,20 +4284,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="43">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -4308,35 +4308,35 @@
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="22">
         <f>MAX($B$1:B3)+1</f>
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
@@ -4346,16 +4346,16 @@
         <v>2003</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4365,34 +4365,34 @@
         <v>2004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -4403,13 +4403,13 @@
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -4420,13 +4420,13 @@
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -4437,10 +4437,10 @@
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>25</v>
@@ -4454,13 +4454,13 @@
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -4471,13 +4471,13 @@
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4488,13 +4488,13 @@
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -4505,13 +4505,13 @@
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -4522,32 +4522,32 @@
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -4558,29 +4558,29 @@
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>25</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -624,6 +624,7 @@
         "toId": 1,
         "toName": "李四",
         "content": "内容",
+        "title":"为什么XXX",
         "attachements": [
             "example1.xls"
         ],
@@ -635,6 +636,7 @@
         "fromName": "李四",
         "toId": 0,
         "toName": "张三",
+        "title":"RE:0",
         "content": "内容",
         "attachements": [
             "example1.xls"
@@ -672,7 +674,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="274">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,9 +1029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>entrusted_case</t>
-  </si>
-  <si>
     <t>委案id</t>
   </si>
   <si>
@@ -1358,10 +1357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ec/answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导入委案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1408,10 +1403,6 @@
   <si>
     <t>ROLE_ADMIN
 ROLE_INSIDE_MANAGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ec/ask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1799,6 +1790,26 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ec/ask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ec/answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案id[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送人id[opt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2304,6 +2315,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2314,52 +2355,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2690,7 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:I42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2736,70 +2749,70 @@
         <v>59</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="71">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="61" t="s">
-        <v>98</v>
+      <c r="F2" s="71" t="s">
+        <v>97</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="65"/>
+      <c r="J2" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>110</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="46" t="s">
@@ -2811,12 +2824,12 @@
         <v>61</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2825,37 +2838,37 @@
         <v>34</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>113</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>114</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>36</v>
@@ -2873,12 +2886,12 @@
         <v>66</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2896,7 +2909,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>64</v>
@@ -2905,12 +2918,12 @@
         <v>66</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="74" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -2933,12 +2946,12 @@
         <v>65</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2956,17 +2969,17 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -2988,31 +3001,31 @@
         <v>43</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="61">
+      <c r="A11" s="74"/>
+      <c r="B11" s="71">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="70" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3021,47 +3034,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="65"/>
+      <c r="J11" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="61">
+      <c r="A13" s="74"/>
+      <c r="B13" s="71">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="70" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3070,86 +3083,86 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="65"/>
+      <c r="J13" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="68"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="65"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="71">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="61" t="s">
+      <c r="C15" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="61" t="s">
-        <v>245</v>
+      <c r="F15" s="71" t="s">
+        <v>242</v>
       </c>
       <c r="G15" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="65" t="s">
-        <v>139</v>
+      <c r="J15" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="65"/>
+        <v>140</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3164,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>8</v>
@@ -3173,17 +3186,17 @@
         <v>83</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3192,7 +3205,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>81</v>
@@ -3207,133 +3220,133 @@
         <v>84</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="61">
+      <c r="A19" s="74"/>
+      <c r="B19" s="71">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="61" t="s">
+      <c r="C19" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>244</v>
+      <c r="F19" s="70" t="s">
+        <v>241</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="K19" s="65" t="s">
-        <v>139</v>
+      <c r="J19" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="65"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="68"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
@@ -3341,21 +3354,21 @@
         <v>70</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
       </c>
       <c r="C24" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>119</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>120</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>1</v>
@@ -3373,372 +3386,372 @@
         <v>66</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="61">
+      <c r="A25" s="74"/>
+      <c r="B25" s="71">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="70" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="65"/>
+      <c r="J25" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="68"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="65"/>
+        <v>235</v>
+      </c>
+      <c r="I26" s="70"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="60"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="65"/>
+        <v>249</v>
+      </c>
+      <c r="I27" s="70"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="68"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="78"/>
+      <c r="J28" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="78"/>
+        <v>201</v>
+      </c>
+      <c r="I29" s="78"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="61">
+      <c r="A31" s="74"/>
+      <c r="B31" s="71">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="60" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="70" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="68"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="H31" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="65"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="68"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="71">
         <f>MAX($B$1:B32)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="61" t="s">
+      <c r="C33" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="60" t="s">
-        <v>117</v>
+      <c r="F33" s="70" t="s">
+        <v>116</v>
       </c>
       <c r="G33" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="68"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="74"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="70"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="68"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="74"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="60" t="s">
+      <c r="H35" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="65"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="60"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="65"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="65"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="68"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="65"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="52">
         <f>MAX($B$1:B36)+1</f>
         <v>23</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="34" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="45">
         <f>MAX($B$1:B37)+1</f>
         <v>24</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E39" s="58"/>
       <c r="F39" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>266</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="57" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J39" s="59"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="45">
         <f>MAX($B$1:B38)+1</f>
         <v>25</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
@@ -3747,143 +3760,143 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="46" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J40" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K40" s="48"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
-      <c r="B41" s="61">
+      <c r="A41" s="74"/>
+      <c r="B41" s="71">
         <f>MAX($B$1:B40)+1</f>
         <v>26</v>
       </c>
-      <c r="C41" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="60" t="s">
+      <c r="C41" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="70" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J41" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="65"/>
+        <v>272</v>
+      </c>
+      <c r="I41" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="68"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="60"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="70"/>
       <c r="G42" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="65"/>
+        <v>273</v>
+      </c>
+      <c r="I42" s="70"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="61">
+      <c r="A43" s="74"/>
+      <c r="B43" s="71">
         <f>MAX($B$1:B42)+1</f>
         <v>27</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="60" t="s">
+      <c r="E43" s="72"/>
+      <c r="F43" s="70" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H43" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="I43" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="J43" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" s="65"/>
+      <c r="I43" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" s="68"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="60"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="61"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="65"/>
+        <v>96</v>
+      </c>
+      <c r="I44" s="71"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="68"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="60"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="70"/>
       <c r="G45" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="65"/>
+        <v>87</v>
+      </c>
+      <c r="I45" s="71"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="68"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="60"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="65"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="68"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="74" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="45">
@@ -3891,152 +3904,236 @@
         <v>28</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="34"/>
       <c r="I47" s="49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K47" s="48"/>
     </row>
     <row r="48" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="61">
+      <c r="A48" s="74"/>
+      <c r="B48" s="71">
         <f>MAX($B$1:B47)+1</f>
         <v>29</v>
       </c>
-      <c r="C48" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="60" t="s">
-        <v>224</v>
+      <c r="C48" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="71"/>
+      <c r="F48" s="70" t="s">
+        <v>221</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="J48" s="62" t="s">
-        <v>150</v>
+        <v>238</v>
+      </c>
+      <c r="I48" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>149</v>
       </c>
       <c r="K48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="60"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="70"/>
       <c r="G49" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I49" s="61"/>
-      <c r="J49" s="62"/>
+        <v>214</v>
+      </c>
+      <c r="I49" s="71"/>
+      <c r="J49" s="72"/>
       <c r="K49" s="48"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="45">
         <f>MAX($B$1:B48)+1</f>
         <v>30</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I50" s="45"/>
       <c r="J50" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K50" s="48"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
-      <c r="B51" s="70">
+      <c r="A51" s="75"/>
+      <c r="B51" s="60">
         <f>MAX($B$1:B50)+1</f>
         <v>31</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="I51" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J51" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="K51" s="62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="76"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H52" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="D51" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="I51" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="J51" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="K51" s="72" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="68"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="73"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K52"/>
   <mergeCells count="108">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
@@ -4061,90 +4158,6 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4204,19 +4217,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -4226,10 +4239,10 @@
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -4250,7 +4263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4284,20 +4299,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="43">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -4308,35 +4323,35 @@
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="22">
         <f>MAX($B$1:B3)+1</f>
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
@@ -4346,16 +4361,16 @@
         <v>2003</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4365,34 +4380,34 @@
         <v>2004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -4403,13 +4418,13 @@
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -4420,13 +4435,13 @@
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -4437,10 +4452,10 @@
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>25</v>
@@ -4454,13 +4469,13 @@
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -4471,13 +4486,13 @@
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4488,13 +4503,13 @@
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -4505,13 +4520,13 @@
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F14" s="25"/>
     </row>
@@ -4522,32 +4537,32 @@
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -4558,29 +4573,29 @@
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>25</v>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -2315,6 +2315,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2339,38 +2369,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2756,54 +2756,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="61">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>97</v>
+      <c r="F2" s="61" t="s">
+        <v>221</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="68"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -2829,7 +2829,7 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2859,7 +2859,7 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -2891,7 +2891,7 @@
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2923,7 +2923,7 @@
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="66" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -2951,7 +2951,7 @@
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2979,7 +2979,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -3011,21 +3011,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="71">
+      <c r="A11" s="66"/>
+      <c r="B11" s="61">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="60" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3034,47 +3034,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="68"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="70"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="68"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="71">
+      <c r="A13" s="66"/>
+      <c r="B13" s="61">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="60" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3083,49 +3083,49 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="68"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="70"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="68"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="61">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="61" t="s">
         <v>242</v>
       </c>
       <c r="G15" s="45" t="s">
@@ -3134,35 +3134,35 @@
       <c r="H15" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="65" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="34" t="s">
         <v>268</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="68"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3196,7 +3196,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3230,21 +3230,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="71">
+      <c r="A19" s="66"/>
+      <c r="B19" s="61">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="60" t="s">
         <v>241</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -3253,35 +3253,35 @@
       <c r="H19" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="K19" s="68" t="s">
+      <c r="K19" s="65" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="70"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="68"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
@@ -3307,7 +3307,7 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
@@ -3333,7 +3333,7 @@
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
@@ -3359,7 +3359,7 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
@@ -3391,21 +3391,21 @@
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="71">
+      <c r="A25" s="66"/>
+      <c r="B25" s="61">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="60" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -3414,59 +3414,59 @@
       <c r="H25" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="68"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="34" t="s">
         <v>236</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="68"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="70"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="34" t="s">
         <v>101</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="68"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78" t="s">
+      <c r="E28" s="63"/>
+      <c r="F28" s="64" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -3475,33 +3475,33 @@
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="78" t="s">
+      <c r="I28" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="73" t="s">
+      <c r="J28" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="69"/>
+      <c r="K28" s="78"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="69"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
@@ -3527,19 +3527,19 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
-      <c r="B31" s="71">
+      <c r="A31" s="66"/>
+      <c r="B31" s="61">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="70" t="s">
+      <c r="E31" s="62"/>
+      <c r="F31" s="60" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="36" t="s">
@@ -3548,49 +3548,49 @@
       <c r="H31" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="70" t="s">
+      <c r="I31" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="68"/>
+      <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="70"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="36" t="s">
         <v>144</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="70"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="68"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="65"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="61">
         <f>MAX($B$1:B32)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="60" t="s">
         <v>116</v>
       </c>
       <c r="G33" s="36" t="s">
@@ -3599,67 +3599,67 @@
       <c r="H33" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="68"/>
+      <c r="K33" s="65"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="70"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="36" t="s">
         <v>86</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="68"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="70"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="34" t="s">
         <v>130</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="68"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="65"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="70"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="34" t="s">
         <v>101</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="68"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="52">
         <f>MAX($B$1:B36)+1</f>
         <v>23</v>
@@ -3689,7 +3689,7 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="45">
         <f>MAX($B$1:B37)+1</f>
         <v>24</v>
@@ -3719,7 +3719,7 @@
       <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
         <v>259</v>
@@ -3742,7 +3742,7 @@
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="45">
         <f>MAX($B$1:B38)+1</f>
         <v>25</v>
@@ -3768,19 +3768,19 @@
       <c r="K40" s="48"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="71">
+      <c r="A41" s="66"/>
+      <c r="B41" s="61">
         <f>MAX($B$1:B40)+1</f>
         <v>26</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="70" t="s">
+      <c r="E41" s="61"/>
+      <c r="F41" s="60" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="34" t="s">
@@ -3789,45 +3789,45 @@
       <c r="H41" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J41" s="72" t="s">
+      <c r="J41" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K41" s="68"/>
+      <c r="K41" s="65"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="70"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="34" t="s">
         <v>94</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="I42" s="70"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="68"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="65"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="71">
+      <c r="A43" s="66"/>
+      <c r="B43" s="61">
         <f>MAX($B$1:B42)+1</f>
         <v>27</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="70" t="s">
+      <c r="E43" s="62"/>
+      <c r="F43" s="60" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="36" t="s">
@@ -3836,67 +3836,67 @@
       <c r="H43" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="I43" s="71" t="s">
+      <c r="I43" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K43" s="68"/>
+      <c r="K43" s="65"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="74"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="70"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="60"/>
       <c r="G44" s="36" t="s">
         <v>134</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="68"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="65"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="70"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="36" t="s">
         <v>133</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I45" s="71"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="68"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="65"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="70"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="36" t="s">
         <v>132</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="68"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="45">
@@ -3924,19 +3924,19 @@
       <c r="K47" s="48"/>
     </row>
     <row r="48" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="74"/>
-      <c r="B48" s="71">
+      <c r="A48" s="66"/>
+      <c r="B48" s="61">
         <f>MAX($B$1:B47)+1</f>
         <v>29</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="70" t="s">
+      <c r="E48" s="61"/>
+      <c r="F48" s="60" t="s">
         <v>221</v>
       </c>
       <c r="G48" s="36" t="s">
@@ -3945,33 +3945,33 @@
       <c r="H48" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="62" t="s">
         <v>149</v>
       </c>
       <c r="K48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="74"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="70"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="36" t="s">
         <v>213</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="I49" s="71"/>
-      <c r="J49" s="72"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="62"/>
       <c r="K49" s="48"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="45">
         <f>MAX($B$1:B48)+1</f>
         <v>30</v>
@@ -3999,19 +3999,19 @@
       <c r="K50" s="48"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="75"/>
-      <c r="B51" s="60">
+      <c r="A51" s="67"/>
+      <c r="B51" s="70">
         <f>MAX($B$1:B50)+1</f>
         <v>31</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="D51" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="64" t="s">
+      <c r="E51" s="76"/>
+      <c r="F51" s="74" t="s">
         <v>229</v>
       </c>
       <c r="G51" s="50" t="s">
@@ -4020,55 +4020,101 @@
       <c r="H51" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="I51" s="60" t="s">
+      <c r="I51" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="J51" s="60" t="s">
+      <c r="J51" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="K51" s="62" t="s">
+      <c r="K51" s="72" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="76"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="65"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="75"/>
       <c r="G52" s="40" t="s">
         <v>222</v>
       </c>
       <c r="H52" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="63"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K52"/>
   <mergeCells count="108">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -4093,71 +4139,25 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4263,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -10,9 +10,11 @@
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
     <sheet name="数据接口" sheetId="4" r:id="rId2"/>
     <sheet name="UI接口" sheetId="5" r:id="rId3"/>
+    <sheet name="HTTP接口" sheetId="6" r:id="rId4"/>
+    <sheet name="ActiveX 接口" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -577,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G38" authorId="0" shapeId="0">
+    <comment ref="G39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0" shapeId="0">
+    <comment ref="I42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0" shapeId="0">
+    <comment ref="I48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -674,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="310">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,9 +973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附件文件 [opt]</t>
-  </si>
-  <si>
     <t>系统根据reportid，更新指定report.
 当无 report 参数时，系统会自动创建新的汇报。
 返回 collection.protocol.Result</t>
@@ -1032,9 +1031,6 @@
     <t>委案id</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>接收人</t>
   </si>
   <si>
@@ -1097,10 +1093,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/message/read_message.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,10 +1195,6 @@
   </si>
   <si>
     <t>返回所有接口信息  管理员配置角色权限使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrusted_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1564,18 +1552,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入流中包含文件内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传电话录音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROLE_OUTSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1653,21 +1633,6 @@
   </si>
   <si>
     <t>phones</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-返回 collection.protocol.Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名称 ： 
-1）Call out
-name : ecid_phonenumber_time   
-eg.   2_15966832154_895421214
-2）Call in
-name : phonenumber_time   
-eg.   15966832154_895421214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1745,71 +1710,320 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获取未读消息信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已发送的消息信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有未读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有已发送的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称列表[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/import.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ec/ask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ec/answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案id[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送人id[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入流中包含文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功
+eg.
+{
+   "code":0,
+   "msg":"附件id"
+}
+失败，code为错误编码
+eg.
+{
+   "code":1,
+   "msg":"错误信息"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/collection/phone/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/collection/phone/missed_call.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂断电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来电时间
+精确到秒 YYYY-mm-dd HH:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化ActiveX组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voip服务器IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var result = activex.init('192.168.1.100');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>var result = activex.callOut('13840056789',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ce9693f-46e7-41ac-9149-f986ee42fc91.mp3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">);
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHaveCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼入电话事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接听电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var result = activex.pickUp();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var result = activex.hangUp();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHangUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话挂断事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>activex.onHangUp = function(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>){
+//电话挂断
+};</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">activex.onHaveCall = function(number, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fileName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>){
+//来电话
+};</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 collection.protocol.Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 collection.protocol.Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/phone/update_status.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/message/send_messages.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取未读消息信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取已发送的消息信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_OUTSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有未读消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有已发送的消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>read[opt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称列表[opt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回所有用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/entrusted_case/import.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ec/ask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ec/answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrusted_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案id[opt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送人id[opt]</t>
+    <t>附件文件 [opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/read_message.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1817,7 +2031,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1885,6 +2099,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1900,7 +2121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2134,11 +2355,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2315,12 +2599,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2386,6 +2729,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2699,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2749,70 +3125,70 @@
         <v>59</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="82">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="61" t="s">
-        <v>221</v>
+      <c r="F2" s="82" t="s">
+        <v>215</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="65"/>
+      <c r="J2" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="46" t="s">
@@ -2824,12 +3200,12 @@
         <v>61</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -2838,37 +3214,37 @@
         <v>34</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>36</v>
@@ -2886,12 +3262,12 @@
         <v>66</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -2909,7 +3285,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>64</v>
@@ -2918,12 +3294,12 @@
         <v>66</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="87" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -2946,12 +3322,12 @@
         <v>65</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -2969,17 +3345,17 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -3001,31 +3377,31 @@
         <v>43</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="61">
+      <c r="A11" s="87"/>
+      <c r="B11" s="82">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="81" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3034,47 +3410,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="65"/>
+      <c r="J11" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="86"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="61">
+      <c r="A13" s="87"/>
+      <c r="B13" s="82">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="81" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3083,270 +3459,270 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" s="65"/>
+      <c r="J13" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="86"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="65"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="86"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="82">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="61" t="s">
+      <c r="C15" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="61" t="s">
-        <v>242</v>
+      <c r="F15" s="82" t="s">
+        <v>234</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="65" t="s">
-        <v>138</v>
+      <c r="J15" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="86" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="34" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="65"/>
+        <v>136</v>
+      </c>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="46" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="61">
+      <c r="A19" s="87"/>
+      <c r="B19" s="82">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="61" t="s">
+      <c r="C19" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>241</v>
+      <c r="F19" s="81" t="s">
+        <v>233</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="K19" s="65" t="s">
-        <v>138</v>
+      <c r="J19" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="65"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="86"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
@@ -3354,21 +3730,21 @@
         <v>70</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>1</v>
@@ -3386,678 +3762,749 @@
         <v>66</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="61">
+      <c r="A25" s="87"/>
+      <c r="B25" s="82">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="61" t="s">
+      <c r="D25" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="81" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="65"/>
+        <v>143</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="86"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="65"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="I26" s="81"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="86"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="60"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="81"/>
       <c r="G27" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="65"/>
+        <v>241</v>
+      </c>
+      <c r="I27" s="81"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="86"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="K28" s="78"/>
+      <c r="I28" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="99"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="78"/>
+        <v>197</v>
+      </c>
+      <c r="I29" s="85"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="99"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="46" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="61">
+      <c r="A31" s="87"/>
+      <c r="B31" s="82">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="65"/>
+      <c r="J31" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="86"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="60"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="81"/>
       <c r="G32" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="65"/>
+        <v>141</v>
+      </c>
+      <c r="I32" s="81"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="86"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="82">
         <f>MAX($B$1:B32)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="86"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="87"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="81"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="86"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" s="81"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="86"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="87"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="81"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="86"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="87"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I37" s="81"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="86"/>
+    </row>
+    <row r="38" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="87"/>
+      <c r="B38" s="52">
+        <f>MAX($B$1:B37)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" s="39"/>
+    </row>
+    <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="87"/>
+      <c r="B39" s="45">
+        <f>MAX($B$1:B38)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="87"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="59"/>
+      <c r="K40" s="56"/>
+    </row>
+    <row r="41" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="87"/>
+      <c r="B41" s="45">
+        <f>MAX($B$1:B39)+1</f>
+        <v>25</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="48"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="87"/>
+      <c r="B42" s="82">
+        <f>MAX($B$1:B41)+1</f>
+        <v>26</v>
+      </c>
+      <c r="C42" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="82"/>
+      <c r="F42" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="I42" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42" s="86"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="87"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="I43" s="81"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="86"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="87"/>
+      <c r="B44" s="82">
+        <f>MAX($B$1:B43)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C44" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="83"/>
+      <c r="F44" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" s="86"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="87"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="82"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="86"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="82"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="86"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="87"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="82"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="86"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="45">
+        <f>MAX($B$1:B46)+1</f>
+        <v>28</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" s="48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="87"/>
+      <c r="B49" s="82">
+        <f>MAX($B$1:B48)+1</f>
+        <v>29</v>
+      </c>
+      <c r="C49" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="82"/>
+      <c r="F49" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="I49" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="J49" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="87"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" s="65"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" s="60"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="65"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="65"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="65"/>
-    </row>
-    <row r="37" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
-      <c r="B37" s="52">
-        <f>MAX($B$1:B36)+1</f>
-        <v>23</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="K37" s="39"/>
-    </row>
-    <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
-      <c r="B38" s="45">
-        <f>MAX($B$1:B37)+1</f>
-        <v>24</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="45" t="s">
+      <c r="H50" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="82"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="48"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="87"/>
+      <c r="B51" s="45">
+        <f>MAX($B$1:B49)+1</f>
+        <v>30</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="I51" s="45"/>
+      <c r="J51" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" s="48"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="88"/>
+      <c r="B52" s="91">
+        <f>MAX($B$1:B51)+1</f>
+        <v>31</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="97"/>
+      <c r="F52" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="J52" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="K38" s="48"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="57" t="s">
-        <v>262</v>
-      </c>
-      <c r="J39" s="59"/>
-      <c r="K39" s="56"/>
-    </row>
-    <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
-      <c r="B40" s="45">
-        <f>MAX($B$1:B38)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="J40" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
-      <c r="B41" s="61">
-        <f>MAX($B$1:B40)+1</f>
-        <v>26</v>
-      </c>
-      <c r="C41" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K41" s="65"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="65"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="61">
-        <f>MAX($B$1:B42)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="I43" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="K43" s="65"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="61"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="65"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="65"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="45">
-        <f>MAX($B$1:B45)+1</f>
-        <v>28</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" s="45" t="s">
+      <c r="K52" s="60"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="88"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="I53" s="108"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="60"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="88"/>
+      <c r="B54" s="91">
+        <f>MAX($B$1:B53)+1</f>
+        <v>32</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="97"/>
+      <c r="F54" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="I54" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="J54" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="K54" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="J47" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47" s="48"/>
-    </row>
-    <row r="48" spans="1:11" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="61">
-        <f>MAX($B$1:B47)+1</f>
-        <v>29</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="I48" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="J48" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="K48" s="48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="I49" s="61"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="48"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
-      <c r="B50" s="45">
-        <f>MAX($B$1:B48)+1</f>
-        <v>30</v>
-      </c>
-      <c r="C50" s="45" t="s">
+    </row>
+    <row r="55" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="89"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D50" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="I50" s="45"/>
-      <c r="J50" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K50" s="48"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
-      <c r="B51" s="70">
-        <f>MAX($B$1:B50)+1</f>
-        <v>31</v>
-      </c>
-      <c r="C51" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="I51" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="J51" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="K51" s="72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="68"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="73"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="94"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K52"/>
-  <mergeCells count="108">
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E51:E52"/>
+  <autoFilter ref="A1:K55"/>
+  <mergeCells count="115">
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
@@ -4067,7 +4514,7 @@
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J33:J37"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
@@ -4091,22 +4538,22 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A48:A55"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="B33:B37"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="C33:C37"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="B31:B32"/>
@@ -4119,10 +4566,10 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -4139,22 +4586,22 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="I28:I29"/>
@@ -4166,7 +4613,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J33:J43 J47:J48 J28:J31 J50:J51 J21:J26 J2:J19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J33:J44 J48:J49 J28:J31 J2:J19 J21:J26 J51:J52 J54">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4216,33 +4663,33 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
-        <v>196</v>
+      <c r="A2" s="100" t="s">
+        <v>192</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="80"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -4298,164 +4745,164 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
-        <v>156</v>
+      <c r="A2" s="103" t="s">
+        <v>152</v>
       </c>
       <c r="B2" s="43">
         <f>MAX($B$1:B1)+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="44">
         <f>MAX($B$1:B2)+1</f>
         <v>2001</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
-        <v>157</v>
+      <c r="A4" s="102" t="s">
+        <v>153</v>
       </c>
       <c r="B4" s="22">
         <f>MAX($B$1:B3)+1</f>
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="22">
         <f>MAX($B$1:B4)+1</f>
         <v>2003</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="22">
         <f>MAX($B$1:B5)+1</f>
         <v>2004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
-        <v>207</v>
+      <c r="A7" s="102" t="s">
+        <v>203</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="22">
         <f>MAX($B$1:B7)+1</f>
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="22">
         <f>MAX($B$1:B8)+1</f>
         <v>2007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="22">
         <f>MAX($B$1:B9)+1</f>
         <v>2008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>25</v>
@@ -4463,139 +4910,139 @@
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="22">
         <f>MAX($B$1:B10)+1</f>
         <v>2009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="22">
         <f>MAX($B$1:B11)+1</f>
         <v>2010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="22">
         <f>MAX($B$1:B12)+1</f>
         <v>2011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="22">
         <f>MAX($B$1:B13)+1</f>
         <v>2012</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="22">
         <f>MAX($B$1:B14)+1</f>
         <v>2013</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
-        <v>171</v>
+      <c r="A16" s="103" t="s">
+        <v>167</v>
       </c>
       <c r="B16" s="22">
         <f>MAX($B$1:B15)+1</f>
         <v>2014</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="22">
         <f>MAX($B$1:B16)+1</f>
         <v>2015</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" s="3">
         <f>MAX($B$1:B17)+1</f>
         <v>2016</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>25</v>
@@ -4613,4 +5060,285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="82"/>
+    </row>
+    <row r="4" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="108"/>
+      <c r="F4" s="111"/>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="112" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="113" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="69" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -14,7 +14,7 @@
     <sheet name="ActiveX 接口" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="316">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1511,10 +1511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载所有委案包括附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询范围同上，将查询结果打包下载，
 不包含附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1621,10 +1617,6 @@
   </si>
   <si>
     <t>呼叫记录列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2024,6 +2016,38 @@
   </si>
   <si>
     <t>/message/read_message.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要备份附件、音频等所有文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼入呼出状态【0：呼入，1：呼出】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2422,7 +2446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2658,6 +2682,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2688,18 +2730,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2715,6 +2757,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2730,37 +2781,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3075,10 +3102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3132,54 +3159,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="88">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="82" t="s">
-        <v>215</v>
+      <c r="F2" s="88" t="s">
+        <v>214</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="86"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="92"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -3205,7 +3232,7 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -3221,13 +3248,13 @@
         <v>193</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>255</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>257</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>102</v>
@@ -3235,7 +3262,7 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -3267,7 +3294,7 @@
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -3299,7 +3326,7 @@
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="93" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -3327,7 +3354,7 @@
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -3355,7 +3382,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -3387,21 +3414,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
-      <c r="B11" s="82">
+      <c r="A11" s="93"/>
+      <c r="B11" s="88">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="87" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3410,47 +3437,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="83" t="s">
+      <c r="J11" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="86"/>
+      <c r="K11" s="92"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="81"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="86"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="92"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
-      <c r="B13" s="82">
+      <c r="A13" s="93"/>
+      <c r="B13" s="88">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="87" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3459,50 +3486,50 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="83" t="s">
+      <c r="J13" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="86"/>
+      <c r="K13" s="92"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="81"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="81"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="86"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="88">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="E15" s="82" t="s">
+      <c r="D15" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="82" t="s">
-        <v>234</v>
+      <c r="F15" s="88" t="s">
+        <v>232</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>97</v>
@@ -3510,35 +3537,35 @@
       <c r="H15" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="83" t="s">
+      <c r="J15" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="92" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="86"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="92"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3572,7 +3599,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3596,7 +3623,7 @@
         <v>83</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>103</v>
@@ -3606,22 +3633,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="87"/>
-      <c r="B19" s="82">
+      <c r="A19" s="93"/>
+      <c r="B19" s="88">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="81" t="s">
-        <v>233</v>
+      <c r="F19" s="87" t="s">
+        <v>231</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>135</v>
@@ -3629,53 +3656,53 @@
       <c r="H19" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="I19" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="83" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="86" t="s">
+      <c r="J19" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="92" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="81"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="86"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>102</v>
@@ -3683,25 +3710,25 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>102</v>
@@ -3709,7 +3736,7 @@
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
@@ -3735,7 +3762,7 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
@@ -3767,21 +3794,21 @@
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
-      <c r="B25" s="82">
+      <c r="A25" s="93"/>
+      <c r="B25" s="88">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="87" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -3790,59 +3817,59 @@
       <c r="H25" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="81" t="s">
+      <c r="I25" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="83" t="s">
+      <c r="J25" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="86"/>
+      <c r="K25" s="92"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="81"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="I26" s="81"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="86"/>
+        <v>227</v>
+      </c>
+      <c r="I26" s="87"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="92"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="81"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="34" t="s">
         <v>99</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="I27" s="81"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="86"/>
+        <v>239</v>
+      </c>
+      <c r="I27" s="87"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="92"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84" t="s">
+      <c r="A28" s="93"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85" t="s">
+      <c r="E28" s="90"/>
+      <c r="F28" s="91" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -3851,33 +3878,33 @@
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="85" t="s">
+      <c r="I28" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="90" t="s">
+      <c r="J28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="99"/>
+      <c r="K28" s="105"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="99"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="105"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
@@ -3892,10 +3919,14 @@
       <c r="F30" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>309</v>
+      </c>
       <c r="I30" s="46" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="J30" s="47" t="s">
         <v>145</v>
@@ -3903,19 +3934,19 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
-      <c r="B31" s="82">
+      <c r="A31" s="93"/>
+      <c r="B31" s="88">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="81" t="s">
+      <c r="E31" s="89"/>
+      <c r="F31" s="87" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="36" t="s">
@@ -3924,49 +3955,49 @@
       <c r="H31" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="I31" s="81" t="s">
+      <c r="I31" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="83" t="s">
+      <c r="J31" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K31" s="86"/>
+      <c r="K31" s="92"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="81"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="36" t="s">
         <v>140</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="81"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="86"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="92"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="82">
+      <c r="B33" s="88">
         <f>MAX($B$1:B32)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="82" t="s">
+      <c r="C33" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="81" t="s">
+      <c r="F33" s="87" t="s">
         <v>113</v>
       </c>
       <c r="G33" s="36" t="s">
@@ -3975,84 +4006,84 @@
       <c r="H33" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="81" t="s">
+      <c r="I33" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="J33" s="83" t="s">
+      <c r="J33" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K33" s="86"/>
+      <c r="K33" s="92"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="81"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="81"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="86"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="92"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="81"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="I35" s="81"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="86"/>
+        <v>306</v>
+      </c>
+      <c r="I35" s="87"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="92"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="81"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="34" t="s">
         <v>126</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="81"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="86"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="92"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="81"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="87"/>
       <c r="G37" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="I37" s="81"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="86"/>
+        <v>302</v>
+      </c>
+      <c r="I37" s="87"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="92"/>
     </row>
     <row r="38" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="52">
         <f>MAX($B$1:B37)+1</f>
         <v>23</v>
@@ -4082,7 +4113,7 @@
       <c r="K38" s="39"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="45">
         <f>MAX($B$1:B38)+1</f>
         <v>24</v>
@@ -4091,7 +4122,7 @@
         <v>121</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="46" t="s">
@@ -4112,36 +4143,36 @@
       <c r="K39" s="48"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E40" s="58"/>
       <c r="F40" s="57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J40" s="59"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="45">
         <f>MAX($B$1:B39)+1</f>
         <v>25</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D41" s="45" t="s">
         <v>149</v>
@@ -4153,7 +4184,7 @@
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
       <c r="I41" s="46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J41" s="47" t="s">
         <v>148</v>
@@ -4161,66 +4192,66 @@
       <c r="K41" s="48"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
-      <c r="B42" s="82">
+      <c r="A42" s="93"/>
+      <c r="B42" s="88">
         <f>MAX($B$1:B41)+1</f>
         <v>26</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="81" t="s">
+      <c r="E42" s="88"/>
+      <c r="F42" s="87" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="I42" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="I42" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="83" t="s">
+      <c r="J42" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K42" s="86"/>
+      <c r="K42" s="92"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="87"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="81"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="34" t="s">
         <v>92</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="86"/>
+        <v>262</v>
+      </c>
+      <c r="I43" s="87"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="92"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="87"/>
-      <c r="B44" s="82">
+      <c r="A44" s="93"/>
+      <c r="B44" s="88">
         <f>MAX($B$1:B43)+1</f>
         <v>27</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="81" t="s">
+      <c r="E44" s="89"/>
+      <c r="F44" s="87" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="36" t="s">
@@ -4229,67 +4260,67 @@
       <c r="H44" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="I44" s="82" t="s">
+      <c r="I44" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="83" t="s">
+      <c r="J44" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="K44" s="86"/>
+      <c r="K44" s="92"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="81"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="36" t="s">
         <v>130</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I45" s="82"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="86"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="92"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="81"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="87"/>
       <c r="G46" s="36" t="s">
         <v>129</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="82"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="86"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="92"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="87"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="81"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="87"/>
       <c r="G47" s="36" t="s">
         <v>128</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="82"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="86"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="92"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="93" t="s">
         <v>33</v>
       </c>
       <c r="B48" s="45">
@@ -4297,10 +4328,10 @@
         <v>28</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" s="45"/>
       <c r="F48" s="46" t="s">
@@ -4309,7 +4340,7 @@
       <c r="G48" s="36"/>
       <c r="H48" s="34"/>
       <c r="I48" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J48" s="47" t="s">
         <v>145</v>
@@ -4317,194 +4348,228 @@
       <c r="K48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="82">
+      <c r="A49" s="93"/>
+      <c r="B49" s="88">
         <f>MAX($B$1:B48)+1</f>
         <v>29</v>
       </c>
-      <c r="C49" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="81" t="s">
-        <v>215</v>
+      <c r="C49" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="88"/>
+      <c r="F49" s="87" t="s">
+        <v>214</v>
       </c>
       <c r="G49" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="I49" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="J49" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="93"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="I50" s="87"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="86"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="93"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="I51" s="87"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="86"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="93"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="H49" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="I49" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="J49" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="K49" s="48"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="82"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="48"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="87"/>
-      <c r="B51" s="45">
+      <c r="H52" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="I52" s="88"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="48"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="93"/>
+      <c r="B53" s="45">
         <f>MAX($B$1:B49)+1</f>
         <v>30</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C53" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="H53" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="H51" s="34" t="s">
+      <c r="I53" s="45"/>
+      <c r="J53" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53" s="48"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="94"/>
+      <c r="B54" s="99">
+        <f>MAX($B$1:B53)+1</f>
+        <v>31</v>
+      </c>
+      <c r="C54" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="103"/>
+      <c r="F54" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="G54" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="I54" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="J54" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="K54" s="60"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="94"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="I55" s="106"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="60"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="94"/>
+      <c r="B56" s="99">
+        <f>MAX($B$1:B55)+1</f>
+        <v>32</v>
+      </c>
+      <c r="C56" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="I51" s="45"/>
-      <c r="J51" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="K51" s="48"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="88"/>
-      <c r="B52" s="91">
-        <f>MAX($B$1:B51)+1</f>
-        <v>31</v>
-      </c>
-      <c r="C52" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="D52" s="91" t="s">
-        <v>301</v>
-      </c>
-      <c r="E52" s="97"/>
-      <c r="F52" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="I52" s="91" t="s">
-        <v>298</v>
-      </c>
-      <c r="J52" s="97" t="s">
+      <c r="E56" s="103"/>
+      <c r="F56" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I56" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="J56" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="K52" s="60"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="88"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="H53" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="I53" s="108"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="60"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="88"/>
-      <c r="B54" s="91">
-        <f>MAX($B$1:B53)+1</f>
-        <v>32</v>
-      </c>
-      <c r="C54" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="E54" s="97"/>
-      <c r="F54" s="95" t="s">
+      <c r="K56" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="G54" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="I54" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="J54" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="K54" s="93" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="89"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="40" t="s">
+    </row>
+    <row r="57" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="95"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H55" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="I55" s="92"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="94"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="98"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55"/>
+  <autoFilter ref="A1:K57"/>
   <mergeCells count="115">
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="J52:J53"/>
     <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
     <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B54:B55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
@@ -4523,8 +4588,6 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
     <mergeCell ref="J25:J27"/>
     <mergeCell ref="I25:I27"/>
     <mergeCell ref="E2:E3"/>
@@ -4538,7 +4601,7 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A48:A57"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="F42:F43"/>
@@ -4595,16 +4658,18 @@
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K33:K37"/>
     <mergeCell ref="K42:K43"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J28:J29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4613,7 +4678,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J33:J44 J48:J49 J28:J31 J2:J19 J21:J26 J51:J52 J54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J33:J44 J48:J51 J28:J31 J2:J19 J21:J26 J53:J54 J56">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4663,7 +4728,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="109" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="31">
@@ -4673,7 +4738,7 @@
         <v>190</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>180</v>
@@ -4681,12 +4746,12 @@
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="101"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>189</v>
@@ -4745,7 +4810,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="112" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="43">
@@ -4756,7 +4821,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>185</v>
@@ -4764,7 +4829,7 @@
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="104"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="44">
         <f>MAX($B$1:B2)+1</f>
         <v>2001</v>
@@ -4781,7 +4846,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="111" t="s">
         <v>153</v>
       </c>
       <c r="B4" s="22">
@@ -4802,7 +4867,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="22">
         <f>MAX($B$1:B4)+1</f>
         <v>2003</v>
@@ -4821,7 +4886,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="22">
         <f>MAX($B$1:B5)+1</f>
         <v>2004</v>
@@ -4830,7 +4895,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
@@ -4840,18 +4905,18 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
-        <v>203</v>
+      <c r="A7" s="111" t="s">
+        <v>202</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>174</v>
@@ -4859,16 +4924,16 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="22">
         <f>MAX($B$1:B7)+1</f>
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>96</v>
@@ -4876,7 +4941,7 @@
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="22">
         <f>MAX($B$1:B8)+1</f>
         <v>2007</v>
@@ -4885,7 +4950,7 @@
         <v>163</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>96</v>
@@ -4893,7 +4958,7 @@
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="22">
         <f>MAX($B$1:B9)+1</f>
         <v>2008</v>
@@ -4902,7 +4967,7 @@
         <v>165</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>25</v>
@@ -4910,7 +4975,7 @@
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="22">
         <f>MAX($B$1:B10)+1</f>
         <v>2009</v>
@@ -4919,7 +4984,7 @@
         <v>164</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>96</v>
@@ -4927,7 +4992,7 @@
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="22">
         <f>MAX($B$1:B11)+1</f>
         <v>2010</v>
@@ -4944,7 +5009,7 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="22">
         <f>MAX($B$1:B12)+1</f>
         <v>2011</v>
@@ -4953,7 +5018,7 @@
         <v>178</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>176</v>
@@ -4961,7 +5026,7 @@
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="102"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="22">
         <f>MAX($B$1:B13)+1</f>
         <v>2012</v>
@@ -4970,7 +5035,7 @@
         <v>179</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>180</v>
@@ -4978,7 +5043,7 @@
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="22">
         <f>MAX($B$1:B14)+1</f>
         <v>2013</v>
@@ -4995,7 +5060,7 @@
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="112" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="22">
@@ -5014,7 +5079,7 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="22">
         <f>MAX($B$1:B16)+1</f>
         <v>2015</v>
@@ -5064,9 +5129,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5095,83 +5162,107 @@
         <v>13</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="87"/>
+    </row>
+    <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="87"/>
+    </row>
+    <row r="5" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E5" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="88"/>
+    </row>
+    <row r="6" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="101" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="81" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="82"/>
-    </row>
-    <row r="4" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="95" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="92"/>
+    </row>
+    <row r="7" spans="1:6" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F2:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5208,126 +5299,126 @@
         <v>13</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="D2" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="E2" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="76" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="78" t="s">
+      <c r="B3" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="115" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="114"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="50" t="s">
+      <c r="D4" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="106"/>
+      <c r="F4" s="116"/>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="111"/>
-    </row>
-    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>222</v>
-      </c>
       <c r="E5" s="51"/>
-      <c r="F5" s="113" t="s">
-        <v>293</v>
+      <c r="F5" s="85" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="63" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="34"/>
       <c r="E6" s="62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="65"/>
       <c r="E7" s="61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="67"/>
       <c r="E8" s="79"/>
       <c r="F8" s="69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -14,7 +14,7 @@
     <sheet name="ActiveX 接口" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0" shapeId="0">
+    <comment ref="G40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -606,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="0" shapeId="0">
+    <comment ref="I43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="0" shapeId="0">
+    <comment ref="I49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="320">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1458,10 +1458,6 @@
   </si>
   <si>
     <t>获取自己的委案管理信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ADMIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1504,10 +1500,6 @@
   </si>
   <si>
     <t>委案备份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/entrusted_case/backup.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2048,6 +2040,30 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回批次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/manager/batch.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/manager/backup.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2446,7 +2462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2709,62 +2725,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3102,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3159,54 +3187,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="105">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="88" t="s">
-        <v>214</v>
+      <c r="F2" s="105" t="s">
+        <v>212</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="92"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="92"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -3232,7 +3260,7 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -3245,16 +3273,16 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>253</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>255</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>102</v>
@@ -3262,7 +3290,7 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -3294,7 +3322,7 @@
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -3326,7 +3354,7 @@
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="107" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -3354,7 +3382,7 @@
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -3382,7 +3410,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="93"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -3414,21 +3442,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
-      <c r="B11" s="88">
+      <c r="A11" s="107"/>
+      <c r="B11" s="105">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="104" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3437,47 +3465,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="92"/>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="87"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="92"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
-      <c r="B13" s="88">
+      <c r="A13" s="107"/>
+      <c r="B13" s="105">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="104" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3486,50 +3514,50 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="87" t="s">
+      <c r="I13" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="89" t="s">
+      <c r="J13" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="92"/>
+      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="87"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="92"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="105">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="88" t="s">
-        <v>256</v>
-      </c>
-      <c r="E15" s="88" t="s">
+      <c r="D15" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="88" t="s">
-        <v>232</v>
+      <c r="F15" s="105" t="s">
+        <v>230</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>97</v>
@@ -3537,35 +3565,35 @@
       <c r="H15" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="89" t="s">
+      <c r="J15" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="92" t="s">
+      <c r="K15" s="102" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="92"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="102"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="93"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B15)+1</f>
         <v>12</v>
@@ -3589,7 +3617,7 @@
         <v>82</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J17" s="47" t="s">
         <v>103</v>
@@ -3599,7 +3627,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="93"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3623,7 +3651,7 @@
         <v>83</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>103</v>
@@ -3633,22 +3661,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="93"/>
-      <c r="B19" s="88">
+      <c r="A19" s="107"/>
+      <c r="B19" s="105">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="87" t="s">
-        <v>231</v>
+      <c r="F19" s="104" t="s">
+        <v>229</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>135</v>
@@ -3656,53 +3684,53 @@
       <c r="H19" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="88" t="s">
+      <c r="I19" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="K19" s="92" t="s">
+      <c r="J19" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="K19" s="102" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="87"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="92"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="102"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>102</v>
@@ -3710,25 +3738,25 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>102</v>
@@ -3736,7 +3764,7 @@
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="93"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
@@ -3762,7 +3790,7 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="93"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
@@ -3794,21 +3822,21 @@
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="93"/>
-      <c r="B25" s="88">
+      <c r="A25" s="107"/>
+      <c r="B25" s="105">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="88" t="s">
+      <c r="E25" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="104" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -3817,59 +3845,59 @@
       <c r="H25" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="87" t="s">
+      <c r="I25" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="89" t="s">
+      <c r="J25" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="92"/>
+      <c r="K25" s="102"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="93"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="87"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="I26" s="87"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="92"/>
+        <v>225</v>
+      </c>
+      <c r="I26" s="104"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="102"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="87"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="34" t="s">
         <v>99</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="I27" s="87"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="92"/>
+        <v>237</v>
+      </c>
+      <c r="I27" s="104"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="102"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="93"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90" t="s">
+      <c r="A28" s="107"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91" t="s">
+      <c r="D28" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -3878,761 +3906,735 @@
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="91" t="s">
+      <c r="I28" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="96" t="s">
+      <c r="J28" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="105"/>
+      <c r="K28" s="103"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="105"/>
+        <v>196</v>
+      </c>
+      <c r="I29" s="111"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="93"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="G30" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="I30" s="46" t="s">
         <v>308</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="I30" s="46" t="s">
-        <v>310</v>
       </c>
       <c r="J30" s="47" t="s">
         <v>145</v>
       </c>
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="93"/>
+    <row r="31" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="107"/>
       <c r="B31" s="88">
+        <v>21</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
+    </row>
+    <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="107"/>
+      <c r="B32" s="105">
         <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C32" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D32" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="89"/>
-      <c r="F31" s="87" t="s">
+      <c r="E32" s="106"/>
+      <c r="F32" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H32" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="I31" s="87" t="s">
+      <c r="I32" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="89" t="s">
+      <c r="J32" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="K31" s="92"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="36" t="s">
+      <c r="K32" s="102"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="107"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H33" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="87"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="92"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="93" t="s">
+      <c r="I33" s="104"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="102"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="88">
-        <f>MAX($B$1:B32)+1</f>
+      <c r="B34" s="105">
+        <f>MAX($B$1:B33)+1</f>
         <v>22</v>
       </c>
-      <c r="C33" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="88" t="s">
+      <c r="C34" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="88" t="s">
+      <c r="E34" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F34" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H34" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="87" t="s">
+      <c r="I34" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="J33" s="89" t="s">
+      <c r="J34" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="K33" s="92"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="93"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="36" t="s">
+      <c r="K34" s="102"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="107"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="104"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="102"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="107"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="I36" s="104"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="102"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="107"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="104"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="102"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="107"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I38" s="104"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="102"/>
+    </row>
+    <row r="39" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="107"/>
+      <c r="B39" s="52">
+        <f>MAX($B$1:B38)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="39"/>
+    </row>
+    <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="107"/>
+      <c r="B40" s="45">
+        <f>MAX($B$1:B39)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="107"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="J41" s="59"/>
+      <c r="K41" s="56"/>
+    </row>
+    <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="107"/>
+      <c r="B42" s="45">
+        <f>MAX($B$1:B40)+1</f>
+        <v>25</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="107"/>
+      <c r="B43" s="105">
+        <f>MAX($B$1:B42)+1</f>
+        <v>26</v>
+      </c>
+      <c r="C43" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="105"/>
+      <c r="F43" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I43" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="K43" s="102"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="107"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I44" s="104"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="102"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="107"/>
+      <c r="B45" s="105">
+        <f>MAX($B$1:B44)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="106"/>
+      <c r="F45" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" s="102"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="107"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="105"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="102"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="107"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="92"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="93"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="I35" s="87"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="92"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="93"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" s="87"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="92"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="93"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="I37" s="87"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="92"/>
-    </row>
-    <row r="38" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="93"/>
-      <c r="B38" s="52">
-        <f>MAX($B$1:B37)+1</f>
+      <c r="I47" s="105"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="102"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="107"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="J38" s="37" t="s">
+      <c r="I48" s="105"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="102"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="45">
+        <f>MAX($B$1:B47)+1</f>
+        <v>28</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="107"/>
+      <c r="B50" s="105">
+        <f>MAX($B$1:B49)+1</f>
+        <v>29</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="105"/>
+      <c r="F50" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="I50" s="104" t="s">
+        <v>293</v>
+      </c>
+      <c r="J50" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="K50" s="48"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="107"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="I51" s="104"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="86"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="107"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="I52" s="104"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="86"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="107"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="I53" s="105"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="48"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="107"/>
+      <c r="B54" s="45">
+        <f>MAX($B$1:B50)+1</f>
+        <v>30</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="45"/>
+      <c r="J54" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" s="48"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="108"/>
+      <c r="B55" s="91">
+        <f>MAX($B$1:B54)+1</f>
+        <v>31</v>
+      </c>
+      <c r="C55" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="91" t="s">
+        <v>297</v>
+      </c>
+      <c r="E55" s="93"/>
+      <c r="F55" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="I55" s="91" t="s">
+        <v>294</v>
+      </c>
+      <c r="J55" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K38" s="39"/>
-    </row>
-    <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="93"/>
-      <c r="B39" s="45">
-        <f>MAX($B$1:B38)+1</f>
-        <v>24</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="J39" s="47" t="s">
+      <c r="K55" s="60"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="108"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="I56" s="92"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="60"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="108"/>
+      <c r="B57" s="91">
+        <f>MAX($B$1:B56)+1</f>
+        <v>32</v>
+      </c>
+      <c r="C57" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="93"/>
+      <c r="F57" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H57" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="I57" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="J57" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K39" s="48"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="93"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="J40" s="59"/>
-      <c r="K40" s="56"/>
-    </row>
-    <row r="41" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="93"/>
-      <c r="B41" s="45">
-        <f>MAX($B$1:B39)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="K41" s="48"/>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
-      <c r="B42" s="88">
-        <f>MAX($B$1:B41)+1</f>
-        <v>26</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="88"/>
-      <c r="F42" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="I42" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="J42" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="K42" s="92"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="93"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="I43" s="87"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="92"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="93"/>
-      <c r="B44" s="88">
-        <f>MAX($B$1:B43)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="89"/>
-      <c r="F44" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="J44" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="K44" s="92"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="93"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" s="88"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="92"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="93"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="88"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="92"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="93"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="88"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="92"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="45">
-        <f>MAX($B$1:B46)+1</f>
-        <v>28</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="J48" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="K48" s="48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="93"/>
-      <c r="B49" s="88">
-        <f>MAX($B$1:B48)+1</f>
-        <v>29</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="88"/>
-      <c r="F49" s="87" t="s">
+      <c r="K57" s="99" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="109"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="G49" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="I49" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="J49" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="K49" s="48"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="93"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="I50" s="87"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="86"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="93"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="I51" s="87"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="86"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="93"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="I52" s="88"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="48"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="93"/>
-      <c r="B53" s="45">
-        <f>MAX($B$1:B49)+1</f>
-        <v>30</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I53" s="45"/>
-      <c r="J53" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="K53" s="48"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="94"/>
-      <c r="B54" s="99">
-        <f>MAX($B$1:B53)+1</f>
-        <v>31</v>
-      </c>
-      <c r="C54" s="99" t="s">
-        <v>300</v>
-      </c>
-      <c r="D54" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="E54" s="103"/>
-      <c r="F54" s="101" t="s">
-        <v>292</v>
-      </c>
-      <c r="G54" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="I54" s="99" t="s">
-        <v>296</v>
-      </c>
-      <c r="J54" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="K54" s="60"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="94"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="H55" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="I55" s="106"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="60"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="94"/>
-      <c r="B56" s="99">
-        <f>MAX($B$1:B55)+1</f>
-        <v>32</v>
-      </c>
-      <c r="C56" s="99" t="s">
-        <v>213</v>
-      </c>
-      <c r="D56" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="103"/>
-      <c r="F56" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="H56" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="I56" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="J56" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="K56" s="97" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="95"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="I57" s="100"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="98"/>
+      <c r="I58" s="97"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K57"/>
+  <autoFilter ref="A1:K58"/>
   <mergeCells count="115">
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I37"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -4649,27 +4651,76 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A34:A48"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A15:A33"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4678,7 +4729,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J33:J44 J48:J51 J28:J31 J2:J19 J21:J26 J53:J54 J56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J34:J45 J49:J52 J2:J19 J21:J26 J54:J55 J57 J28:J32">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4728,8 +4779,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
-        <v>192</v>
+      <c r="A2" s="113" t="s">
+        <v>191</v>
       </c>
       <c r="B2" s="31">
         <v>1000</v>
@@ -4738,7 +4789,7 @@
         <v>190</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>180</v>
@@ -4746,12 +4797,12 @@
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="110"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="32">
         <v>1001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>189</v>
@@ -4810,7 +4861,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="116" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="43">
@@ -4821,7 +4872,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>185</v>
@@ -4829,7 +4880,7 @@
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="44">
         <f>MAX($B$1:B2)+1</f>
         <v>2001</v>
@@ -4846,7 +4897,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B4" s="22">
@@ -4867,7 +4918,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="22">
         <f>MAX($B$1:B4)+1</f>
         <v>2003</v>
@@ -4886,7 +4937,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="22">
         <f>MAX($B$1:B5)+1</f>
         <v>2004</v>
@@ -4895,7 +4946,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>39</v>
@@ -4905,18 +4956,18 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
-        <v>202</v>
+      <c r="A7" s="115" t="s">
+        <v>200</v>
       </c>
       <c r="B7" s="22">
         <f>MAX($B$1:B6)+1</f>
         <v>2005</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>174</v>
@@ -4924,16 +4975,16 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="22">
         <f>MAX($B$1:B7)+1</f>
         <v>2006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>96</v>
@@ -4941,7 +4992,7 @@
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="22">
         <f>MAX($B$1:B8)+1</f>
         <v>2007</v>
@@ -4950,7 +5001,7 @@
         <v>163</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>96</v>
@@ -4958,7 +5009,7 @@
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="22">
         <f>MAX($B$1:B9)+1</f>
         <v>2008</v>
@@ -4967,7 +5018,7 @@
         <v>165</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>25</v>
@@ -4975,7 +5026,7 @@
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="22">
         <f>MAX($B$1:B10)+1</f>
         <v>2009</v>
@@ -4984,7 +5035,7 @@
         <v>164</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>96</v>
@@ -4992,7 +5043,7 @@
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="22">
         <f>MAX($B$1:B11)+1</f>
         <v>2010</v>
@@ -5009,7 +5060,7 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="22">
         <f>MAX($B$1:B12)+1</f>
         <v>2011</v>
@@ -5018,7 +5069,7 @@
         <v>178</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>176</v>
@@ -5026,7 +5077,7 @@
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="22">
         <f>MAX($B$1:B13)+1</f>
         <v>2012</v>
@@ -5035,7 +5086,7 @@
         <v>179</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>180</v>
@@ -5043,7 +5094,7 @@
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="22">
         <f>MAX($B$1:B14)+1</f>
         <v>2013</v>
@@ -5060,7 +5111,7 @@
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="116" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="22">
@@ -5079,7 +5130,7 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="22">
         <f>MAX($B$1:B16)+1</f>
         <v>2015</v>
@@ -5162,96 +5213,96 @@
         <v>13</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="105" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="87" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="104"/>
+    </row>
+    <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="104"/>
+    </row>
+    <row r="5" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="105"/>
+    </row>
+    <row r="6" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="91" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" s="87"/>
-    </row>
-    <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="87"/>
-    </row>
-    <row r="5" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="88"/>
-    </row>
-    <row r="6" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="C6" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="101" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="40" t="s">
-        <v>215</v>
-      </c>
       <c r="E7" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="100"/>
+        <v>272</v>
+      </c>
+      <c r="F7" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5299,126 +5350,126 @@
         <v>13</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="D2" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="E2" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="76" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="78" t="s">
+      <c r="B3" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="119" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="118"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="82" t="s">
         <v>280</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="115" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="114"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="82" t="s">
-        <v>282</v>
       </c>
       <c r="D4" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A5" s="84" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="34"/>
       <c r="E6" s="62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="65"/>
       <c r="E7" s="61" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="67"/>
       <c r="E8" s="79"/>
       <c r="F8" s="69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="321">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2064,6 +2064,10 @@
   </si>
   <si>
     <t>/entrusted_case/manager/backup.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2161,7 +2165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2458,11 +2462,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2713,87 +2728,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2817,6 +2832,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3132,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3156,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>57</v>
@@ -3187,54 +3211,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2" s="92">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="92" t="s">
         <v>212</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="102"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="102"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -3260,7 +3284,7 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -3290,7 +3314,7 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -3322,7 +3346,7 @@
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -3354,7 +3378,7 @@
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="98" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -3382,7 +3406,7 @@
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -3410,7 +3434,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -3442,21 +3466,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
-      <c r="B11" s="105">
+      <c r="A11" s="98"/>
+      <c r="B11" s="92">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="91" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3465,47 +3489,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="106" t="s">
+      <c r="J11" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="102"/>
+      <c r="K11" s="97"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="104"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="102"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="97"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="105">
+      <c r="A13" s="98"/>
+      <c r="B13" s="92">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="91" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3514,49 +3538,49 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="106" t="s">
+      <c r="J13" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="102"/>
+      <c r="K13" s="97"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="104"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="104"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="102"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="97"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="92">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="92" t="s">
         <v>230</v>
       </c>
       <c r="G15" s="45" t="s">
@@ -3565,37 +3589,37 @@
       <c r="H15" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="105" t="s">
+      <c r="I15" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="106" t="s">
+      <c r="J15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="102" t="s">
+      <c r="K15" s="97" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="34" t="s">
         <v>255</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="105"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="102"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="97"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="45">
-        <f>MAX($B$1:B15)+1</f>
+        <f>MAX($B$1:B16)+1</f>
         <v>12</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -3627,7 +3651,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3661,21 +3685,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="105">
+      <c r="A19" s="98"/>
+      <c r="B19" s="92">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="91" t="s">
         <v>229</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -3684,35 +3708,35 @@
       <c r="H19" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="105" t="s">
+      <c r="I19" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="106" t="s">
+      <c r="J19" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="K19" s="102" t="s">
+      <c r="K19" s="97" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="104"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="102"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="97"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
@@ -3738,7 +3762,7 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
@@ -3764,7 +3788,7 @@
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
@@ -3790,7 +3814,7 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
@@ -3822,21 +3846,21 @@
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="107"/>
-      <c r="B25" s="105">
+      <c r="A25" s="98"/>
+      <c r="B25" s="92">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="91" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -3845,59 +3869,59 @@
       <c r="H25" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="104" t="s">
+      <c r="I25" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="102"/>
+      <c r="K25" s="97"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="107"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="104"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="38" t="s">
         <v>226</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="I26" s="104"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="102"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="97"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="107"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="104"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="34" t="s">
         <v>99</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="I27" s="104"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="102"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="97"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="107"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110" t="s">
+      <c r="A28" s="98"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="111" t="s">
+      <c r="E28" s="94"/>
+      <c r="F28" s="95" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -3906,33 +3930,33 @@
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="111" t="s">
+      <c r="I28" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="112" t="s">
+      <c r="J28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="103"/>
+      <c r="K28" s="109"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="107"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="I29" s="111"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="103"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="109"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="107"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
         <v>20</v>
@@ -3957,47 +3981,48 @@
         <v>308</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="107"/>
-      <c r="B31" s="88">
+      <c r="A31" s="98"/>
+      <c r="B31" s="90">
+        <f>MAX($B$1:B30)+1</f>
         <v>21</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="87" t="s">
         <v>318</v>
       </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="87" t="s">
+      <c r="E31" s="87"/>
+      <c r="F31" s="86" t="s">
         <v>316</v>
       </c>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
-      <c r="I31" s="87" t="s">
+      <c r="I31" s="86" t="s">
         <v>317</v>
       </c>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="89"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="105">
-        <f>MAX($B$1:B30)+1</f>
-        <v>21</v>
-      </c>
-      <c r="C32" s="105" t="s">
+      <c r="A32" s="98"/>
+      <c r="B32" s="92">
+        <f>MAX($B$1:B31)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C32" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="104" t="s">
+      <c r="E32" s="93"/>
+      <c r="F32" s="91" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="36" t="s">
@@ -4006,49 +4031,49 @@
       <c r="H32" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="I32" s="104" t="s">
+      <c r="I32" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="J32" s="106" t="s">
+      <c r="J32" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="102"/>
+      <c r="K32" s="97"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="104"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="36" t="s">
         <v>140</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I33" s="104"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="102"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="97"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="105">
+      <c r="B34" s="92">
         <f>MAX($B$1:B33)+1</f>
-        <v>22</v>
-      </c>
-      <c r="C34" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="105" t="s">
+      <c r="D34" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="105" t="s">
+      <c r="E34" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="104" t="s">
+      <c r="F34" s="91" t="s">
         <v>113</v>
       </c>
       <c r="G34" s="36" t="s">
@@ -4057,87 +4082,87 @@
       <c r="H34" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="104" t="s">
+      <c r="I34" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="J34" s="106" t="s">
+      <c r="J34" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="102"/>
+      <c r="K34" s="97"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="104"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="91"/>
       <c r="G35" s="36" t="s">
         <v>302</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I35" s="104"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="102"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="97"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="104"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="91"/>
       <c r="G36" s="36" t="s">
         <v>303</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="I36" s="104"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="102"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="97"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="107"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="104"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="91"/>
       <c r="G37" s="34" t="s">
         <v>126</v>
       </c>
       <c r="H37" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I37" s="104"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="102"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="97"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="107"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="104"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="91"/>
       <c r="G38" s="34" t="s">
         <v>301</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="I38" s="104"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="102"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="97"/>
     </row>
     <row r="39" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="107"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="52">
         <f>MAX($B$1:B38)+1</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>91</v>
@@ -4164,10 +4189,10 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="107"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="45">
         <f>MAX($B$1:B39)+1</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>121</v>
@@ -4194,8 +4219,11 @@
       <c r="K40" s="48"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="107"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="58">
+        <f>MAX($B$1:B40)+1</f>
+        <v>26</v>
+      </c>
       <c r="C41" s="58" t="s">
         <v>246</v>
       </c>
@@ -4217,10 +4245,10 @@
       <c r="K41" s="56"/>
     </row>
     <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="45">
-        <f>MAX($B$1:B40)+1</f>
-        <v>25</v>
+        <f>MAX($B$1:B41)+1</f>
+        <v>27</v>
       </c>
       <c r="C42" s="45" t="s">
         <v>245</v>
@@ -4243,19 +4271,19 @@
       <c r="K42" s="48"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="107"/>
-      <c r="B43" s="105">
+      <c r="A43" s="98"/>
+      <c r="B43" s="92">
         <f>MAX($B$1:B42)+1</f>
-        <v>26</v>
-      </c>
-      <c r="C43" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="105" t="s">
+      <c r="D43" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="105"/>
-      <c r="F43" s="104" t="s">
+      <c r="E43" s="92"/>
+      <c r="F43" s="91" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="34" t="s">
@@ -4264,45 +4292,45 @@
       <c r="H43" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="104" t="s">
+      <c r="I43" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="J43" s="106" t="s">
+      <c r="J43" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K43" s="102"/>
+      <c r="K43" s="97"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="107"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="104"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="91"/>
       <c r="G44" s="34" t="s">
         <v>92</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="I44" s="104"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="102"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="97"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="105">
+      <c r="A45" s="98"/>
+      <c r="B45" s="92">
         <f>MAX($B$1:B44)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C45" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="D45" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="106"/>
-      <c r="F45" s="104" t="s">
+      <c r="E45" s="93"/>
+      <c r="F45" s="91" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="36" t="s">
@@ -4311,72 +4339,72 @@
       <c r="H45" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="I45" s="105" t="s">
+      <c r="I45" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="106" t="s">
+      <c r="J45" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K45" s="102"/>
+      <c r="K45" s="97"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="107"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="104"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="91"/>
       <c r="G46" s="36" t="s">
         <v>130</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="105"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="102"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="97"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="107"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="104"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="91"/>
       <c r="G47" s="36" t="s">
         <v>129</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="105"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="102"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="97"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="104"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="91"/>
       <c r="G48" s="36" t="s">
         <v>128</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="105"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="102"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="97"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="98" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="45">
-        <f>MAX($B$1:B47)+1</f>
-        <v>28</v>
+        <f>MAX($B$1:B48)+1</f>
+        <v>30</v>
       </c>
       <c r="C49" s="45" t="s">
         <v>224</v>
@@ -4394,24 +4422,24 @@
         <v>223</v>
       </c>
       <c r="J49" s="47" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="K49" s="48"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="107"/>
-      <c r="B50" s="105">
+      <c r="A50" s="98"/>
+      <c r="B50" s="92">
         <f>MAX($B$1:B49)+1</f>
-        <v>29</v>
-      </c>
-      <c r="C50" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="105" t="s">
+      <c r="D50" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="E50" s="105"/>
-      <c r="F50" s="104" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="91" t="s">
         <v>212</v>
       </c>
       <c r="G50" s="36" t="s">
@@ -4420,70 +4448,70 @@
       <c r="H50" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="I50" s="104" t="s">
+      <c r="I50" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="J50" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="K50" s="48"/>
+      <c r="J50" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" s="121"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="107"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="104"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="91"/>
       <c r="G51" s="36" t="s">
         <v>309</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="I51" s="104"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="86"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="122"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="107"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="104"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="36" t="s">
         <v>311</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="I52" s="104"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="86"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="122"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="107"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="104"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="91"/>
       <c r="G53" s="36" t="s">
         <v>206</v>
       </c>
       <c r="H53" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="I53" s="105"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="48"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="123"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="107"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="45">
-        <f>MAX($B$1:B50)+1</f>
-        <v>30</v>
+        <f>MAX($B$1:B53)+1</f>
+        <v>32</v>
       </c>
       <c r="C54" s="45" t="s">
         <v>208</v>
@@ -4508,19 +4536,19 @@
       <c r="K54" s="48"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="108"/>
-      <c r="B55" s="91">
+      <c r="A55" s="99"/>
+      <c r="B55" s="103">
         <f>MAX($B$1:B54)+1</f>
-        <v>31</v>
-      </c>
-      <c r="C55" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="D55" s="91" t="s">
+      <c r="D55" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="E55" s="93"/>
-      <c r="F55" s="95" t="s">
+      <c r="E55" s="107"/>
+      <c r="F55" s="105" t="s">
         <v>290</v>
       </c>
       <c r="G55" s="50" t="s">
@@ -4529,45 +4557,45 @@
       <c r="H55" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="I55" s="91" t="s">
+      <c r="I55" s="103" t="s">
         <v>294</v>
       </c>
-      <c r="J55" s="93" t="s">
+      <c r="J55" s="107" t="s">
         <v>102</v>
       </c>
       <c r="K55" s="60"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="108"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="96"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="112"/>
       <c r="G56" s="50" t="s">
         <v>295</v>
       </c>
       <c r="H56" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="I56" s="92"/>
-      <c r="J56" s="94"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="111"/>
       <c r="K56" s="60"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="108"/>
-      <c r="B57" s="91">
+      <c r="A57" s="99"/>
+      <c r="B57" s="103">
         <f>MAX($B$1:B56)+1</f>
-        <v>32</v>
-      </c>
-      <c r="C57" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="91" t="s">
+      <c r="D57" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="E57" s="93"/>
-      <c r="F57" s="95" t="s">
+      <c r="E57" s="107"/>
+      <c r="F57" s="105" t="s">
         <v>220</v>
       </c>
       <c r="G57" s="50" t="s">
@@ -4576,57 +4604,107 @@
       <c r="H57" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="I57" s="91" t="s">
+      <c r="I57" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="J57" s="93" t="s">
+      <c r="J57" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="K57" s="99" t="s">
+      <c r="K57" s="101" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="109"/>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="101"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="106"/>
       <c r="G58" s="40" t="s">
         <v>213</v>
       </c>
       <c r="H58" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="I58" s="97"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="100"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="102"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K58"/>
-  <mergeCells count="115">
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="K43:K44"/>
+  <mergeCells count="116">
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A34:A48"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A15:A33"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
@@ -4651,76 +4729,27 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A34:A48"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A15:A33"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J28:J29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -4826,7 +4855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5182,9 +5211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5217,13 +5244,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -5232,54 +5259,54 @@
       <c r="E2" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="91" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="36" t="s">
         <v>309</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="F3" s="104"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="36" t="s">
         <v>311</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="104"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="36" t="s">
         <v>206</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="103" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -5288,21 +5315,21 @@
       <c r="E6" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="105" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="40" t="s">
         <v>213</v>
       </c>
       <c r="E7" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5324,7 +5351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5377,10 +5404,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="103" t="s">
         <v>188</v>
       </c>
       <c r="C3" s="50" t="s">
@@ -5389,7 +5416,7 @@
       <c r="D3" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="103" t="s">
         <v>269</v>
       </c>
       <c r="F3" s="119" t="s">
@@ -5398,14 +5425,14 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="118"/>
-      <c r="B4" s="92"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="82" t="s">
         <v>280</v>
       </c>
       <c r="D4" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="92"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">

--- a/design/协议.xlsx
+++ b/design/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="web接口" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="ActiveX 接口" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web接口!$A$1:$K$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="0" shapeId="0">
+    <comment ref="G43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -606,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="0" shapeId="0">
+    <comment ref="I46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I49" authorId="0" shapeId="0">
+    <comment ref="I52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="330">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2068,6 +2068,42 @@
   </si>
   <si>
     <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改附件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时间[opt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/entrusted_case/attach/update.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2477,7 +2513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2747,11 +2783,77 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2761,54 +2863,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2833,14 +2887,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3154,11 +3208,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3211,54 +3263,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="92">
+      <c r="B2" s="111">
         <f>MAX($B$1:B1)+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="111" t="s">
         <v>212</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="97"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="97"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="108"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="45">
         <f>MAX($B$1:B3)+1</f>
         <v>2</v>
@@ -3284,7 +3336,7 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="45">
         <f>MAX($B$1:B4)+1</f>
         <v>3</v>
@@ -3314,7 +3366,7 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="45">
         <f>MAX($B$1:B5)+1</f>
         <v>4</v>
@@ -3346,7 +3398,7 @@
       <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="45">
         <f>MAX($B$1:B6)+1</f>
         <v>5</v>
@@ -3378,7 +3430,7 @@
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="113" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="45">
@@ -3406,7 +3458,7 @@
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="45">
         <f>MAX($B$1:B8)+1</f>
         <v>7</v>
@@ -3434,7 +3486,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="45">
         <f>MAX($B$1:B9)+1</f>
         <v>8</v>
@@ -3466,21 +3518,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="92">
+      <c r="A11" s="113"/>
+      <c r="B11" s="111">
         <f>MAX($B$1:B10)+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="110" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -3489,47 +3541,47 @@
       <c r="H11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="91" t="s">
+      <c r="I11" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="97"/>
+      <c r="K11" s="108"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="91"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="97"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="108"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
-      <c r="B13" s="92">
+      <c r="A13" s="113"/>
+      <c r="B13" s="111">
         <f>MAX($B$1:B12)+1</f>
         <v>10</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="110" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -3538,49 +3590,49 @@
       <c r="H13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="91" t="s">
+      <c r="I13" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="93" t="s">
+      <c r="J13" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="97"/>
+      <c r="K13" s="108"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="98"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="91"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="45" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="91"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="97"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="108"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="111">
         <f>MAX($B$1:B14)+1</f>
         <v>11</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="111" t="s">
         <v>230</v>
       </c>
       <c r="G15" s="45" t="s">
@@ -3589,35 +3641,35 @@
       <c r="H15" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="93" t="s">
+      <c r="J15" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="97" t="s">
+      <c r="K15" s="108" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="34" t="s">
         <v>255</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="97"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="108"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="45">
         <f>MAX($B$1:B16)+1</f>
         <v>12</v>
@@ -3651,7 +3703,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="45">
         <f>MAX($B$1:B17)+1</f>
         <v>13</v>
@@ -3685,21 +3737,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
-      <c r="B19" s="92">
+      <c r="A19" s="113"/>
+      <c r="B19" s="111">
         <f>MAX($B$1:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="110" t="s">
         <v>229</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -3708,35 +3760,35 @@
       <c r="H19" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="92" t="s">
+      <c r="I19" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="93" t="s">
+      <c r="J19" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="K19" s="97" t="s">
+      <c r="K19" s="108" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="91"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="97"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="108"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="52">
         <f>MAX($B$1:B20)+1</f>
         <v>15</v>
@@ -3762,7 +3814,7 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="52">
         <f>MAX($B$1:B21)+1</f>
         <v>16</v>
@@ -3788,7 +3840,7 @@
       <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="45">
         <f>MAX($B$1:B22)+1</f>
         <v>17</v>
@@ -3814,7 +3866,7 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="45">
         <f>MAX($B$1:B23)+1</f>
         <v>18</v>
@@ -3846,21 +3898,21 @@
       <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
-      <c r="B25" s="92">
+      <c r="A25" s="113"/>
+      <c r="B25" s="111">
         <f>MAX($B$1:B24)+1</f>
         <v>19</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="E25" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="110" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -3869,59 +3921,62 @@
       <c r="H25" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="91" t="s">
+      <c r="I25" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="93" t="s">
+      <c r="J25" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="97"/>
+      <c r="K25" s="108"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="91"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="38" t="s">
         <v>226</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="I26" s="91"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="97"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="108"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="91"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="110"/>
       <c r="G27" s="34" t="s">
         <v>99</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="97"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="108"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94" t="s">
+      <c r="A28" s="113"/>
+      <c r="B28" s="116">
+        <f>MAX($B$1:B27)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C28" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95" t="s">
+      <c r="E28" s="116"/>
+      <c r="F28" s="117" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -3930,36 +3985,36 @@
       <c r="H28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="96" t="s">
+      <c r="J28" s="118" t="s">
         <v>102</v>
       </c>
       <c r="K28" s="109"/>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
       <c r="G29" s="42" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
       <c r="K29" s="109"/>
     </row>
     <row r="30" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="45">
         <f>MAX($B$1:B29)+1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>197</v>
@@ -3986,10 +4041,10 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="90">
         <f>MAX($B$1:B30)+1</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="87" t="s">
         <v>314</v>
@@ -4009,710 +4064,710 @@
       <c r="J31" s="88"/>
       <c r="K31" s="89"/>
     </row>
-    <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
-      <c r="B32" s="92">
+    <row r="32" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="113"/>
+      <c r="B32" s="97">
         <f>MAX($B$1:B31)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="99"/>
+      <c r="F32" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="I32" s="91"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
+    </row>
+    <row r="33" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="113"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="I33" s="91"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
+    </row>
+    <row r="34" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="113"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="I34" s="91"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="93"/>
+    </row>
+    <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="113"/>
+      <c r="B35" s="111">
+        <f>MAX($B$1:B32)+1</f>
+        <v>24</v>
+      </c>
+      <c r="C35" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="112"/>
+      <c r="F35" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="108"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="113"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" s="110"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="108"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="93"/>
-      <c r="F32" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="93" t="s">
+      <c r="B37" s="111">
+        <f>MAX($B$1:B36)+1</f>
+        <v>25</v>
+      </c>
+      <c r="C37" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="97"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="91"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="97"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="92">
-        <f>MAX($B$1:B33)+1</f>
-        <v>23</v>
-      </c>
-      <c r="C34" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="91" t="s">
+      <c r="K37" s="108"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="113"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="110"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="108"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="113"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I39" s="110"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="108"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="113"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="110"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="108"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="113"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I41" s="110"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="108"/>
+    </row>
+    <row r="42" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="113"/>
+      <c r="B42" s="52">
+        <f>MAX($B$1:B41)+1</f>
+        <v>26</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G42" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="93" t="s">
+      <c r="H42" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="97"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="91"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="97"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="I36" s="91"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="97"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="91"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="97"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="98"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="I38" s="91"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="97"/>
-    </row>
-    <row r="39" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="98"/>
-      <c r="B39" s="52">
-        <f>MAX($B$1:B38)+1</f>
+      <c r="K42" s="39"/>
+    </row>
+    <row r="43" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="113"/>
+      <c r="B43" s="45">
+        <f>MAX($B$1:B42)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="J39" s="37" t="s">
+      <c r="I43" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="K39" s="39"/>
-    </row>
-    <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="98"/>
-      <c r="B40" s="45">
-        <f>MAX($B$1:B39)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="J40" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
-      <c r="B41" s="58">
-        <f>MAX($B$1:B40)+1</f>
-        <v>26</v>
-      </c>
-      <c r="C41" s="58" t="s">
+      <c r="K43" s="48"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="113"/>
+      <c r="B44" s="58">
+        <f>MAX($B$1:B43)+1</f>
+        <v>28</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D44" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="57" t="s">
+      <c r="E44" s="58"/>
+      <c r="F44" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G44" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="57" t="s">
+      <c r="H44" s="34"/>
+      <c r="I44" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="J41" s="59"/>
-      <c r="K41" s="56"/>
-    </row>
-    <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
-      <c r="B42" s="45">
-        <f>MAX($B$1:B41)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="J42" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98"/>
-      <c r="B43" s="92">
-        <f>MAX($B$1:B42)+1</f>
-        <v>28</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="I43" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="J43" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="K43" s="97"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="98"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="I44" s="91"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="97"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="98"/>
-      <c r="B45" s="92">
+      <c r="J44" s="59"/>
+      <c r="K44" s="56"/>
+    </row>
+    <row r="45" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="113"/>
+      <c r="B45" s="45">
         <f>MAX($B$1:B44)+1</f>
         <v>29</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="J45" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="48"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="113"/>
+      <c r="B46" s="111">
+        <f>MAX($B$1:B45)+1</f>
+        <v>30</v>
+      </c>
+      <c r="C46" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="111"/>
+      <c r="F46" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I46" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="108"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="113"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I47" s="110"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="108"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="113"/>
+      <c r="B48" s="111">
+        <f>MAX($B$1:B47)+1</f>
+        <v>31</v>
+      </c>
+      <c r="C48" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D48" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="93"/>
-      <c r="F45" s="91" t="s">
+      <c r="E48" s="112"/>
+      <c r="F48" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G48" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H48" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="I45" s="92" t="s">
+      <c r="I48" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="93" t="s">
+      <c r="J48" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="K45" s="97"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="98"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="36" t="s">
+      <c r="K48" s="108"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="113"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H49" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="92"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="97"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="98"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="36" t="s">
+      <c r="I49" s="111"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="108"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="113"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H50" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="92"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="97"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="98"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="36" t="s">
+      <c r="I50" s="111"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="108"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="113"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/